--- a/docs/fattibilita/template_gantt excell.xlsx
+++ b/docs/fattibilita/template_gantt excell.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomma\Desktop\scuola\5 INFO\GPOI\progetto-GPOI-5INFB-Guerini-Bertasa-Mutti-Zecchini\docs\fattibilita\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D0030D3-5193-4EE2-841C-D4E84AAE3A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F253A4-AAE9-4A29-AAD1-A585CA93D6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{9327F8D6-4F37-4E25-8083-20A17765DC2F}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>TASK</t>
   </si>
@@ -58,24 +58,6 @@
     <t>Month</t>
   </si>
   <si>
-    <t>Cybermura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Task 1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Task 1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Task 1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Task 1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Task 2.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Task 2.2</t>
   </si>
   <si>
@@ -85,9 +67,6 @@
     <t xml:space="preserve">  Task 2.4</t>
   </si>
   <si>
-    <t xml:space="preserve">  Task 3.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Task 3.2</t>
   </si>
   <si>
@@ -112,9 +91,6 @@
     <t>Selling</t>
   </si>
   <si>
-    <t xml:space="preserve">  Task 4.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Task 4.2</t>
   </si>
   <si>
@@ -167,6 +143,27 @@
   </si>
   <si>
     <t>Weeks #</t>
+  </si>
+  <si>
+    <t>progetto Poli-Demoni</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>definizione del progetto</t>
+  </si>
+  <si>
+    <t>lavoro e sviluppo scheletro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  continuo frontHand</t>
+  </si>
+  <si>
+    <t>domande intervista</t>
+  </si>
+  <si>
+    <t>task 1.3</t>
   </si>
 </sst>
 </file>
@@ -485,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -569,9 +566,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -638,26 +632,32 @@
     <xf numFmtId="166" fontId="0" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1038,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490757F6-93EC-4607-8435-BB8805CD3E41}">
-  <dimension ref="C2:AU39"/>
+  <dimension ref="C2:AV39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="AW27" sqref="AW27"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1049,7 +1049,7 @@
     <col min="1" max="1" width="2.33203125" customWidth="1"/>
     <col min="2" max="2" width="6.1328125" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="13.19921875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="9.46484375" customWidth="1"/>
     <col min="6" max="6" width="10.46484375" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
@@ -1058,87 +1058,87 @@
     <col min="45" max="49" width="13.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:47" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="62"/>
+    <row r="2" spans="3:48" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="65"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="3:47" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:48" x14ac:dyDescent="0.45">
       <c r="C3" s="61" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D3" s="61"/>
       <c r="H3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="58" t="str">
+      <c r="I3" s="62" t="str">
         <f>TEXT(I5,"MMM")</f>
         <v>Oct</v>
       </c>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="58" t="str">
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="62" t="str">
         <f>TEXT(M5,"MMM")</f>
         <v>Nov</v>
       </c>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="58" t="str">
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="62" t="str">
         <f>TEXT(Q5,"MMM")</f>
         <v>Dec</v>
       </c>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
       <c r="U3" s="7"/>
-      <c r="V3" s="58" t="str">
+      <c r="V3" s="62" t="str">
         <f>TEXT(V5,"MMM")</f>
         <v>Jan</v>
       </c>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="58" t="str">
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="62" t="str">
         <f>TEXT(Z5,"MMM")</f>
         <v>Feb</v>
       </c>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="58" t="str">
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="62" t="str">
         <f>TEXT(AD5,"MMM")</f>
         <v>Mar</v>
       </c>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
       <c r="AH3" s="7"/>
-      <c r="AI3" s="58" t="str">
+      <c r="AI3" s="62" t="str">
         <f>TEXT(AI5,"MMM")</f>
         <v>Apr</v>
       </c>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59"/>
-      <c r="AL3" s="60"/>
-      <c r="AM3" s="58" t="str">
+      <c r="AJ3" s="63"/>
+      <c r="AK3" s="63"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="62" t="str">
         <f>TEXT(AM5,"MMM")</f>
         <v>May</v>
       </c>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="59"/>
-      <c r="AP3" s="60"/>
+      <c r="AN3" s="63"/>
+      <c r="AO3" s="63"/>
+      <c r="AP3" s="64"/>
       <c r="AQ3" s="6" t="str">
         <f>TEXT(AQ5,"MMM")</f>
         <v>Jun</v>
       </c>
     </row>
-    <row r="4" spans="3:47" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:48" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>3</v>
@@ -1249,9 +1249,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="3:47" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:48" x14ac:dyDescent="0.45">
       <c r="H5" s="17" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I5" s="11">
         <v>45936</v>
@@ -1358,30 +1358,30 @@
       <c r="AQ5" s="20">
         <v>46174</v>
       </c>
-      <c r="AS5" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="AT5" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="AU5" s="50" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C6" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="37" t="s">
+      <c r="AS5" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT5" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU5" s="49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="3:48" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="36" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="4"/>
@@ -1421,14 +1421,14 @@
       <c r="AP6" s="5"/>
       <c r="AQ6" s="5"/>
       <c r="AS6" s="8"/>
-      <c r="AT6" s="54"/>
-      <c r="AU6" s="56"/>
-    </row>
-    <row r="7" spans="3:47" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C7" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="34"/>
+      <c r="AT6" s="53"/>
+      <c r="AU6" s="55"/>
+    </row>
+    <row r="7" spans="3:48" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C7" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="33"/>
       <c r="E7" s="28"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
@@ -1469,15 +1469,15 @@
       <c r="AP7" s="22"/>
       <c r="AQ7" s="23"/>
       <c r="AS7" s="8"/>
-      <c r="AT7" s="54"/>
-      <c r="AU7" s="56"/>
-    </row>
-    <row r="8" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>27</v>
+      <c r="AT7" s="53"/>
+      <c r="AU7" s="55"/>
+    </row>
+    <row r="8" spans="3:48" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>19</v>
       </c>
       <c r="E8" s="27">
         <v>1</v>
@@ -1486,13 +1486,10 @@
         <v>45936</v>
       </c>
       <c r="G8" s="30">
-        <v>45961</v>
+        <v>45937</v>
       </c>
       <c r="H8" s="25"/>
-      <c r="I8" s="25">
-        <f>1*AND(I$5&gt;=task_start,I$5&lt;=task_start+(task_progress*(task_end-task_start+1))-1)</f>
-        <v>1</v>
-      </c>
+      <c r="I8" s="25"/>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
@@ -1529,23 +1526,23 @@
       <c r="AQ8" s="23"/>
       <c r="AS8" s="8">
         <f t="shared" ref="AS8:AS26" si="0">INT((G8-F8)/7)</f>
-        <v>3</v>
-      </c>
-      <c r="AT8" s="54">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="53">
         <f>AS8*$D$36</f>
-        <v>9</v>
-      </c>
-      <c r="AU8" s="56">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="55">
         <f>AT8*$D$37</f>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:48" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C9" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>20</v>
       </c>
       <c r="E9" s="27">
         <v>0.4</v>
@@ -1554,10 +1551,13 @@
         <v>45940</v>
       </c>
       <c r="G9" s="30">
-        <v>45961</v>
+        <v>45941</v>
       </c>
       <c r="H9" s="24"/>
-      <c r="I9" s="25"/>
+      <c r="I9" s="25">
+        <f t="shared" ref="I8:I26" si="1">1*AND(I$5&gt;=task_start,I$5&lt;=task_start+(task_progress*(task_end-task_start+1))-1)</f>
+        <v>0</v>
+      </c>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
@@ -1594,35 +1594,38 @@
       <c r="AQ9" s="23"/>
       <c r="AS9" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AT9" s="54">
-        <f t="shared" ref="AT9:AT26" si="1">AS9*$D$36</f>
-        <v>9</v>
-      </c>
-      <c r="AU9" s="56">
-        <f t="shared" ref="AU9:AU26" si="2">AT9*$D$37</f>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="AT9" s="53">
+        <f t="shared" ref="AT9:AT26" si="2">AS9*$D$36</f>
+        <v>0</v>
+      </c>
+      <c r="AU9" s="55">
+        <f t="shared" ref="AU9:AU26" si="3">AT9*$D$37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:48" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C10" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="E10" s="27">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="30">
         <v>45945</v>
       </c>
       <c r="G10" s="30">
-        <v>45961</v>
+        <v>45945</v>
       </c>
       <c r="H10" s="24"/>
-      <c r="I10" s="25"/>
+      <c r="I10" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
@@ -1659,35 +1662,32 @@
       <c r="AQ10" s="23"/>
       <c r="AS10" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AT10" s="54">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU10" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:48" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C11" s="32"/>
+      <c r="D11" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="27">
+        <v>0</v>
+      </c>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AU10" s="56">
-        <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="F11" s="30">
-        <v>45955</v>
-      </c>
-      <c r="G11" s="30">
-        <v>45961</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25"/>
+        <v>0</v>
+      </c>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
@@ -1726,25 +1726,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AT11" s="54">
+      <c r="AT11" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU11" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:48" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C12" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="27">
+        <v>0</v>
+      </c>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AU11" s="56">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="3:47" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C12" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
@@ -1783,29 +1787,36 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AT12" s="54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AU12" s="56">
+      <c r="AT12" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C13" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="26"/>
+      <c r="AU12" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:48" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C13" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="27">
+        <v>0.3</v>
+      </c>
       <c r="F13" s="30">
-        <v>45945</v>
+        <v>45964</v>
       </c>
       <c r="G13" s="30">
-        <v>46022</v>
+        <v>45964</v>
       </c>
       <c r="H13" s="24"/>
-      <c r="I13" s="25"/>
+      <c r="I13" s="25">
+        <f>1*AND(I$5&gt;=task_start,I$5&lt;=task_start+(task_progress*(task_end-task_start+1))-1)</f>
+        <v>0</v>
+      </c>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
@@ -1842,23 +1853,27 @@
       <c r="AQ13" s="23"/>
       <c r="AS13" s="8">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="AT13" s="54">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="AU13" s="56">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="53">
         <f t="shared" si="2"/>
-        <v>495</v>
-      </c>
-    </row>
-    <row r="14" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C14" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="26"/>
+        <v>0</v>
+      </c>
+      <c r="AU13" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:48" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C14" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="27">
+        <v>0</v>
+      </c>
       <c r="F14" s="30">
         <v>45962</v>
       </c>
@@ -1866,7 +1881,10 @@
         <v>46022</v>
       </c>
       <c r="H14" s="24"/>
-      <c r="I14" s="25"/>
+      <c r="I14" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J14" s="25"/>
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
@@ -1905,21 +1923,28 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AT14" s="54">
-        <f t="shared" si="1"/>
+      <c r="AT14" s="53">
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="AU14" s="56">
-        <f t="shared" si="2"/>
+      <c r="AU14" s="55">
+        <f t="shared" si="3"/>
         <v>360</v>
       </c>
-    </row>
-    <row r="15" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="26"/>
+      <c r="AV14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="3:48" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C15" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="27">
+        <v>0</v>
+      </c>
       <c r="F15" s="30">
         <v>45962</v>
       </c>
@@ -1927,7 +1952,10 @@
         <v>46022</v>
       </c>
       <c r="H15" s="24"/>
-      <c r="I15" s="25"/>
+      <c r="I15" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
       <c r="L15" s="25"/>
@@ -1966,21 +1994,25 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AT15" s="54">
-        <f t="shared" si="1"/>
+      <c r="AT15" s="53">
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="AU15" s="56">
-        <f t="shared" si="2"/>
+      <c r="AU15" s="55">
+        <f t="shared" si="3"/>
         <v>360</v>
       </c>
     </row>
-    <row r="16" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="26"/>
+    <row r="16" spans="3:48" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C16" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="27">
+        <v>0</v>
+      </c>
       <c r="F16" s="30">
         <v>45962</v>
       </c>
@@ -1988,7 +2020,10 @@
         <v>46022</v>
       </c>
       <c r="H16" s="24"/>
-      <c r="I16" s="25"/>
+      <c r="I16" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
@@ -2027,25 +2062,30 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AT16" s="54">
+      <c r="AT16" s="53">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="AU16" s="55">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="3:47" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C17" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="27">
+        <v>0</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="25">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AU16" s="56">
-        <f t="shared" si="2"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="17" spans="3:47" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="25"/>
+        <v>0</v>
+      </c>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
@@ -2084,21 +2124,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AT17" s="54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AU17" s="56">
+      <c r="AT17" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="AU17" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="26"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="27">
+        <v>0</v>
+      </c>
       <c r="F18" s="30">
         <v>45945</v>
       </c>
@@ -2106,7 +2148,10 @@
         <v>46022</v>
       </c>
       <c r="H18" s="24"/>
-      <c r="I18" s="25"/>
+      <c r="I18" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
@@ -2145,21 +2190,25 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="AT18" s="54">
-        <f t="shared" si="1"/>
+      <c r="AT18" s="53">
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="AU18" s="56">
-        <f t="shared" si="2"/>
+      <c r="AU18" s="55">
+        <f t="shared" si="3"/>
         <v>495</v>
       </c>
     </row>
     <row r="19" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="26"/>
+      <c r="C19" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="27">
+        <v>0</v>
+      </c>
       <c r="F19" s="30">
         <v>45962</v>
       </c>
@@ -2167,7 +2216,10 @@
         <v>46022</v>
       </c>
       <c r="H19" s="24"/>
-      <c r="I19" s="25"/>
+      <c r="I19" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
@@ -2206,21 +2258,25 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AT19" s="54">
-        <f t="shared" si="1"/>
+      <c r="AT19" s="53">
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="AU19" s="56">
-        <f t="shared" si="2"/>
+      <c r="AU19" s="55">
+        <f t="shared" si="3"/>
         <v>360</v>
       </c>
     </row>
     <row r="20" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="26"/>
+      <c r="C20" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="27">
+        <v>0</v>
+      </c>
       <c r="F20" s="30">
         <v>45962</v>
       </c>
@@ -2228,7 +2284,10 @@
         <v>46022</v>
       </c>
       <c r="H20" s="24"/>
-      <c r="I20" s="25"/>
+      <c r="I20" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
@@ -2267,21 +2326,25 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AT20" s="54">
-        <f t="shared" si="1"/>
+      <c r="AT20" s="53">
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="AU20" s="56">
-        <f t="shared" si="2"/>
+      <c r="AU20" s="55">
+        <f t="shared" si="3"/>
         <v>360</v>
       </c>
     </row>
     <row r="21" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="26"/>
+      <c r="C21" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="27">
+        <v>0</v>
+      </c>
       <c r="F21" s="30">
         <v>45962</v>
       </c>
@@ -2289,7 +2352,10 @@
         <v>46022</v>
       </c>
       <c r="H21" s="24"/>
-      <c r="I21" s="25"/>
+      <c r="I21" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
@@ -2328,25 +2394,30 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AT21" s="54">
-        <f t="shared" si="1"/>
+      <c r="AT21" s="53">
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="AU21" s="56">
-        <f t="shared" si="2"/>
+      <c r="AU21" s="55">
+        <f t="shared" si="3"/>
         <v>360</v>
       </c>
     </row>
     <row r="22" spans="3:47" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="31"/>
+      <c r="C22" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="32"/>
+      <c r="E22" s="27">
+        <v>0</v>
+      </c>
       <c r="F22" s="26"/>
       <c r="G22" s="26"/>
       <c r="H22" s="24"/>
-      <c r="I22" s="25"/>
+      <c r="I22" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
       <c r="L22" s="25"/>
@@ -2385,29 +2456,36 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AT22" s="54">
+      <c r="AT22" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU22" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C23" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="F23" s="30">
+        <v>45957</v>
+      </c>
+      <c r="G23" s="30">
+        <v>45964</v>
+      </c>
+      <c r="H23" s="24"/>
+      <c r="I23" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AU22" s="56">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="30">
-        <v>45945</v>
-      </c>
-      <c r="G23" s="30">
-        <v>46022</v>
-      </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="25"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
@@ -2444,23 +2522,27 @@
       <c r="AQ23" s="23"/>
       <c r="AS23" s="8">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="AT23" s="54">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="AU23" s="56">
+        <v>1</v>
+      </c>
+      <c r="AT23" s="53">
         <f t="shared" si="2"/>
-        <v>495</v>
+        <v>3</v>
+      </c>
+      <c r="AU23" s="55">
+        <f t="shared" si="3"/>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="26"/>
+      <c r="C24" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="27">
+        <v>0</v>
+      </c>
       <c r="F24" s="30">
         <v>45962</v>
       </c>
@@ -2468,7 +2550,10 @@
         <v>46022</v>
       </c>
       <c r="H24" s="24"/>
-      <c r="I24" s="25"/>
+      <c r="I24" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
@@ -2507,21 +2592,25 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AT24" s="54">
-        <f t="shared" si="1"/>
+      <c r="AT24" s="53">
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="AU24" s="56">
-        <f t="shared" si="2"/>
+      <c r="AU24" s="55">
+        <f t="shared" si="3"/>
         <v>360</v>
       </c>
     </row>
     <row r="25" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C25" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="26"/>
+      <c r="C25" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="27">
+        <v>0</v>
+      </c>
       <c r="F25" s="30">
         <v>45962</v>
       </c>
@@ -2529,7 +2618,10 @@
         <v>46022</v>
       </c>
       <c r="H25" s="24"/>
-      <c r="I25" s="25"/>
+      <c r="I25" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
@@ -2568,21 +2660,25 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AT25" s="54">
-        <f t="shared" si="1"/>
+      <c r="AT25" s="53">
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="AU25" s="56">
-        <f t="shared" si="2"/>
+      <c r="AU25" s="55">
+        <f t="shared" si="3"/>
         <v>360</v>
       </c>
     </row>
     <row r="26" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C26" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="26"/>
+      <c r="C26" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="27">
+        <v>0</v>
+      </c>
       <c r="F26" s="30">
         <v>45962</v>
       </c>
@@ -2590,7 +2686,10 @@
         <v>46022</v>
       </c>
       <c r="H26" s="24"/>
-      <c r="I26" s="25"/>
+      <c r="I26" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
@@ -2629,159 +2728,154 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AT26" s="54">
-        <f t="shared" si="1"/>
+      <c r="AT26" s="53">
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="AU26" s="56">
-        <f t="shared" si="2"/>
+      <c r="AU26" s="55">
+        <f t="shared" si="3"/>
         <v>360</v>
       </c>
     </row>
     <row r="27" spans="3:47" x14ac:dyDescent="0.45">
       <c r="AS27" s="8"/>
-      <c r="AT27" s="54"/>
-      <c r="AU27" s="56"/>
+      <c r="AT27" s="53"/>
+      <c r="AU27" s="55"/>
     </row>
     <row r="28" spans="3:47" x14ac:dyDescent="0.45">
       <c r="AS28" s="8"/>
-      <c r="AT28" s="54"/>
-      <c r="AU28" s="56"/>
+      <c r="AT28" s="53"/>
+      <c r="AU28" s="55"/>
     </row>
     <row r="29" spans="3:47" x14ac:dyDescent="0.45">
-      <c r="C29" s="39"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="41"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="40"/>
       <c r="AS29" s="8"/>
-      <c r="AT29" s="54"/>
-      <c r="AU29" s="56"/>
+      <c r="AT29" s="53"/>
+      <c r="AU29" s="55"/>
     </row>
     <row r="30" spans="3:47" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="C30" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="63"/>
-      <c r="F30" s="64"/>
-      <c r="AS30" s="52">
+      <c r="C30" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="59"/>
+      <c r="F30" s="60"/>
+      <c r="AS30" s="51">
         <f>SUM(AS8:AS26)</f>
-        <v>113</v>
-      </c>
-      <c r="AT30" s="55">
+        <v>84</v>
+      </c>
+      <c r="AT30" s="54">
         <f>SUM(AT8:AT26)</f>
-        <v>339</v>
-      </c>
-      <c r="AU30" s="57">
+        <v>252</v>
+      </c>
+      <c r="AU30" s="56">
         <f>SUM(AU8:AU26)</f>
-        <v>5085</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="31" spans="3:47" x14ac:dyDescent="0.45">
-      <c r="C31" s="43"/>
-      <c r="D31" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="63"/>
-      <c r="F31" s="64"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="59"/>
+      <c r="F31" s="60"/>
     </row>
     <row r="32" spans="3:47" x14ac:dyDescent="0.45">
-      <c r="C32" s="43"/>
-      <c r="D32" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="63"/>
-      <c r="F32" s="64"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="59"/>
+      <c r="F32" s="60"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C33" s="43"/>
-      <c r="D33" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="63"/>
-      <c r="F33" s="64"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="59"/>
+      <c r="F33" s="60"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C34" s="43"/>
+      <c r="C34" s="42"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="42"/>
+      <c r="F34" s="41"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C35" s="43"/>
+      <c r="C35" s="42"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="42"/>
+      <c r="F35" s="41"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C36" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="47">
+      <c r="C36" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="46">
         <v>3</v>
       </c>
-      <c r="E36" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="42"/>
+      <c r="E36" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="41"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C37" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="47">
+      <c r="C37" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="46">
         <v>15</v>
       </c>
-      <c r="E37" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" s="42"/>
+      <c r="E37" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="41"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C38" s="51" t="s">
-        <v>35</v>
+      <c r="C38" s="50" t="s">
+        <v>27</v>
       </c>
       <c r="D38">
         <v>25</v>
       </c>
-      <c r="E38" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="48"/>
+      <c r="E38" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="47"/>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C39" s="44"/>
+      <c r="C39" s="43"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
-      <c r="F39" s="45"/>
+      <c r="F39" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="V3:Y3"/>
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="D30:F30"/>
@@ -2791,6 +2885,11 @@
     <mergeCell ref="M3:P3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="V3:Y3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E8:E26">
@@ -2807,17 +2906,17 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:AP8 I9:AP11 I13:V26 Y13:AD26 AG13:AL26 AO13:AP26">
+  <conditionalFormatting sqref="H8:AP8 I9:AP11 I9:I26 Y13:AD26 AG13:AL26 AO13:AP26 I13:V26">
     <cfRule type="expression" dxfId="2" priority="10">
       <formula>AND(H$5&gt;=$F8,H$5&lt;=$G8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:AP8 I9:AP26 I5:AQ7 AQ8:AQ26">
+  <conditionalFormatting sqref="H8:AP8 I5:AQ7 AQ8:AQ26 I9:AP26">
     <cfRule type="expression" dxfId="1" priority="13">
       <formula>AND(H$5&lt;=TODAY(), (I$5-7)&lt;=TODAY(),I$5&gt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:P11">
+  <conditionalFormatting sqref="I8:P11 I9:I26">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>1*AND(I$5&gt;=task_start,I$5&lt;=task_start+(task_progress*(task_end-task_start+1))-1)</formula>
     </cfRule>

--- a/docs/fattibilita/template_gantt excell.xlsx
+++ b/docs/fattibilita/template_gantt excell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomma\Desktop\scuola\5 INFO\GPOI\progetto-GPOI-5INFB-Guerini-Bertasa-Mutti-Zecchini\docs\fattibilita\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F253A4-AAE9-4A29-AAD1-A585CA93D6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11238867-E25A-4E58-B6B2-3A8AD68D0078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{9327F8D6-4F37-4E25-8083-20A17765DC2F}"/>
   </bookViews>
@@ -175,7 +175,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ [$€-410]"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +241,14 @@
     </font>
     <font>
       <sz val="25"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -482,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -638,6 +646,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -658,6 +669,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1041,7 +1055,7 @@
   <dimension ref="C2:AV39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1059,78 +1073,78 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:48" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="65"/>
+      <c r="D2" s="66"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="3:48" x14ac:dyDescent="0.45">
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="61"/>
+      <c r="D3" s="62"/>
       <c r="H3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="62" t="str">
+      <c r="I3" s="63" t="str">
         <f>TEXT(I5,"MMM")</f>
         <v>Oct</v>
       </c>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="62" t="str">
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="63" t="str">
         <f>TEXT(M5,"MMM")</f>
         <v>Nov</v>
       </c>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="62" t="str">
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="63" t="str">
         <f>TEXT(Q5,"MMM")</f>
         <v>Dec</v>
       </c>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
       <c r="U3" s="7"/>
-      <c r="V3" s="62" t="str">
+      <c r="V3" s="63" t="str">
         <f>TEXT(V5,"MMM")</f>
         <v>Jan</v>
       </c>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="62" t="str">
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="63" t="str">
         <f>TEXT(Z5,"MMM")</f>
         <v>Feb</v>
       </c>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="62" t="str">
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="63" t="str">
         <f>TEXT(AD5,"MMM")</f>
         <v>Mar</v>
       </c>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
       <c r="AH3" s="7"/>
-      <c r="AI3" s="62" t="str">
+      <c r="AI3" s="63" t="str">
         <f>TEXT(AI5,"MMM")</f>
         <v>Apr</v>
       </c>
-      <c r="AJ3" s="63"/>
-      <c r="AK3" s="63"/>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="62" t="str">
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="64"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="63" t="str">
         <f>TEXT(AM5,"MMM")</f>
         <v>May</v>
       </c>
-      <c r="AN3" s="63"/>
-      <c r="AO3" s="63"/>
-      <c r="AP3" s="64"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="64"/>
+      <c r="AP3" s="65"/>
       <c r="AQ3" s="6" t="str">
         <f>TEXT(AQ5,"MMM")</f>
         <v>Jun</v>
@@ -1545,17 +1559,17 @@
         <v>20</v>
       </c>
       <c r="E9" s="27">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F9" s="30">
         <v>45940</v>
       </c>
       <c r="G9" s="30">
-        <v>45941</v>
+        <v>45945</v>
       </c>
       <c r="H9" s="24"/>
       <c r="I9" s="25">
-        <f t="shared" ref="I8:I26" si="1">1*AND(I$5&gt;=task_start,I$5&lt;=task_start+(task_progress*(task_end-task_start+1))-1)</f>
+        <f t="shared" ref="I9:I26" si="1">1*AND(I$5&gt;=task_start,I$5&lt;=task_start+(task_progress*(task_end-task_start+1))-1)</f>
         <v>0</v>
       </c>
       <c r="J9" s="25"/>
@@ -1810,7 +1824,7 @@
         <v>45964</v>
       </c>
       <c r="G13" s="30">
-        <v>45964</v>
+        <v>45967</v>
       </c>
       <c r="H13" s="24"/>
       <c r="I13" s="25">
@@ -1877,8 +1891,8 @@
       <c r="F14" s="30">
         <v>45962</v>
       </c>
-      <c r="G14" s="30">
-        <v>46022</v>
+      <c r="G14" s="59">
+        <v>45962</v>
       </c>
       <c r="H14" s="24"/>
       <c r="I14" s="25">
@@ -1921,15 +1935,15 @@
       <c r="AQ14" s="23"/>
       <c r="AS14" s="8">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="53">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="55">
         <f t="shared" si="3"/>
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="AV14" t="s">
         <v>35</v>
@@ -1949,7 +1963,7 @@
         <v>45962</v>
       </c>
       <c r="G15" s="30">
-        <v>46022</v>
+        <v>45962</v>
       </c>
       <c r="H15" s="24"/>
       <c r="I15" s="25">
@@ -1992,15 +2006,15 @@
       <c r="AQ15" s="23"/>
       <c r="AS15" s="8">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="53">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="55">
         <f t="shared" si="3"/>
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="3:48" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -2017,7 +2031,7 @@
         <v>45962</v>
       </c>
       <c r="G16" s="30">
-        <v>46022</v>
+        <v>45962</v>
       </c>
       <c r="H16" s="24"/>
       <c r="I16" s="25">
@@ -2060,15 +2074,15 @@
       <c r="AQ16" s="23"/>
       <c r="AS16" s="8">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="53">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="55">
         <f t="shared" si="3"/>
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:47" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -2145,7 +2159,7 @@
         <v>45945</v>
       </c>
       <c r="G18" s="30">
-        <v>46022</v>
+        <v>45962</v>
       </c>
       <c r="H18" s="24"/>
       <c r="I18" s="25">
@@ -2188,15 +2202,15 @@
       <c r="AQ18" s="23"/>
       <c r="AS18" s="8">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AT18" s="53">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="AU18" s="55">
         <f t="shared" si="3"/>
-        <v>495</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -2213,7 +2227,7 @@
         <v>45962</v>
       </c>
       <c r="G19" s="30">
-        <v>46022</v>
+        <v>45962</v>
       </c>
       <c r="H19" s="24"/>
       <c r="I19" s="25">
@@ -2256,15 +2270,15 @@
       <c r="AQ19" s="23"/>
       <c r="AS19" s="8">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="53">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AU19" s="55">
         <f t="shared" si="3"/>
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -2281,7 +2295,7 @@
         <v>45962</v>
       </c>
       <c r="G20" s="30">
-        <v>46022</v>
+        <v>45962</v>
       </c>
       <c r="H20" s="24"/>
       <c r="I20" s="25">
@@ -2324,15 +2338,15 @@
       <c r="AQ20" s="23"/>
       <c r="AS20" s="8">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="53">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="55">
         <f t="shared" si="3"/>
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -2349,7 +2363,7 @@
         <v>45962</v>
       </c>
       <c r="G21" s="30">
-        <v>46022</v>
+        <v>45962</v>
       </c>
       <c r="H21" s="24"/>
       <c r="I21" s="25">
@@ -2392,15 +2406,15 @@
       <c r="AQ21" s="23"/>
       <c r="AS21" s="8">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="53">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="55">
         <f t="shared" si="3"/>
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="3:47" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -2547,7 +2561,7 @@
         <v>45962</v>
       </c>
       <c r="G24" s="30">
-        <v>46022</v>
+        <v>45962</v>
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="25">
@@ -2590,15 +2604,15 @@
       <c r="AQ24" s="23"/>
       <c r="AS24" s="8">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="53">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AU24" s="55">
         <f t="shared" si="3"/>
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -2615,7 +2629,7 @@
         <v>45962</v>
       </c>
       <c r="G25" s="30">
-        <v>46022</v>
+        <v>45962</v>
       </c>
       <c r="H25" s="24"/>
       <c r="I25" s="25">
@@ -2658,15 +2672,15 @@
       <c r="AQ25" s="23"/>
       <c r="AS25" s="8">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="53">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AU25" s="55">
         <f t="shared" si="3"/>
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -2683,7 +2697,7 @@
         <v>45962</v>
       </c>
       <c r="G26" s="30">
-        <v>46022</v>
+        <v>45962</v>
       </c>
       <c r="H26" s="24"/>
       <c r="I26" s="25">
@@ -2726,15 +2740,15 @@
       <c r="AQ26" s="23"/>
       <c r="AS26" s="8">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="53">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AU26" s="55">
         <f t="shared" si="3"/>
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="3:47" x14ac:dyDescent="0.45">
@@ -2760,50 +2774,51 @@
       <c r="C30" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="61"/>
       <c r="AS30" s="51">
         <f>SUM(AS8:AS26)</f>
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="AT30" s="54">
         <f>SUM(AT8:AT26)</f>
-        <v>252</v>
+        <v>9</v>
       </c>
       <c r="AU30" s="56">
         <f>SUM(AU8:AU26)</f>
-        <v>3780</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="3:47" x14ac:dyDescent="0.45">
       <c r="C31" s="42"/>
-      <c r="D31" s="59" t="s">
+      <c r="D31" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="59"/>
-      <c r="F31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="61"/>
     </row>
     <row r="32" spans="3:47" x14ac:dyDescent="0.45">
       <c r="C32" s="42"/>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="59"/>
-      <c r="F32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="61"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
+      <c r="M32" s="67"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C33" s="42"/>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="59"/>
-      <c r="F33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="61"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -2906,12 +2921,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:AP8 I9:AP11 I9:I26 Y13:AD26 AG13:AL26 AO13:AP26 I13:V26">
+  <conditionalFormatting sqref="H8:AP8 I9:AP11 I9:I26 I13:V26 Y13:AD26 AG13:AL26 AO13:AP26">
     <cfRule type="expression" dxfId="2" priority="10">
       <formula>AND(H$5&gt;=$F8,H$5&lt;=$G8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:AP8 I5:AQ7 AQ8:AQ26 I9:AP26">
+  <conditionalFormatting sqref="H8:AP8 I9:AP26 I5:AQ7 AQ8:AQ26">
     <cfRule type="expression" dxfId="1" priority="13">
       <formula>AND(H$5&lt;=TODAY(), (I$5-7)&lt;=TODAY(),I$5&gt;=TODAY())</formula>
     </cfRule>

--- a/docs/fattibilita/template_gantt excell.xlsx
+++ b/docs/fattibilita/template_gantt excell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomma\Desktop\scuola\5 INFO\GPOI\progetto-GPOI-5INFB-Guerini-Bertasa-Mutti-Zecchini\docs\fattibilita\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11238867-E25A-4E58-B6B2-3A8AD68D0078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EB4742-BA96-47EF-90DD-69DE526EB4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{9327F8D6-4F37-4E25-8083-20A17765DC2F}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>TASK</t>
   </si>
@@ -58,18 +58,9 @@
     <t>Month</t>
   </si>
   <si>
-    <t xml:space="preserve">  Task 2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Task 2.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Task 2.4</t>
   </si>
   <si>
-    <t xml:space="preserve">  Task 3.2</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Task 3.3</t>
   </si>
   <si>
@@ -79,9 +70,6 @@
     <t>Days</t>
   </si>
   <si>
-    <t>Intro</t>
-  </si>
-  <si>
     <t>Development</t>
   </si>
   <si>
@@ -157,13 +145,43 @@
     <t>lavoro e sviluppo scheletro</t>
   </si>
   <si>
-    <t xml:space="preserve">  continuo frontHand</t>
-  </si>
-  <si>
     <t>domande intervista</t>
   </si>
   <si>
     <t>task 1.3</t>
+  </si>
+  <si>
+    <t>interviste polisportive</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> parte grafica</t>
+  </si>
+  <si>
+    <t>ricerca contatti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ottenimento materiali polisportive </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  backend</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> frontend</t>
+  </si>
+  <si>
+    <t>(Mutti, Bertasa, Guerini)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intro </t>
+  </si>
+  <si>
+    <t>(Gruppo)</t>
+  </si>
+  <si>
+    <t>(Zecchini)</t>
+  </si>
+  <si>
+    <t>(Guerini)</t>
   </si>
 </sst>
 </file>
@@ -175,7 +193,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ [$€-410]"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,15 +265,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,6 +357,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFEE0DE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -551,9 +613,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -561,32 +620,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -646,7 +687,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -658,21 +708,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1052,16 +1168,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490757F6-93EC-4607-8435-BB8805CD3E41}">
-  <dimension ref="C2:AV39"/>
+  <dimension ref="A2:CS39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="AC33" sqref="AC33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="6.1328125" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="91" customWidth="1"/>
+    <col min="2" max="2" width="6.1328125" style="91" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="9.46484375" customWidth="1"/>
@@ -1072,87 +1188,87 @@
     <col min="45" max="49" width="13.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:48" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="66"/>
+    <row r="2" spans="1:97" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="55"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="3:48" x14ac:dyDescent="0.45">
-      <c r="C3" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="62"/>
+    <row r="3" spans="1:97" x14ac:dyDescent="0.45">
+      <c r="C3" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="58"/>
       <c r="H3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="63" t="str">
+      <c r="I3" s="52" t="str">
         <f>TEXT(I5,"MMM")</f>
         <v>Oct</v>
       </c>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="63" t="str">
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="52" t="str">
         <f>TEXT(M5,"MMM")</f>
         <v>Nov</v>
       </c>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="63" t="str">
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="52" t="str">
         <f>TEXT(Q5,"MMM")</f>
         <v>Dec</v>
       </c>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
       <c r="U3" s="7"/>
-      <c r="V3" s="63" t="str">
+      <c r="V3" s="52" t="str">
         <f>TEXT(V5,"MMM")</f>
         <v>Jan</v>
       </c>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="63" t="str">
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="52" t="str">
         <f>TEXT(Z5,"MMM")</f>
         <v>Feb</v>
       </c>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="63" t="str">
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="52" t="str">
         <f>TEXT(AD5,"MMM")</f>
         <v>Mar</v>
       </c>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
       <c r="AH3" s="7"/>
-      <c r="AI3" s="63" t="str">
+      <c r="AI3" s="52" t="str">
         <f>TEXT(AI5,"MMM")</f>
         <v>Apr</v>
       </c>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="64"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="63" t="str">
+      <c r="AJ3" s="53"/>
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="52" t="str">
         <f>TEXT(AM5,"MMM")</f>
         <v>May</v>
       </c>
-      <c r="AN3" s="64"/>
-      <c r="AO3" s="64"/>
-      <c r="AP3" s="65"/>
+      <c r="AN3" s="53"/>
+      <c r="AO3" s="53"/>
+      <c r="AP3" s="54"/>
       <c r="AQ3" s="6" t="str">
         <f>TEXT(AQ5,"MMM")</f>
         <v>Jun</v>
       </c>
     </row>
-    <row r="4" spans="3:48" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:97" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>3</v>
@@ -1263,9 +1379,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="3:48" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:97" x14ac:dyDescent="0.45">
       <c r="H5" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I5" s="11">
         <v>45936</v>
@@ -1372,30 +1488,80 @@
       <c r="AQ5" s="20">
         <v>46174</v>
       </c>
-      <c r="AS5" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="AT5" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="AU5" s="49" t="s">
-        <v>31</v>
-      </c>
+      <c r="AS5" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU5" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV5" s="91"/>
+      <c r="AW5" s="91"/>
+      <c r="AX5" s="91"/>
+      <c r="AY5" s="91"/>
+      <c r="AZ5" s="91"/>
+      <c r="BA5" s="91"/>
+      <c r="BB5" s="91"/>
+      <c r="BC5" s="91"/>
+      <c r="BD5" s="91"/>
+      <c r="BE5" s="91"/>
+      <c r="BF5" s="91"/>
+      <c r="BG5" s="91"/>
+      <c r="BH5" s="91"/>
+      <c r="BI5" s="91"/>
+      <c r="BJ5" s="91"/>
+      <c r="BK5" s="91"/>
+      <c r="BL5" s="91"/>
+      <c r="BM5" s="91"/>
+      <c r="BN5" s="91"/>
+      <c r="BO5" s="91"/>
+      <c r="BP5" s="91"/>
+      <c r="BQ5" s="91"/>
+      <c r="BR5" s="91"/>
+      <c r="BS5" s="91"/>
+      <c r="BT5" s="93"/>
+      <c r="BU5" s="93"/>
+      <c r="BV5" s="93"/>
+      <c r="BW5" s="93"/>
+      <c r="BX5" s="93"/>
+      <c r="BY5" s="93"/>
+      <c r="BZ5" s="93"/>
+      <c r="CA5" s="93"/>
+      <c r="CB5" s="93"/>
+      <c r="CC5" s="93"/>
+      <c r="CD5" s="93"/>
+      <c r="CE5" s="93"/>
+      <c r="CF5" s="93"/>
+      <c r="CG5" s="93"/>
+      <c r="CH5" s="93"/>
+      <c r="CI5" s="93"/>
+      <c r="CJ5" s="93"/>
+      <c r="CK5" s="93"/>
+      <c r="CL5" s="93"/>
+      <c r="CM5" s="93"/>
+      <c r="CN5" s="93"/>
+      <c r="CO5" s="93"/>
+      <c r="CP5" s="93"/>
+      <c r="CQ5" s="93"/>
+      <c r="CR5" s="93"/>
+      <c r="CS5" s="93"/>
     </row>
-    <row r="6" spans="3:48" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C6" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="36" t="s">
+    <row r="6" spans="1:97" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="29" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="4"/>
@@ -1435,1462 +1601,2777 @@
       <c r="AP6" s="5"/>
       <c r="AQ6" s="5"/>
       <c r="AS6" s="8"/>
-      <c r="AT6" s="53"/>
-      <c r="AU6" s="55"/>
+      <c r="AT6" s="46"/>
+      <c r="AU6" s="48"/>
+      <c r="AV6" s="91"/>
+      <c r="AW6" s="91"/>
+      <c r="AX6" s="91"/>
+      <c r="AY6" s="91"/>
+      <c r="AZ6" s="91"/>
+      <c r="BA6" s="91"/>
+      <c r="BB6" s="91"/>
+      <c r="BC6" s="91"/>
+      <c r="BD6" s="91"/>
+      <c r="BE6" s="91"/>
+      <c r="BF6" s="91"/>
+      <c r="BG6" s="91"/>
+      <c r="BH6" s="91"/>
+      <c r="BI6" s="91"/>
+      <c r="BJ6" s="91"/>
+      <c r="BK6" s="91"/>
+      <c r="BL6" s="91"/>
+      <c r="BM6" s="91"/>
+      <c r="BN6" s="91"/>
+      <c r="BO6" s="91"/>
+      <c r="BP6" s="91"/>
+      <c r="BQ6" s="91"/>
+      <c r="BR6" s="91"/>
+      <c r="BS6" s="91"/>
+      <c r="BT6" s="93"/>
+      <c r="BU6" s="93"/>
+      <c r="BV6" s="93"/>
+      <c r="BW6" s="93"/>
+      <c r="BX6" s="93"/>
+      <c r="BY6" s="93"/>
+      <c r="BZ6" s="93"/>
+      <c r="CA6" s="93"/>
+      <c r="CB6" s="93"/>
+      <c r="CC6" s="93"/>
+      <c r="CD6" s="93"/>
+      <c r="CE6" s="93"/>
+      <c r="CF6" s="93"/>
+      <c r="CG6" s="93"/>
+      <c r="CH6" s="93"/>
+      <c r="CI6" s="93"/>
+      <c r="CJ6" s="93"/>
+      <c r="CK6" s="93"/>
+      <c r="CL6" s="93"/>
+      <c r="CM6" s="93"/>
+      <c r="CN6" s="93"/>
+      <c r="CO6" s="93"/>
+      <c r="CP6" s="93"/>
+      <c r="CQ6" s="93"/>
+      <c r="CR6" s="93"/>
+      <c r="CS6" s="93"/>
     </row>
-    <row r="7" spans="3:48" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C7" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="22"/>
-      <c r="AE7" s="22"/>
-      <c r="AF7" s="22"/>
-      <c r="AG7" s="22"/>
-      <c r="AH7" s="22"/>
-      <c r="AI7" s="22"/>
-      <c r="AJ7" s="22"/>
-      <c r="AK7" s="22"/>
-      <c r="AL7" s="22"/>
-      <c r="AM7" s="22"/>
-      <c r="AN7" s="22"/>
-      <c r="AO7" s="22"/>
-      <c r="AP7" s="22"/>
-      <c r="AQ7" s="23"/>
+    <row r="7" spans="1:97" s="80" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="91"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="76"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="79"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="79"/>
+      <c r="V7" s="79"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="79"/>
+      <c r="Y7" s="79"/>
+      <c r="Z7" s="79"/>
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="79"/>
+      <c r="AC7" s="79"/>
+      <c r="AD7" s="79"/>
+      <c r="AE7" s="79"/>
+      <c r="AF7" s="79"/>
+      <c r="AG7" s="79"/>
+      <c r="AH7" s="79"/>
+      <c r="AI7" s="79"/>
+      <c r="AJ7" s="79"/>
+      <c r="AK7" s="79"/>
+      <c r="AL7" s="79"/>
+      <c r="AM7" s="79"/>
+      <c r="AN7" s="79"/>
+      <c r="AO7" s="79"/>
+      <c r="AP7" s="79"/>
+      <c r="AQ7" s="79"/>
+      <c r="AR7" s="91"/>
       <c r="AS7" s="8"/>
-      <c r="AT7" s="53"/>
-      <c r="AU7" s="55"/>
+      <c r="AT7" s="92"/>
+      <c r="AU7" s="48"/>
+      <c r="AV7" s="91"/>
+      <c r="AW7" s="91"/>
+      <c r="AX7" s="91"/>
+      <c r="AY7" s="91"/>
+      <c r="AZ7" s="91"/>
+      <c r="BA7" s="91"/>
+      <c r="BB7" s="91"/>
+      <c r="BC7" s="91"/>
+      <c r="BD7" s="91"/>
+      <c r="BE7" s="91"/>
+      <c r="BF7" s="91"/>
+      <c r="BG7" s="91"/>
+      <c r="BH7" s="91"/>
+      <c r="BI7" s="91"/>
+      <c r="BJ7" s="91"/>
+      <c r="BK7" s="91"/>
+      <c r="BL7" s="91"/>
+      <c r="BM7" s="91"/>
+      <c r="BN7" s="91"/>
+      <c r="BO7" s="91"/>
+      <c r="BP7" s="91"/>
+      <c r="BQ7" s="91"/>
+      <c r="BR7" s="91"/>
+      <c r="BS7" s="91"/>
+      <c r="BT7" s="93"/>
+      <c r="BU7" s="93"/>
+      <c r="BV7" s="93"/>
+      <c r="BW7" s="93"/>
+      <c r="BX7" s="93"/>
+      <c r="BY7" s="93"/>
+      <c r="BZ7" s="93"/>
+      <c r="CA7" s="93"/>
+      <c r="CB7" s="93"/>
+      <c r="CC7" s="93"/>
+      <c r="CD7" s="93"/>
+      <c r="CE7" s="93"/>
+      <c r="CF7" s="93"/>
+      <c r="CG7" s="93"/>
+      <c r="CH7" s="93"/>
+      <c r="CI7" s="93"/>
+      <c r="CJ7" s="93"/>
+      <c r="CK7" s="93"/>
+      <c r="CL7" s="93"/>
+      <c r="CM7" s="93"/>
+      <c r="CN7" s="93"/>
+      <c r="CO7" s="93"/>
+      <c r="CP7" s="93"/>
+      <c r="CQ7" s="93"/>
+      <c r="CR7" s="93"/>
+      <c r="CS7" s="93"/>
     </row>
-    <row r="8" spans="3:48" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="27">
+    <row r="8" spans="1:97" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="25">
         <v>1</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="26">
         <v>45936</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="26">
         <v>45937</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
-      <c r="AC8" s="25"/>
-      <c r="AD8" s="25"/>
-      <c r="AE8" s="25"/>
-      <c r="AF8" s="25"/>
-      <c r="AG8" s="25"/>
-      <c r="AH8" s="25"/>
-      <c r="AI8" s="25"/>
-      <c r="AJ8" s="25"/>
-      <c r="AK8" s="25"/>
-      <c r="AL8" s="25"/>
-      <c r="AM8" s="25"/>
-      <c r="AN8" s="25"/>
-      <c r="AO8" s="25"/>
-      <c r="AP8" s="25"/>
-      <c r="AQ8" s="23"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="24"/>
+      <c r="AG8" s="24"/>
+      <c r="AH8" s="24"/>
+      <c r="AI8" s="24"/>
+      <c r="AJ8" s="24"/>
+      <c r="AK8" s="24"/>
+      <c r="AL8" s="24"/>
+      <c r="AM8" s="24"/>
+      <c r="AN8" s="24"/>
+      <c r="AO8" s="24"/>
+      <c r="AP8" s="24"/>
+      <c r="AQ8" s="22"/>
       <c r="AS8" s="8">
         <f t="shared" ref="AS8:AS26" si="0">INT((G8-F8)/7)</f>
         <v>0</v>
       </c>
-      <c r="AT8" s="53">
+      <c r="AT8" s="46">
         <f>AS8*$D$36</f>
         <v>0</v>
       </c>
-      <c r="AU8" s="55">
+      <c r="AU8" s="48">
         <f>AT8*$D$37</f>
         <v>0</v>
       </c>
+      <c r="AV8" s="91"/>
+      <c r="AW8" s="91"/>
+      <c r="AX8" s="91"/>
+      <c r="AY8" s="91"/>
+      <c r="AZ8" s="91"/>
+      <c r="BA8" s="91"/>
+      <c r="BB8" s="91"/>
+      <c r="BC8" s="91"/>
+      <c r="BD8" s="91"/>
+      <c r="BE8" s="91"/>
+      <c r="BF8" s="91"/>
+      <c r="BG8" s="91"/>
+      <c r="BH8" s="91"/>
+      <c r="BI8" s="91"/>
+      <c r="BJ8" s="91"/>
+      <c r="BK8" s="91"/>
+      <c r="BL8" s="91"/>
+      <c r="BM8" s="91"/>
+      <c r="BN8" s="91"/>
+      <c r="BO8" s="91"/>
+      <c r="BP8" s="91"/>
+      <c r="BQ8" s="91"/>
+      <c r="BR8" s="91"/>
+      <c r="BS8" s="91"/>
+      <c r="BT8" s="93"/>
+      <c r="BU8" s="93"/>
+      <c r="BV8" s="93"/>
+      <c r="BW8" s="93"/>
+      <c r="BX8" s="93"/>
+      <c r="BY8" s="93"/>
+      <c r="BZ8" s="93"/>
+      <c r="CA8" s="93"/>
+      <c r="CB8" s="93"/>
+      <c r="CC8" s="93"/>
+      <c r="CD8" s="93"/>
+      <c r="CE8" s="93"/>
+      <c r="CF8" s="93"/>
+      <c r="CG8" s="93"/>
+      <c r="CH8" s="93"/>
+      <c r="CI8" s="93"/>
+      <c r="CJ8" s="93"/>
+      <c r="CK8" s="93"/>
+      <c r="CL8" s="93"/>
+      <c r="CM8" s="93"/>
+      <c r="CN8" s="93"/>
+      <c r="CO8" s="93"/>
+      <c r="CP8" s="93"/>
+      <c r="CQ8" s="93"/>
+      <c r="CR8" s="93"/>
+      <c r="CS8" s="93"/>
     </row>
-    <row r="9" spans="3:48" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="27">
-        <v>0.6</v>
-      </c>
-      <c r="F9" s="30">
+    <row r="9" spans="1:97" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C9" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="25">
+        <v>1</v>
+      </c>
+      <c r="F9" s="26">
         <v>45940</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="26">
         <v>45945</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25">
+      <c r="H9" s="23"/>
+      <c r="I9" s="24">
         <f t="shared" ref="I9:I26" si="1">1*AND(I$5&gt;=task_start,I$5&lt;=task_start+(task_progress*(task_end-task_start+1))-1)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="25"/>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="25"/>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="25"/>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="25"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="25"/>
-      <c r="AQ9" s="23"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="24"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="24"/>
+      <c r="AI9" s="24"/>
+      <c r="AJ9" s="24"/>
+      <c r="AK9" s="24"/>
+      <c r="AL9" s="24"/>
+      <c r="AM9" s="24"/>
+      <c r="AN9" s="24"/>
+      <c r="AO9" s="24"/>
+      <c r="AP9" s="24"/>
+      <c r="AQ9" s="22"/>
       <c r="AS9" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AT9" s="53">
+      <c r="AT9" s="46">
         <f t="shared" ref="AT9:AT26" si="2">AS9*$D$36</f>
         <v>0</v>
       </c>
-      <c r="AU9" s="55">
+      <c r="AU9" s="48">
         <f t="shared" ref="AU9:AU26" si="3">AT9*$D$37</f>
         <v>0</v>
       </c>
+      <c r="AV9" s="91"/>
+      <c r="AW9" s="91"/>
+      <c r="AX9" s="91"/>
+      <c r="AY9" s="91"/>
+      <c r="AZ9" s="91"/>
+      <c r="BA9" s="91"/>
+      <c r="BB9" s="91"/>
+      <c r="BC9" s="91"/>
+      <c r="BD9" s="91"/>
+      <c r="BE9" s="91"/>
+      <c r="BF9" s="91"/>
+      <c r="BG9" s="91"/>
+      <c r="BH9" s="91"/>
+      <c r="BI9" s="91"/>
+      <c r="BJ9" s="91"/>
+      <c r="BK9" s="91"/>
+      <c r="BL9" s="91"/>
+      <c r="BM9" s="91"/>
+      <c r="BN9" s="91"/>
+      <c r="BO9" s="91"/>
+      <c r="BP9" s="91"/>
+      <c r="BQ9" s="91"/>
+      <c r="BR9" s="91"/>
+      <c r="BS9" s="91"/>
+      <c r="BT9" s="93"/>
+      <c r="BU9" s="93"/>
+      <c r="BV9" s="93"/>
+      <c r="BW9" s="93"/>
+      <c r="BX9" s="93"/>
+      <c r="BY9" s="93"/>
+      <c r="BZ9" s="93"/>
+      <c r="CA9" s="93"/>
+      <c r="CB9" s="93"/>
+      <c r="CC9" s="93"/>
+      <c r="CD9" s="93"/>
+      <c r="CE9" s="93"/>
+      <c r="CF9" s="93"/>
+      <c r="CG9" s="93"/>
+      <c r="CH9" s="93"/>
+      <c r="CI9" s="93"/>
+      <c r="CJ9" s="93"/>
+      <c r="CK9" s="93"/>
+      <c r="CL9" s="93"/>
+      <c r="CM9" s="93"/>
+      <c r="CN9" s="93"/>
+      <c r="CO9" s="93"/>
+      <c r="CP9" s="93"/>
+      <c r="CQ9" s="93"/>
+      <c r="CR9" s="93"/>
+      <c r="CS9" s="93"/>
     </row>
-    <row r="10" spans="3:48" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="27">
-        <v>0</v>
-      </c>
-      <c r="F10" s="30">
+    <row r="10" spans="1:97" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C10" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="25">
+        <v>0</v>
+      </c>
+      <c r="F10" s="26">
         <v>45945</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="26">
         <v>45945</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25">
+      <c r="H10" s="23"/>
+      <c r="I10" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
-      <c r="AC10" s="25"/>
-      <c r="AD10" s="25"/>
-      <c r="AE10" s="25"/>
-      <c r="AF10" s="25"/>
-      <c r="AG10" s="25"/>
-      <c r="AH10" s="25"/>
-      <c r="AI10" s="25"/>
-      <c r="AJ10" s="25"/>
-      <c r="AK10" s="25"/>
-      <c r="AL10" s="25"/>
-      <c r="AM10" s="25"/>
-      <c r="AN10" s="25"/>
-      <c r="AO10" s="25"/>
-      <c r="AP10" s="25"/>
-      <c r="AQ10" s="23"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="24"/>
+      <c r="AH10" s="24"/>
+      <c r="AI10" s="24"/>
+      <c r="AJ10" s="24"/>
+      <c r="AK10" s="24"/>
+      <c r="AL10" s="24"/>
+      <c r="AM10" s="24"/>
+      <c r="AN10" s="24"/>
+      <c r="AO10" s="24"/>
+      <c r="AP10" s="24"/>
+      <c r="AQ10" s="22"/>
       <c r="AS10" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AT10" s="53">
+      <c r="AT10" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AU10" s="55">
+      <c r="AU10" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AV10" s="91"/>
+      <c r="AW10" s="91"/>
+      <c r="AX10" s="91"/>
+      <c r="AY10" s="91"/>
+      <c r="AZ10" s="91"/>
+      <c r="BA10" s="91"/>
+      <c r="BB10" s="91"/>
+      <c r="BC10" s="91"/>
+      <c r="BD10" s="91"/>
+      <c r="BE10" s="91"/>
+      <c r="BF10" s="91"/>
+      <c r="BG10" s="91"/>
+      <c r="BH10" s="91"/>
+      <c r="BI10" s="91"/>
+      <c r="BJ10" s="91"/>
+      <c r="BK10" s="91"/>
+      <c r="BL10" s="91"/>
+      <c r="BM10" s="91"/>
+      <c r="BN10" s="91"/>
+      <c r="BO10" s="91"/>
+      <c r="BP10" s="91"/>
+      <c r="BQ10" s="91"/>
+      <c r="BR10" s="91"/>
+      <c r="BS10" s="91"/>
+      <c r="BT10" s="93"/>
+      <c r="BU10" s="93"/>
+      <c r="BV10" s="93"/>
+      <c r="BW10" s="93"/>
+      <c r="BX10" s="93"/>
+      <c r="BY10" s="93"/>
+      <c r="BZ10" s="93"/>
+      <c r="CA10" s="93"/>
+      <c r="CB10" s="93"/>
+      <c r="CC10" s="93"/>
+      <c r="CD10" s="93"/>
+      <c r="CE10" s="93"/>
+      <c r="CF10" s="93"/>
+      <c r="CG10" s="93"/>
+      <c r="CH10" s="93"/>
+      <c r="CI10" s="93"/>
+      <c r="CJ10" s="93"/>
+      <c r="CK10" s="93"/>
+      <c r="CL10" s="93"/>
+      <c r="CM10" s="93"/>
+      <c r="CN10" s="93"/>
+      <c r="CO10" s="93"/>
+      <c r="CP10" s="93"/>
+      <c r="CQ10" s="93"/>
+      <c r="CR10" s="93"/>
+      <c r="CS10" s="93"/>
     </row>
-    <row r="11" spans="3:48" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="32"/>
-      <c r="D11" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="27">
-        <v>0</v>
-      </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25">
+    <row r="11" spans="1:97" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C11" s="27"/>
+      <c r="D11" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
-      <c r="AC11" s="25"/>
-      <c r="AD11" s="25"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="25"/>
-      <c r="AG11" s="25"/>
-      <c r="AH11" s="25"/>
-      <c r="AI11" s="25"/>
-      <c r="AJ11" s="25"/>
-      <c r="AK11" s="25"/>
-      <c r="AL11" s="25"/>
-      <c r="AM11" s="25"/>
-      <c r="AN11" s="25"/>
-      <c r="AO11" s="25"/>
-      <c r="AP11" s="25"/>
-      <c r="AQ11" s="23"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="24"/>
+      <c r="AI11" s="24"/>
+      <c r="AJ11" s="24"/>
+      <c r="AK11" s="24"/>
+      <c r="AL11" s="24"/>
+      <c r="AM11" s="24"/>
+      <c r="AN11" s="24"/>
+      <c r="AO11" s="24"/>
+      <c r="AP11" s="24"/>
+      <c r="AQ11" s="22"/>
       <c r="AS11" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AT11" s="53">
+      <c r="AT11" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AU11" s="55">
+      <c r="AU11" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AV11" s="91"/>
+      <c r="AW11" s="91"/>
+      <c r="AX11" s="91"/>
+      <c r="AY11" s="91"/>
+      <c r="AZ11" s="91"/>
+      <c r="BA11" s="91"/>
+      <c r="BB11" s="91"/>
+      <c r="BC11" s="91"/>
+      <c r="BD11" s="91"/>
+      <c r="BE11" s="91"/>
+      <c r="BF11" s="91"/>
+      <c r="BG11" s="91"/>
+      <c r="BH11" s="91"/>
+      <c r="BI11" s="91"/>
+      <c r="BJ11" s="91"/>
+      <c r="BK11" s="91"/>
+      <c r="BL11" s="91"/>
+      <c r="BM11" s="91"/>
+      <c r="BN11" s="91"/>
+      <c r="BO11" s="91"/>
+      <c r="BP11" s="91"/>
+      <c r="BQ11" s="91"/>
+      <c r="BR11" s="91"/>
+      <c r="BS11" s="91"/>
+      <c r="BT11" s="93"/>
+      <c r="BU11" s="93"/>
+      <c r="BV11" s="93"/>
+      <c r="BW11" s="93"/>
+      <c r="BX11" s="93"/>
+      <c r="BY11" s="93"/>
+      <c r="BZ11" s="93"/>
+      <c r="CA11" s="93"/>
+      <c r="CB11" s="93"/>
+      <c r="CC11" s="93"/>
+      <c r="CD11" s="93"/>
+      <c r="CE11" s="93"/>
+      <c r="CF11" s="93"/>
+      <c r="CG11" s="93"/>
+      <c r="CH11" s="93"/>
+      <c r="CI11" s="93"/>
+      <c r="CJ11" s="93"/>
+      <c r="CK11" s="93"/>
+      <c r="CL11" s="93"/>
+      <c r="CM11" s="93"/>
+      <c r="CN11" s="93"/>
+      <c r="CO11" s="93"/>
+      <c r="CP11" s="93"/>
+      <c r="CQ11" s="93"/>
+      <c r="CR11" s="93"/>
+      <c r="CS11" s="93"/>
     </row>
-    <row r="12" spans="3:48" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C12" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="27">
-        <v>0</v>
-      </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25">
+    <row r="12" spans="1:97" s="69" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="91"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="70"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="25"/>
-      <c r="AC12" s="25"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="25"/>
-      <c r="AF12" s="25"/>
-      <c r="AG12" s="25"/>
-      <c r="AH12" s="25"/>
-      <c r="AI12" s="25"/>
-      <c r="AJ12" s="25"/>
-      <c r="AK12" s="25"/>
-      <c r="AL12" s="25"/>
-      <c r="AM12" s="25"/>
-      <c r="AN12" s="25"/>
-      <c r="AO12" s="25"/>
-      <c r="AP12" s="25"/>
-      <c r="AQ12" s="23"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="73"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="73"/>
+      <c r="V12" s="73"/>
+      <c r="W12" s="73"/>
+      <c r="X12" s="73"/>
+      <c r="Y12" s="73"/>
+      <c r="Z12" s="73"/>
+      <c r="AA12" s="73"/>
+      <c r="AB12" s="73"/>
+      <c r="AC12" s="73"/>
+      <c r="AD12" s="73"/>
+      <c r="AE12" s="73"/>
+      <c r="AF12" s="73"/>
+      <c r="AG12" s="73"/>
+      <c r="AH12" s="73"/>
+      <c r="AI12" s="73"/>
+      <c r="AJ12" s="73"/>
+      <c r="AK12" s="73"/>
+      <c r="AL12" s="73"/>
+      <c r="AM12" s="73"/>
+      <c r="AN12" s="73"/>
+      <c r="AO12" s="73"/>
+      <c r="AP12" s="73"/>
+      <c r="AQ12" s="74"/>
+      <c r="AR12" s="91"/>
       <c r="AS12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AT12" s="53">
+      <c r="AT12" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AU12" s="55">
+      <c r="AU12" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AV12" s="91"/>
+      <c r="AW12" s="91"/>
+      <c r="AX12" s="91"/>
+      <c r="AY12" s="91"/>
+      <c r="AZ12" s="91"/>
+      <c r="BA12" s="91"/>
+      <c r="BB12" s="91"/>
+      <c r="BC12" s="91"/>
+      <c r="BD12" s="91"/>
+      <c r="BE12" s="91"/>
+      <c r="BF12" s="91"/>
+      <c r="BG12" s="91"/>
+      <c r="BH12" s="91"/>
+      <c r="BI12" s="91"/>
+      <c r="BJ12" s="91"/>
+      <c r="BK12" s="91"/>
+      <c r="BL12" s="91"/>
+      <c r="BM12" s="91"/>
+      <c r="BN12" s="91"/>
+      <c r="BO12" s="91"/>
+      <c r="BP12" s="91"/>
+      <c r="BQ12" s="91"/>
+      <c r="BR12" s="91"/>
+      <c r="BS12" s="91"/>
+      <c r="BT12" s="93"/>
+      <c r="BU12" s="93"/>
+      <c r="BV12" s="93"/>
+      <c r="BW12" s="93"/>
+      <c r="BX12" s="93"/>
+      <c r="BY12" s="93"/>
+      <c r="BZ12" s="93"/>
+      <c r="CA12" s="93"/>
+      <c r="CB12" s="93"/>
+      <c r="CC12" s="93"/>
+      <c r="CD12" s="93"/>
+      <c r="CE12" s="93"/>
+      <c r="CF12" s="93"/>
+      <c r="CG12" s="93"/>
+      <c r="CH12" s="93"/>
+      <c r="CI12" s="93"/>
+      <c r="CJ12" s="93"/>
+      <c r="CK12" s="93"/>
+      <c r="CL12" s="93"/>
+      <c r="CM12" s="93"/>
+      <c r="CN12" s="93"/>
+      <c r="CO12" s="93"/>
+      <c r="CP12" s="93"/>
+      <c r="CQ12" s="93"/>
+      <c r="CR12" s="93"/>
+      <c r="CS12" s="93"/>
     </row>
-    <row r="13" spans="3:48" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C13" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="27">
+    <row r="13" spans="1:97" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C13" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="25">
         <v>0.3</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="26">
         <v>45964</v>
       </c>
-      <c r="G13" s="30">
-        <v>45967</v>
-      </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25">
+      <c r="G13" s="26">
+        <v>46135</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24">
         <f>1*AND(I$5&gt;=task_start,I$5&lt;=task_start+(task_progress*(task_end-task_start+1))-1)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
-      <c r="AC13" s="25"/>
-      <c r="AD13" s="25"/>
-      <c r="AE13" s="25"/>
-      <c r="AF13" s="25"/>
-      <c r="AG13" s="25"/>
-      <c r="AH13" s="25"/>
-      <c r="AI13" s="25"/>
-      <c r="AJ13" s="25"/>
-      <c r="AK13" s="25"/>
-      <c r="AL13" s="25"/>
-      <c r="AM13" s="25"/>
-      <c r="AN13" s="25"/>
-      <c r="AO13" s="25"/>
-      <c r="AP13" s="25"/>
-      <c r="AQ13" s="23"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="24"/>
+      <c r="AG13" s="24"/>
+      <c r="AH13" s="24"/>
+      <c r="AI13" s="24"/>
+      <c r="AJ13" s="24"/>
+      <c r="AK13" s="24"/>
+      <c r="AL13" s="24"/>
+      <c r="AM13" s="24"/>
+      <c r="AN13" s="24"/>
+      <c r="AO13" s="24"/>
+      <c r="AP13" s="24"/>
+      <c r="AQ13" s="22"/>
       <c r="AS13" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AT13" s="53">
+        <v>24</v>
+      </c>
+      <c r="AT13" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AU13" s="55">
+        <v>72</v>
+      </c>
+      <c r="AU13" s="48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>1080</v>
+      </c>
+      <c r="AV13" s="91"/>
+      <c r="AW13" s="91"/>
+      <c r="AX13" s="91"/>
+      <c r="AY13" s="91"/>
+      <c r="AZ13" s="91"/>
+      <c r="BA13" s="91"/>
+      <c r="BB13" s="91"/>
+      <c r="BC13" s="91"/>
+      <c r="BD13" s="91"/>
+      <c r="BE13" s="91"/>
+      <c r="BF13" s="91"/>
+      <c r="BG13" s="91"/>
+      <c r="BH13" s="91"/>
+      <c r="BI13" s="91"/>
+      <c r="BJ13" s="91"/>
+      <c r="BK13" s="91"/>
+      <c r="BL13" s="91"/>
+      <c r="BM13" s="91"/>
+      <c r="BN13" s="91"/>
+      <c r="BO13" s="91"/>
+      <c r="BP13" s="91"/>
+      <c r="BQ13" s="91"/>
+      <c r="BR13" s="91"/>
+      <c r="BS13" s="91"/>
+      <c r="BT13" s="93"/>
+      <c r="BU13" s="93"/>
+      <c r="BV13" s="93"/>
+      <c r="BW13" s="93"/>
+      <c r="BX13" s="93"/>
+      <c r="BY13" s="93"/>
+      <c r="BZ13" s="93"/>
+      <c r="CA13" s="93"/>
+      <c r="CB13" s="93"/>
+      <c r="CC13" s="93"/>
+      <c r="CD13" s="93"/>
+      <c r="CE13" s="93"/>
+      <c r="CF13" s="93"/>
+      <c r="CG13" s="93"/>
+      <c r="CH13" s="93"/>
+      <c r="CI13" s="93"/>
+      <c r="CJ13" s="93"/>
+      <c r="CK13" s="93"/>
+      <c r="CL13" s="93"/>
+      <c r="CM13" s="93"/>
+      <c r="CN13" s="93"/>
+      <c r="CO13" s="93"/>
+      <c r="CP13" s="93"/>
+      <c r="CQ13" s="93"/>
+      <c r="CR13" s="93"/>
+      <c r="CS13" s="93"/>
     </row>
-    <row r="14" spans="3:48" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C14" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="27">
-        <v>0</v>
-      </c>
-      <c r="F14" s="30">
-        <v>45962</v>
-      </c>
-      <c r="G14" s="59">
-        <v>45962</v>
-      </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="25">
+    <row r="14" spans="1:97" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C14" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="F14" s="26">
+        <v>45978</v>
+      </c>
+      <c r="G14" s="60">
+        <v>46135</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="25"/>
-      <c r="AD14" s="25"/>
-      <c r="AE14" s="25"/>
-      <c r="AF14" s="25"/>
-      <c r="AG14" s="25"/>
-      <c r="AH14" s="25"/>
-      <c r="AI14" s="25"/>
-      <c r="AJ14" s="25"/>
-      <c r="AK14" s="25"/>
-      <c r="AL14" s="25"/>
-      <c r="AM14" s="25"/>
-      <c r="AN14" s="25"/>
-      <c r="AO14" s="25"/>
-      <c r="AP14" s="25"/>
-      <c r="AQ14" s="23"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="24"/>
+      <c r="AH14" s="24"/>
+      <c r="AI14" s="24"/>
+      <c r="AJ14" s="24"/>
+      <c r="AK14" s="24"/>
+      <c r="AL14" s="24"/>
+      <c r="AM14" s="24"/>
+      <c r="AN14" s="24"/>
+      <c r="AO14" s="24"/>
+      <c r="AP14" s="24"/>
+      <c r="AQ14" s="22"/>
       <c r="AS14" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AT14" s="53">
+        <v>22</v>
+      </c>
+      <c r="AT14" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AU14" s="55">
+        <v>66</v>
+      </c>
+      <c r="AU14" s="48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>35</v>
-      </c>
+        <v>990</v>
+      </c>
+      <c r="AV14" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW14" s="91"/>
+      <c r="AX14" s="91"/>
+      <c r="AY14" s="91"/>
+      <c r="AZ14" s="91"/>
+      <c r="BA14" s="91"/>
+      <c r="BB14" s="91"/>
+      <c r="BC14" s="91"/>
+      <c r="BD14" s="91"/>
+      <c r="BE14" s="91"/>
+      <c r="BF14" s="91"/>
+      <c r="BG14" s="91"/>
+      <c r="BH14" s="91"/>
+      <c r="BI14" s="91"/>
+      <c r="BJ14" s="91"/>
+      <c r="BK14" s="91"/>
+      <c r="BL14" s="91"/>
+      <c r="BM14" s="91"/>
+      <c r="BN14" s="91"/>
+      <c r="BO14" s="91"/>
+      <c r="BP14" s="91"/>
+      <c r="BQ14" s="91"/>
+      <c r="BR14" s="91"/>
+      <c r="BS14" s="91"/>
+      <c r="BT14" s="93"/>
+      <c r="BU14" s="93"/>
+      <c r="BV14" s="93"/>
+      <c r="BW14" s="93"/>
+      <c r="BX14" s="93"/>
+      <c r="BY14" s="93"/>
+      <c r="BZ14" s="93"/>
+      <c r="CA14" s="93"/>
+      <c r="CB14" s="93"/>
+      <c r="CC14" s="93"/>
+      <c r="CD14" s="93"/>
+      <c r="CE14" s="93"/>
+      <c r="CF14" s="93"/>
+      <c r="CG14" s="93"/>
+      <c r="CH14" s="93"/>
+      <c r="CI14" s="93"/>
+      <c r="CJ14" s="93"/>
+      <c r="CK14" s="93"/>
+      <c r="CL14" s="93"/>
+      <c r="CM14" s="93"/>
+      <c r="CN14" s="93"/>
+      <c r="CO14" s="93"/>
+      <c r="CP14" s="93"/>
+      <c r="CQ14" s="93"/>
+      <c r="CR14" s="93"/>
+      <c r="CS14" s="93"/>
     </row>
-    <row r="15" spans="3:48" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="27">
-        <v>0</v>
-      </c>
-      <c r="F15" s="30">
-        <v>45962</v>
-      </c>
-      <c r="G15" s="30">
-        <v>45962</v>
-      </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25">
+    <row r="15" spans="1:97" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C15" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="25">
+        <v>0</v>
+      </c>
+      <c r="F15" s="26">
+        <v>45992</v>
+      </c>
+      <c r="G15" s="26">
+        <v>45770</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="25"/>
-      <c r="AD15" s="25"/>
-      <c r="AE15" s="25"/>
-      <c r="AF15" s="25"/>
-      <c r="AG15" s="25"/>
-      <c r="AH15" s="25"/>
-      <c r="AI15" s="25"/>
-      <c r="AJ15" s="25"/>
-      <c r="AK15" s="25"/>
-      <c r="AL15" s="25"/>
-      <c r="AM15" s="25"/>
-      <c r="AN15" s="25"/>
-      <c r="AO15" s="25"/>
-      <c r="AP15" s="25"/>
-      <c r="AQ15" s="23"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="24"/>
+      <c r="AE15" s="24"/>
+      <c r="AF15" s="24"/>
+      <c r="AG15" s="24"/>
+      <c r="AH15" s="24"/>
+      <c r="AI15" s="24"/>
+      <c r="AJ15" s="24"/>
+      <c r="AK15" s="24"/>
+      <c r="AL15" s="24"/>
+      <c r="AM15" s="24"/>
+      <c r="AN15" s="24"/>
+      <c r="AO15" s="24"/>
+      <c r="AP15" s="24"/>
+      <c r="AQ15" s="22"/>
       <c r="AS15" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AT15" s="53">
+        <v>-32</v>
+      </c>
+      <c r="AT15" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AU15" s="55">
+        <v>-96</v>
+      </c>
+      <c r="AU15" s="48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>-1440</v>
+      </c>
+      <c r="AV15" s="91"/>
+      <c r="AW15" s="91"/>
+      <c r="AX15" s="91"/>
+      <c r="AY15" s="91"/>
+      <c r="AZ15" s="91"/>
+      <c r="BA15" s="91"/>
+      <c r="BB15" s="91"/>
+      <c r="BC15" s="91"/>
+      <c r="BD15" s="91"/>
+      <c r="BE15" s="91"/>
+      <c r="BF15" s="91"/>
+      <c r="BG15" s="91"/>
+      <c r="BH15" s="91"/>
+      <c r="BI15" s="91"/>
+      <c r="BJ15" s="91"/>
+      <c r="BK15" s="91"/>
+      <c r="BL15" s="91"/>
+      <c r="BM15" s="91"/>
+      <c r="BN15" s="91"/>
+      <c r="BO15" s="91"/>
+      <c r="BP15" s="91"/>
+      <c r="BQ15" s="91"/>
+      <c r="BR15" s="91"/>
+      <c r="BS15" s="91"/>
+      <c r="BT15" s="93"/>
+      <c r="BU15" s="93"/>
+      <c r="BV15" s="93"/>
+      <c r="BW15" s="93"/>
+      <c r="BX15" s="93"/>
+      <c r="BY15" s="93"/>
+      <c r="BZ15" s="93"/>
+      <c r="CA15" s="93"/>
+      <c r="CB15" s="93"/>
+      <c r="CC15" s="93"/>
+      <c r="CD15" s="93"/>
+      <c r="CE15" s="93"/>
+      <c r="CF15" s="93"/>
+      <c r="CG15" s="93"/>
+      <c r="CH15" s="93"/>
+      <c r="CI15" s="93"/>
+      <c r="CJ15" s="93"/>
+      <c r="CK15" s="93"/>
+      <c r="CL15" s="93"/>
+      <c r="CM15" s="93"/>
+      <c r="CN15" s="93"/>
+      <c r="CO15" s="93"/>
+      <c r="CP15" s="93"/>
+      <c r="CQ15" s="93"/>
+      <c r="CR15" s="93"/>
+      <c r="CS15" s="93"/>
     </row>
-    <row r="16" spans="3:48" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="27">
-        <v>0</v>
-      </c>
-      <c r="F16" s="30">
+    <row r="16" spans="1:97" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C16" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="25">
+        <v>0</v>
+      </c>
+      <c r="F16" s="26">
         <v>45962</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="26">
         <v>45962</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="25">
+      <c r="H16" s="23"/>
+      <c r="I16" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="25"/>
-      <c r="AC16" s="25"/>
-      <c r="AD16" s="25"/>
-      <c r="AE16" s="25"/>
-      <c r="AF16" s="25"/>
-      <c r="AG16" s="25"/>
-      <c r="AH16" s="25"/>
-      <c r="AI16" s="25"/>
-      <c r="AJ16" s="25"/>
-      <c r="AK16" s="25"/>
-      <c r="AL16" s="25"/>
-      <c r="AM16" s="25"/>
-      <c r="AN16" s="25"/>
-      <c r="AO16" s="25"/>
-      <c r="AP16" s="25"/>
-      <c r="AQ16" s="23"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24"/>
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="24"/>
+      <c r="AG16" s="24"/>
+      <c r="AH16" s="24"/>
+      <c r="AI16" s="24"/>
+      <c r="AJ16" s="24"/>
+      <c r="AK16" s="24"/>
+      <c r="AL16" s="24"/>
+      <c r="AM16" s="24"/>
+      <c r="AN16" s="24"/>
+      <c r="AO16" s="24"/>
+      <c r="AP16" s="24"/>
+      <c r="AQ16" s="22"/>
       <c r="AS16" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AT16" s="53">
+      <c r="AT16" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AU16" s="55">
+      <c r="AU16" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AV16" s="91"/>
+      <c r="AW16" s="91"/>
+      <c r="AX16" s="91"/>
+      <c r="AY16" s="91"/>
+      <c r="AZ16" s="91"/>
+      <c r="BA16" s="91"/>
+      <c r="BB16" s="91"/>
+      <c r="BC16" s="91"/>
+      <c r="BD16" s="91"/>
+      <c r="BE16" s="91"/>
+      <c r="BF16" s="91"/>
+      <c r="BG16" s="91"/>
+      <c r="BH16" s="91"/>
+      <c r="BI16" s="91"/>
+      <c r="BJ16" s="91"/>
+      <c r="BK16" s="91"/>
+      <c r="BL16" s="91"/>
+      <c r="BM16" s="91"/>
+      <c r="BN16" s="91"/>
+      <c r="BO16" s="91"/>
+      <c r="BP16" s="91"/>
+      <c r="BQ16" s="91"/>
+      <c r="BR16" s="91"/>
+      <c r="BS16" s="91"/>
+      <c r="BT16" s="93"/>
+      <c r="BU16" s="93"/>
+      <c r="BV16" s="93"/>
+      <c r="BW16" s="93"/>
+      <c r="BX16" s="93"/>
+      <c r="BY16" s="93"/>
+      <c r="BZ16" s="93"/>
+      <c r="CA16" s="93"/>
+      <c r="CB16" s="93"/>
+      <c r="CC16" s="93"/>
+      <c r="CD16" s="93"/>
+      <c r="CE16" s="93"/>
+      <c r="CF16" s="93"/>
+      <c r="CG16" s="93"/>
+      <c r="CH16" s="93"/>
+      <c r="CI16" s="93"/>
+      <c r="CJ16" s="93"/>
+      <c r="CK16" s="93"/>
+      <c r="CL16" s="93"/>
+      <c r="CM16" s="93"/>
+      <c r="CN16" s="93"/>
+      <c r="CO16" s="93"/>
+      <c r="CP16" s="93"/>
+      <c r="CQ16" s="93"/>
+      <c r="CR16" s="93"/>
+      <c r="CS16" s="93"/>
     </row>
-    <row r="17" spans="3:47" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="27">
-        <v>0</v>
-      </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="25">
+    <row r="17" spans="1:97" s="67" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A17" s="91"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="63"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="25"/>
-      <c r="AD17" s="25"/>
-      <c r="AE17" s="25"/>
-      <c r="AF17" s="25"/>
-      <c r="AG17" s="25"/>
-      <c r="AH17" s="25"/>
-      <c r="AI17" s="25"/>
-      <c r="AJ17" s="25"/>
-      <c r="AK17" s="25"/>
-      <c r="AL17" s="25"/>
-      <c r="AM17" s="25"/>
-      <c r="AN17" s="25"/>
-      <c r="AO17" s="25"/>
-      <c r="AP17" s="25"/>
-      <c r="AQ17" s="23"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="65"/>
+      <c r="Z17" s="65"/>
+      <c r="AA17" s="65"/>
+      <c r="AB17" s="65"/>
+      <c r="AC17" s="65"/>
+      <c r="AD17" s="65"/>
+      <c r="AE17" s="65"/>
+      <c r="AF17" s="65"/>
+      <c r="AG17" s="65"/>
+      <c r="AH17" s="65"/>
+      <c r="AI17" s="65"/>
+      <c r="AJ17" s="65"/>
+      <c r="AK17" s="65"/>
+      <c r="AL17" s="65"/>
+      <c r="AM17" s="65"/>
+      <c r="AN17" s="65"/>
+      <c r="AO17" s="65"/>
+      <c r="AP17" s="65"/>
+      <c r="AQ17" s="66"/>
+      <c r="AR17" s="91"/>
       <c r="AS17" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AT17" s="53">
+      <c r="AT17" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AU17" s="55">
+      <c r="AU17" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AV17" s="91"/>
+      <c r="AW17" s="91"/>
+      <c r="AX17" s="91"/>
+      <c r="AY17" s="91"/>
+      <c r="AZ17" s="91"/>
+      <c r="BA17" s="91"/>
+      <c r="BB17" s="91"/>
+      <c r="BC17" s="91"/>
+      <c r="BD17" s="91"/>
+      <c r="BE17" s="91"/>
+      <c r="BF17" s="91"/>
+      <c r="BG17" s="91"/>
+      <c r="BH17" s="91"/>
+      <c r="BI17" s="91"/>
+      <c r="BJ17" s="91"/>
+      <c r="BK17" s="91"/>
+      <c r="BL17" s="91"/>
+      <c r="BM17" s="91"/>
+      <c r="BN17" s="91"/>
+      <c r="BO17" s="91"/>
+      <c r="BP17" s="91"/>
+      <c r="BQ17" s="91"/>
+      <c r="BR17" s="91"/>
+      <c r="BS17" s="91"/>
+      <c r="BT17" s="93"/>
+      <c r="BU17" s="93"/>
+      <c r="BV17" s="93"/>
+      <c r="BW17" s="93"/>
+      <c r="BX17" s="93"/>
+      <c r="BY17" s="93"/>
+      <c r="BZ17" s="93"/>
+      <c r="CA17" s="93"/>
+      <c r="CB17" s="93"/>
+      <c r="CC17" s="93"/>
+      <c r="CD17" s="93"/>
+      <c r="CE17" s="93"/>
+      <c r="CF17" s="93"/>
+      <c r="CG17" s="93"/>
+      <c r="CH17" s="93"/>
+      <c r="CI17" s="93"/>
+      <c r="CJ17" s="93"/>
+      <c r="CK17" s="93"/>
+      <c r="CL17" s="93"/>
+      <c r="CM17" s="93"/>
+      <c r="CN17" s="93"/>
+      <c r="CO17" s="93"/>
+      <c r="CP17" s="93"/>
+      <c r="CQ17" s="93"/>
+      <c r="CR17" s="93"/>
+      <c r="CS17" s="93"/>
     </row>
-    <row r="18" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="32"/>
-      <c r="D18" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="27">
-        <v>0</v>
-      </c>
-      <c r="F18" s="30">
+    <row r="18" spans="1:97" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C18" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="25">
+        <v>1</v>
+      </c>
+      <c r="F18" s="26">
         <v>45945</v>
       </c>
-      <c r="G18" s="30">
-        <v>45962</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="25">
+      <c r="G18" s="26">
+        <v>45950</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="25"/>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="25"/>
-      <c r="AD18" s="25"/>
-      <c r="AE18" s="25"/>
-      <c r="AF18" s="25"/>
-      <c r="AG18" s="25"/>
-      <c r="AH18" s="25"/>
-      <c r="AI18" s="25"/>
-      <c r="AJ18" s="25"/>
-      <c r="AK18" s="25"/>
-      <c r="AL18" s="25"/>
-      <c r="AM18" s="25"/>
-      <c r="AN18" s="25"/>
-      <c r="AO18" s="25"/>
-      <c r="AP18" s="25"/>
-      <c r="AQ18" s="23"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="24"/>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="24"/>
+      <c r="AG18" s="24"/>
+      <c r="AH18" s="24"/>
+      <c r="AI18" s="24"/>
+      <c r="AJ18" s="24"/>
+      <c r="AK18" s="24"/>
+      <c r="AL18" s="24"/>
+      <c r="AM18" s="24"/>
+      <c r="AN18" s="24"/>
+      <c r="AO18" s="24"/>
+      <c r="AP18" s="24"/>
+      <c r="AQ18" s="22"/>
       <c r="AS18" s="8">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT18" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU18" s="48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AV18" s="91"/>
+      <c r="AW18" s="91"/>
+      <c r="AX18" s="91"/>
+      <c r="AY18" s="91"/>
+      <c r="AZ18" s="91"/>
+      <c r="BA18" s="91"/>
+      <c r="BB18" s="91"/>
+      <c r="BC18" s="91"/>
+      <c r="BD18" s="91"/>
+      <c r="BE18" s="91"/>
+      <c r="BF18" s="91"/>
+      <c r="BG18" s="91"/>
+      <c r="BH18" s="91"/>
+      <c r="BI18" s="91"/>
+      <c r="BJ18" s="91"/>
+      <c r="BK18" s="91"/>
+      <c r="BL18" s="91"/>
+      <c r="BM18" s="91"/>
+      <c r="BN18" s="91"/>
+      <c r="BO18" s="91"/>
+      <c r="BP18" s="91"/>
+      <c r="BQ18" s="91"/>
+      <c r="BR18" s="91"/>
+      <c r="BS18" s="91"/>
+      <c r="BT18" s="93"/>
+      <c r="BU18" s="93"/>
+      <c r="BV18" s="93"/>
+      <c r="BW18" s="93"/>
+      <c r="BX18" s="93"/>
+      <c r="BY18" s="93"/>
+      <c r="BZ18" s="93"/>
+      <c r="CA18" s="93"/>
+      <c r="CB18" s="93"/>
+      <c r="CC18" s="93"/>
+      <c r="CD18" s="93"/>
+      <c r="CE18" s="93"/>
+      <c r="CF18" s="93"/>
+      <c r="CG18" s="93"/>
+      <c r="CH18" s="93"/>
+      <c r="CI18" s="93"/>
+      <c r="CJ18" s="93"/>
+      <c r="CK18" s="93"/>
+      <c r="CL18" s="93"/>
+      <c r="CM18" s="93"/>
+      <c r="CN18" s="93"/>
+      <c r="CO18" s="93"/>
+      <c r="CP18" s="93"/>
+      <c r="CQ18" s="93"/>
+      <c r="CR18" s="93"/>
+      <c r="CS18" s="93"/>
+    </row>
+    <row r="19" spans="1:97" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="25">
+        <v>1</v>
+      </c>
+      <c r="F19" s="26">
+        <v>45962</v>
+      </c>
+      <c r="G19" s="26">
+        <v>45979</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="24"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="24"/>
+      <c r="AE19" s="24"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="24"/>
+      <c r="AH19" s="24"/>
+      <c r="AI19" s="24"/>
+      <c r="AJ19" s="24"/>
+      <c r="AK19" s="24"/>
+      <c r="AL19" s="24"/>
+      <c r="AM19" s="24"/>
+      <c r="AN19" s="24"/>
+      <c r="AO19" s="24"/>
+      <c r="AP19" s="24"/>
+      <c r="AQ19" s="22"/>
+      <c r="AS19" s="8">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AT18" s="53">
+      <c r="AT19" s="46">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AU18" s="55">
+      <c r="AU19" s="48">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
+      <c r="AV19" s="91"/>
+      <c r="AW19" s="91"/>
+      <c r="AX19" s="91"/>
+      <c r="AY19" s="91"/>
+      <c r="AZ19" s="91"/>
+      <c r="BA19" s="91"/>
+      <c r="BB19" s="91"/>
+      <c r="BC19" s="91"/>
+      <c r="BD19" s="91"/>
+      <c r="BE19" s="91"/>
+      <c r="BF19" s="91"/>
+      <c r="BG19" s="91"/>
+      <c r="BH19" s="91"/>
+      <c r="BI19" s="91"/>
+      <c r="BJ19" s="91"/>
+      <c r="BK19" s="91"/>
+      <c r="BL19" s="91"/>
+      <c r="BM19" s="91"/>
+      <c r="BN19" s="91"/>
+      <c r="BO19" s="91"/>
+      <c r="BP19" s="91"/>
+      <c r="BQ19" s="91"/>
+      <c r="BR19" s="91"/>
+      <c r="BS19" s="91"/>
+      <c r="BT19" s="93"/>
+      <c r="BU19" s="93"/>
+      <c r="BV19" s="93"/>
+      <c r="BW19" s="93"/>
+      <c r="BX19" s="93"/>
+      <c r="BY19" s="93"/>
+      <c r="BZ19" s="93"/>
+      <c r="CA19" s="93"/>
+      <c r="CB19" s="93"/>
+      <c r="CC19" s="93"/>
+      <c r="CD19" s="93"/>
+      <c r="CE19" s="93"/>
+      <c r="CF19" s="93"/>
+      <c r="CG19" s="93"/>
+      <c r="CH19" s="93"/>
+      <c r="CI19" s="93"/>
+      <c r="CJ19" s="93"/>
+      <c r="CK19" s="93"/>
+      <c r="CL19" s="93"/>
+      <c r="CM19" s="93"/>
+      <c r="CN19" s="93"/>
+      <c r="CO19" s="93"/>
+      <c r="CP19" s="93"/>
+      <c r="CQ19" s="93"/>
+      <c r="CR19" s="93"/>
+      <c r="CS19" s="93"/>
     </row>
-    <row r="19" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="27">
-        <v>0</v>
-      </c>
-      <c r="F19" s="30">
-        <v>45962</v>
-      </c>
-      <c r="G19" s="30">
-        <v>45962</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="25"/>
-      <c r="AD19" s="25"/>
-      <c r="AE19" s="25"/>
-      <c r="AF19" s="25"/>
-      <c r="AG19" s="25"/>
-      <c r="AH19" s="25"/>
-      <c r="AI19" s="25"/>
-      <c r="AJ19" s="25"/>
-      <c r="AK19" s="25"/>
-      <c r="AL19" s="25"/>
-      <c r="AM19" s="25"/>
-      <c r="AN19" s="25"/>
-      <c r="AO19" s="25"/>
-      <c r="AP19" s="25"/>
-      <c r="AQ19" s="23"/>
-      <c r="AS19" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AT19" s="53">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AU19" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="27">
-        <v>0</v>
-      </c>
-      <c r="F20" s="30">
-        <v>45962</v>
-      </c>
-      <c r="G20" s="30">
-        <v>45962</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="25"/>
-      <c r="AB20" s="25"/>
-      <c r="AC20" s="25"/>
-      <c r="AD20" s="25"/>
-      <c r="AE20" s="25"/>
-      <c r="AF20" s="25"/>
-      <c r="AG20" s="25"/>
-      <c r="AH20" s="25"/>
-      <c r="AI20" s="25"/>
-      <c r="AJ20" s="25"/>
-      <c r="AK20" s="25"/>
-      <c r="AL20" s="25"/>
-      <c r="AM20" s="25"/>
-      <c r="AN20" s="25"/>
-      <c r="AO20" s="25"/>
-      <c r="AP20" s="25"/>
-      <c r="AQ20" s="23"/>
+    <row r="20" spans="1:97" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C20" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="25">
+        <v>0</v>
+      </c>
+      <c r="F20" s="26">
+        <v>45980</v>
+      </c>
+      <c r="G20" s="26">
+        <v>46010</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="24"/>
+      <c r="AB20" s="24"/>
+      <c r="AC20" s="24"/>
+      <c r="AD20" s="24"/>
+      <c r="AE20" s="24"/>
+      <c r="AF20" s="24"/>
+      <c r="AG20" s="24"/>
+      <c r="AH20" s="24"/>
+      <c r="AI20" s="24"/>
+      <c r="AJ20" s="24"/>
+      <c r="AK20" s="24"/>
+      <c r="AL20" s="24"/>
+      <c r="AM20" s="24"/>
+      <c r="AN20" s="24"/>
+      <c r="AO20" s="24"/>
+      <c r="AP20" s="24"/>
+      <c r="AQ20" s="22"/>
       <c r="AS20" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AT20" s="53">
+        <v>4</v>
+      </c>
+      <c r="AT20" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AU20" s="55">
+        <v>12</v>
+      </c>
+      <c r="AU20" s="48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="AV20" s="91"/>
+      <c r="AW20" s="91"/>
+      <c r="AX20" s="91"/>
+      <c r="AY20" s="91"/>
+      <c r="AZ20" s="91"/>
+      <c r="BA20" s="91"/>
+      <c r="BB20" s="91"/>
+      <c r="BC20" s="91"/>
+      <c r="BD20" s="91"/>
+      <c r="BE20" s="91"/>
+      <c r="BF20" s="91"/>
+      <c r="BG20" s="91"/>
+      <c r="BH20" s="91"/>
+      <c r="BI20" s="91"/>
+      <c r="BJ20" s="91"/>
+      <c r="BK20" s="91"/>
+      <c r="BL20" s="91"/>
+      <c r="BM20" s="91"/>
+      <c r="BN20" s="91"/>
+      <c r="BO20" s="91"/>
+      <c r="BP20" s="91"/>
+      <c r="BQ20" s="91"/>
+      <c r="BR20" s="91"/>
+      <c r="BS20" s="91"/>
+      <c r="BT20" s="93"/>
+      <c r="BU20" s="93"/>
+      <c r="BV20" s="93"/>
+      <c r="BW20" s="93"/>
+      <c r="BX20" s="93"/>
+      <c r="BY20" s="93"/>
+      <c r="BZ20" s="93"/>
+      <c r="CA20" s="93"/>
+      <c r="CB20" s="93"/>
+      <c r="CC20" s="93"/>
+      <c r="CD20" s="93"/>
+      <c r="CE20" s="93"/>
+      <c r="CF20" s="93"/>
+      <c r="CG20" s="93"/>
+      <c r="CH20" s="93"/>
+      <c r="CI20" s="93"/>
+      <c r="CJ20" s="93"/>
+      <c r="CK20" s="93"/>
+      <c r="CL20" s="93"/>
+      <c r="CM20" s="93"/>
+      <c r="CN20" s="93"/>
+      <c r="CO20" s="93"/>
+      <c r="CP20" s="93"/>
+      <c r="CQ20" s="93"/>
+      <c r="CR20" s="93"/>
+      <c r="CS20" s="93"/>
     </row>
-    <row r="21" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="27">
-        <v>0</v>
-      </c>
-      <c r="F21" s="30">
+    <row r="21" spans="1:97" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C21" s="27"/>
+      <c r="D21" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="25">
+        <v>0</v>
+      </c>
+      <c r="F21" s="26">
         <v>45962</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="26">
         <v>45962</v>
       </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="25">
+      <c r="H21" s="23"/>
+      <c r="I21" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="25"/>
-      <c r="AB21" s="25"/>
-      <c r="AC21" s="25"/>
-      <c r="AD21" s="25"/>
-      <c r="AE21" s="25"/>
-      <c r="AF21" s="25"/>
-      <c r="AG21" s="25"/>
-      <c r="AH21" s="25"/>
-      <c r="AI21" s="25"/>
-      <c r="AJ21" s="25"/>
-      <c r="AK21" s="25"/>
-      <c r="AL21" s="25"/>
-      <c r="AM21" s="25"/>
-      <c r="AN21" s="25"/>
-      <c r="AO21" s="25"/>
-      <c r="AP21" s="25"/>
-      <c r="AQ21" s="23"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="24"/>
+      <c r="AA21" s="24"/>
+      <c r="AB21" s="24"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="24"/>
+      <c r="AE21" s="24"/>
+      <c r="AF21" s="24"/>
+      <c r="AG21" s="24"/>
+      <c r="AH21" s="24"/>
+      <c r="AI21" s="24"/>
+      <c r="AJ21" s="24"/>
+      <c r="AK21" s="24"/>
+      <c r="AL21" s="24"/>
+      <c r="AM21" s="24"/>
+      <c r="AN21" s="24"/>
+      <c r="AO21" s="24"/>
+      <c r="AP21" s="24"/>
+      <c r="AQ21" s="22"/>
       <c r="AS21" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AT21" s="53">
+      <c r="AT21" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AU21" s="55">
+      <c r="AU21" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AV21" s="91"/>
+      <c r="AW21" s="91"/>
+      <c r="AX21" s="91"/>
+      <c r="AY21" s="91"/>
+      <c r="AZ21" s="91"/>
+      <c r="BA21" s="91"/>
+      <c r="BB21" s="91"/>
+      <c r="BC21" s="91"/>
+      <c r="BD21" s="91"/>
+      <c r="BE21" s="91"/>
+      <c r="BF21" s="91"/>
+      <c r="BG21" s="91"/>
+      <c r="BH21" s="91"/>
+      <c r="BI21" s="91"/>
+      <c r="BJ21" s="91"/>
+      <c r="BK21" s="91"/>
+      <c r="BL21" s="91"/>
+      <c r="BM21" s="91"/>
+      <c r="BN21" s="91"/>
+      <c r="BO21" s="91"/>
+      <c r="BP21" s="91"/>
+      <c r="BQ21" s="91"/>
+      <c r="BR21" s="91"/>
+      <c r="BS21" s="91"/>
+      <c r="BT21" s="93"/>
+      <c r="BU21" s="93"/>
+      <c r="BV21" s="93"/>
+      <c r="BW21" s="93"/>
+      <c r="BX21" s="93"/>
+      <c r="BY21" s="93"/>
+      <c r="BZ21" s="93"/>
+      <c r="CA21" s="93"/>
+      <c r="CB21" s="93"/>
+      <c r="CC21" s="93"/>
+      <c r="CD21" s="93"/>
+      <c r="CE21" s="93"/>
+      <c r="CF21" s="93"/>
+      <c r="CG21" s="93"/>
+      <c r="CH21" s="93"/>
+      <c r="CI21" s="93"/>
+      <c r="CJ21" s="93"/>
+      <c r="CK21" s="93"/>
+      <c r="CL21" s="93"/>
+      <c r="CM21" s="93"/>
+      <c r="CN21" s="93"/>
+      <c r="CO21" s="93"/>
+      <c r="CP21" s="93"/>
+      <c r="CQ21" s="93"/>
+      <c r="CR21" s="93"/>
+      <c r="CS21" s="93"/>
     </row>
-    <row r="22" spans="3:47" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="27">
-        <v>0</v>
-      </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="25">
+    <row r="22" spans="1:97" s="90" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="91"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="85">
+        <v>0</v>
+      </c>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="25"/>
-      <c r="AB22" s="25"/>
-      <c r="AC22" s="25"/>
-      <c r="AD22" s="25"/>
-      <c r="AE22" s="25"/>
-      <c r="AF22" s="25"/>
-      <c r="AG22" s="25"/>
-      <c r="AH22" s="25"/>
-      <c r="AI22" s="25"/>
-      <c r="AJ22" s="25"/>
-      <c r="AK22" s="25"/>
-      <c r="AL22" s="25"/>
-      <c r="AM22" s="25"/>
-      <c r="AN22" s="25"/>
-      <c r="AO22" s="25"/>
-      <c r="AP22" s="25"/>
-      <c r="AQ22" s="23"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="88"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="88"/>
+      <c r="S22" s="88"/>
+      <c r="T22" s="88"/>
+      <c r="U22" s="88"/>
+      <c r="V22" s="88"/>
+      <c r="W22" s="88"/>
+      <c r="X22" s="88"/>
+      <c r="Y22" s="88"/>
+      <c r="Z22" s="88"/>
+      <c r="AA22" s="88"/>
+      <c r="AB22" s="88"/>
+      <c r="AC22" s="88"/>
+      <c r="AD22" s="88"/>
+      <c r="AE22" s="88"/>
+      <c r="AF22" s="88"/>
+      <c r="AG22" s="88"/>
+      <c r="AH22" s="88"/>
+      <c r="AI22" s="88"/>
+      <c r="AJ22" s="88"/>
+      <c r="AK22" s="88"/>
+      <c r="AL22" s="88"/>
+      <c r="AM22" s="88"/>
+      <c r="AN22" s="88"/>
+      <c r="AO22" s="88"/>
+      <c r="AP22" s="88"/>
+      <c r="AQ22" s="89"/>
+      <c r="AR22" s="91"/>
       <c r="AS22" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AT22" s="53">
+      <c r="AT22" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AU22" s="55">
+      <c r="AU22" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AV22" s="91"/>
+      <c r="AW22" s="91"/>
+      <c r="AX22" s="91"/>
+      <c r="AY22" s="91"/>
+      <c r="AZ22" s="91"/>
+      <c r="BA22" s="91"/>
+      <c r="BB22" s="91"/>
+      <c r="BC22" s="91"/>
+      <c r="BD22" s="91"/>
+      <c r="BE22" s="91"/>
+      <c r="BF22" s="91"/>
+      <c r="BG22" s="91"/>
+      <c r="BH22" s="91"/>
+      <c r="BI22" s="91"/>
+      <c r="BJ22" s="91"/>
+      <c r="BK22" s="91"/>
+      <c r="BL22" s="91"/>
+      <c r="BM22" s="91"/>
+      <c r="BN22" s="91"/>
+      <c r="BO22" s="91"/>
+      <c r="BP22" s="91"/>
+      <c r="BQ22" s="91"/>
+      <c r="BR22" s="91"/>
+      <c r="BS22" s="91"/>
+      <c r="BT22" s="93"/>
+      <c r="BU22" s="93"/>
+      <c r="BV22" s="93"/>
+      <c r="BW22" s="93"/>
+      <c r="BX22" s="93"/>
+      <c r="BY22" s="93"/>
+      <c r="BZ22" s="93"/>
+      <c r="CA22" s="93"/>
+      <c r="CB22" s="93"/>
+      <c r="CC22" s="93"/>
+      <c r="CD22" s="93"/>
+      <c r="CE22" s="93"/>
+      <c r="CF22" s="93"/>
+      <c r="CG22" s="93"/>
+      <c r="CH22" s="93"/>
+      <c r="CI22" s="93"/>
+      <c r="CJ22" s="93"/>
+      <c r="CK22" s="93"/>
+      <c r="CL22" s="93"/>
+      <c r="CM22" s="93"/>
+      <c r="CN22" s="93"/>
+      <c r="CO22" s="93"/>
+      <c r="CP22" s="93"/>
+      <c r="CQ22" s="93"/>
+      <c r="CR22" s="93"/>
+      <c r="CS22" s="93"/>
     </row>
-    <row r="23" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="27">
-        <v>0.4</v>
-      </c>
-      <c r="F23" s="30">
-        <v>45957</v>
-      </c>
-      <c r="G23" s="30">
-        <v>45964</v>
-      </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="25">
+    <row r="23" spans="1:97" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C23" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="25">
+        <v>0</v>
+      </c>
+      <c r="F23" s="26">
+        <v>45992</v>
+      </c>
+      <c r="G23" s="26">
+        <v>46006</v>
+      </c>
+      <c r="H23" s="23"/>
+      <c r="I23" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="25"/>
-      <c r="AA23" s="25"/>
-      <c r="AB23" s="25"/>
-      <c r="AC23" s="25"/>
-      <c r="AD23" s="25"/>
-      <c r="AE23" s="25"/>
-      <c r="AF23" s="25"/>
-      <c r="AG23" s="25"/>
-      <c r="AH23" s="25"/>
-      <c r="AI23" s="25"/>
-      <c r="AJ23" s="25"/>
-      <c r="AK23" s="25"/>
-      <c r="AL23" s="25"/>
-      <c r="AM23" s="25"/>
-      <c r="AN23" s="25"/>
-      <c r="AO23" s="25"/>
-      <c r="AP23" s="25"/>
-      <c r="AQ23" s="23"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="24"/>
+      <c r="AA23" s="24"/>
+      <c r="AB23" s="24"/>
+      <c r="AC23" s="24"/>
+      <c r="AD23" s="24"/>
+      <c r="AE23" s="24"/>
+      <c r="AF23" s="24"/>
+      <c r="AG23" s="24"/>
+      <c r="AH23" s="24"/>
+      <c r="AI23" s="24"/>
+      <c r="AJ23" s="24"/>
+      <c r="AK23" s="24"/>
+      <c r="AL23" s="24"/>
+      <c r="AM23" s="24"/>
+      <c r="AN23" s="24"/>
+      <c r="AO23" s="24"/>
+      <c r="AP23" s="24"/>
+      <c r="AQ23" s="22"/>
       <c r="AS23" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AT23" s="53">
+        <v>2</v>
+      </c>
+      <c r="AT23" s="46">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="AU23" s="55">
+        <v>6</v>
+      </c>
+      <c r="AU23" s="48">
         <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="AV23" s="91"/>
+      <c r="AW23" s="91"/>
+      <c r="AX23" s="91"/>
+      <c r="AY23" s="91"/>
+      <c r="AZ23" s="91"/>
+      <c r="BA23" s="91"/>
+      <c r="BB23" s="91"/>
+      <c r="BC23" s="91"/>
+      <c r="BD23" s="91"/>
+      <c r="BE23" s="91"/>
+      <c r="BF23" s="91"/>
+      <c r="BG23" s="91"/>
+      <c r="BH23" s="91"/>
+      <c r="BI23" s="91"/>
+      <c r="BJ23" s="91"/>
+      <c r="BK23" s="91"/>
+      <c r="BL23" s="91"/>
+      <c r="BM23" s="91"/>
+      <c r="BN23" s="91"/>
+      <c r="BO23" s="91"/>
+      <c r="BP23" s="91"/>
+      <c r="BQ23" s="91"/>
+      <c r="BR23" s="91"/>
+      <c r="BS23" s="91"/>
+      <c r="BT23" s="93"/>
+      <c r="BU23" s="93"/>
+      <c r="BV23" s="93"/>
+      <c r="BW23" s="93"/>
+      <c r="BX23" s="93"/>
+      <c r="BY23" s="93"/>
+      <c r="BZ23" s="93"/>
+      <c r="CA23" s="93"/>
+      <c r="CB23" s="93"/>
+      <c r="CC23" s="93"/>
+      <c r="CD23" s="93"/>
+      <c r="CE23" s="93"/>
+      <c r="CF23" s="93"/>
+      <c r="CG23" s="93"/>
+      <c r="CH23" s="93"/>
+      <c r="CI23" s="93"/>
+      <c r="CJ23" s="93"/>
+      <c r="CK23" s="93"/>
+      <c r="CL23" s="93"/>
+      <c r="CM23" s="93"/>
+      <c r="CN23" s="93"/>
+      <c r="CO23" s="93"/>
+      <c r="CP23" s="93"/>
+      <c r="CQ23" s="93"/>
+      <c r="CR23" s="93"/>
+      <c r="CS23" s="93"/>
     </row>
-    <row r="24" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="32" t="s">
+    <row r="24" spans="1:97" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C24" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="27">
-        <v>0</v>
-      </c>
-      <c r="F24" s="30">
+      <c r="E24" s="25">
+        <v>0</v>
+      </c>
+      <c r="F24" s="26">
         <v>45962</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G24" s="26">
         <v>45962</v>
       </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="25">
+      <c r="H24" s="23"/>
+      <c r="I24" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="25"/>
-      <c r="AB24" s="25"/>
-      <c r="AC24" s="25"/>
-      <c r="AD24" s="25"/>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="25"/>
-      <c r="AG24" s="25"/>
-      <c r="AH24" s="25"/>
-      <c r="AI24" s="25"/>
-      <c r="AJ24" s="25"/>
-      <c r="AK24" s="25"/>
-      <c r="AL24" s="25"/>
-      <c r="AM24" s="25"/>
-      <c r="AN24" s="25"/>
-      <c r="AO24" s="25"/>
-      <c r="AP24" s="25"/>
-      <c r="AQ24" s="23"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="24"/>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="24"/>
+      <c r="AD24" s="24"/>
+      <c r="AE24" s="24"/>
+      <c r="AF24" s="24"/>
+      <c r="AG24" s="24"/>
+      <c r="AH24" s="24"/>
+      <c r="AI24" s="24"/>
+      <c r="AJ24" s="24"/>
+      <c r="AK24" s="24"/>
+      <c r="AL24" s="24"/>
+      <c r="AM24" s="24"/>
+      <c r="AN24" s="24"/>
+      <c r="AO24" s="24"/>
+      <c r="AP24" s="24"/>
+      <c r="AQ24" s="22"/>
       <c r="AS24" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AT24" s="53">
+      <c r="AT24" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AU24" s="55">
+      <c r="AU24" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AV24" s="91"/>
+      <c r="AW24" s="91"/>
+      <c r="AX24" s="91"/>
+      <c r="AY24" s="91"/>
+      <c r="AZ24" s="91"/>
+      <c r="BA24" s="91"/>
+      <c r="BB24" s="91"/>
+      <c r="BC24" s="91"/>
+      <c r="BD24" s="91"/>
+      <c r="BE24" s="91"/>
+      <c r="BF24" s="91"/>
+      <c r="BG24" s="91"/>
+      <c r="BH24" s="91"/>
+      <c r="BI24" s="91"/>
+      <c r="BJ24" s="91"/>
+      <c r="BK24" s="91"/>
+      <c r="BL24" s="91"/>
+      <c r="BM24" s="91"/>
+      <c r="BN24" s="91"/>
+      <c r="BO24" s="91"/>
+      <c r="BP24" s="91"/>
+      <c r="BQ24" s="91"/>
+      <c r="BR24" s="91"/>
+      <c r="BS24" s="91"/>
+      <c r="BT24" s="93"/>
+      <c r="BU24" s="93"/>
+      <c r="BV24" s="93"/>
+      <c r="BW24" s="93"/>
+      <c r="BX24" s="93"/>
+      <c r="BY24" s="93"/>
+      <c r="BZ24" s="93"/>
+      <c r="CA24" s="93"/>
+      <c r="CB24" s="93"/>
+      <c r="CC24" s="93"/>
+      <c r="CD24" s="93"/>
+      <c r="CE24" s="93"/>
+      <c r="CF24" s="93"/>
+      <c r="CG24" s="93"/>
+      <c r="CH24" s="93"/>
+      <c r="CI24" s="93"/>
+      <c r="CJ24" s="93"/>
+      <c r="CK24" s="93"/>
+      <c r="CL24" s="93"/>
+      <c r="CM24" s="93"/>
+      <c r="CN24" s="93"/>
+      <c r="CO24" s="93"/>
+      <c r="CP24" s="93"/>
+      <c r="CQ24" s="93"/>
+      <c r="CR24" s="93"/>
+      <c r="CS24" s="93"/>
     </row>
-    <row r="25" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C25" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="27">
-        <v>0</v>
-      </c>
-      <c r="F25" s="30">
+    <row r="25" spans="1:97" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C25" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="26">
         <v>45962</v>
       </c>
-      <c r="G25" s="30">
+      <c r="G25" s="26">
         <v>45962</v>
       </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="25">
+      <c r="H25" s="23"/>
+      <c r="I25" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="25"/>
-      <c r="AA25" s="25"/>
-      <c r="AB25" s="25"/>
-      <c r="AC25" s="25"/>
-      <c r="AD25" s="25"/>
-      <c r="AE25" s="25"/>
-      <c r="AF25" s="25"/>
-      <c r="AG25" s="25"/>
-      <c r="AH25" s="25"/>
-      <c r="AI25" s="25"/>
-      <c r="AJ25" s="25"/>
-      <c r="AK25" s="25"/>
-      <c r="AL25" s="25"/>
-      <c r="AM25" s="25"/>
-      <c r="AN25" s="25"/>
-      <c r="AO25" s="25"/>
-      <c r="AP25" s="25"/>
-      <c r="AQ25" s="23"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="24"/>
+      <c r="AB25" s="24"/>
+      <c r="AC25" s="24"/>
+      <c r="AD25" s="24"/>
+      <c r="AE25" s="24"/>
+      <c r="AF25" s="24"/>
+      <c r="AG25" s="24"/>
+      <c r="AH25" s="24"/>
+      <c r="AI25" s="24"/>
+      <c r="AJ25" s="24"/>
+      <c r="AK25" s="24"/>
+      <c r="AL25" s="24"/>
+      <c r="AM25" s="24"/>
+      <c r="AN25" s="24"/>
+      <c r="AO25" s="24"/>
+      <c r="AP25" s="24"/>
+      <c r="AQ25" s="22"/>
       <c r="AS25" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AT25" s="53">
+      <c r="AT25" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AU25" s="55">
+      <c r="AU25" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AV25" s="91"/>
+      <c r="AW25" s="91"/>
+      <c r="AX25" s="91"/>
+      <c r="AY25" s="91"/>
+      <c r="AZ25" s="91"/>
+      <c r="BA25" s="91"/>
+      <c r="BB25" s="91"/>
+      <c r="BC25" s="91"/>
+      <c r="BD25" s="91"/>
+      <c r="BE25" s="91"/>
+      <c r="BF25" s="91"/>
+      <c r="BG25" s="91"/>
+      <c r="BH25" s="91"/>
+      <c r="BI25" s="91"/>
+      <c r="BJ25" s="91"/>
+      <c r="BK25" s="91"/>
+      <c r="BL25" s="91"/>
+      <c r="BM25" s="91"/>
+      <c r="BN25" s="91"/>
+      <c r="BO25" s="91"/>
+      <c r="BP25" s="91"/>
+      <c r="BQ25" s="91"/>
+      <c r="BR25" s="91"/>
+      <c r="BS25" s="91"/>
+      <c r="BT25" s="93"/>
+      <c r="BU25" s="93"/>
+      <c r="BV25" s="93"/>
+      <c r="BW25" s="93"/>
+      <c r="BX25" s="93"/>
+      <c r="BY25" s="93"/>
+      <c r="BZ25" s="93"/>
+      <c r="CA25" s="93"/>
+      <c r="CB25" s="93"/>
+      <c r="CC25" s="93"/>
+      <c r="CD25" s="93"/>
+      <c r="CE25" s="93"/>
+      <c r="CF25" s="93"/>
+      <c r="CG25" s="93"/>
+      <c r="CH25" s="93"/>
+      <c r="CI25" s="93"/>
+      <c r="CJ25" s="93"/>
+      <c r="CK25" s="93"/>
+      <c r="CL25" s="93"/>
+      <c r="CM25" s="93"/>
+      <c r="CN25" s="93"/>
+      <c r="CO25" s="93"/>
+      <c r="CP25" s="93"/>
+      <c r="CQ25" s="93"/>
+      <c r="CR25" s="93"/>
+      <c r="CS25" s="93"/>
     </row>
-    <row r="26" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C26" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="27">
-        <v>0</v>
-      </c>
-      <c r="F26" s="30">
+    <row r="26" spans="1:97" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C26" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="25">
+        <v>0</v>
+      </c>
+      <c r="F26" s="26">
         <v>45962</v>
       </c>
-      <c r="G26" s="30">
+      <c r="G26" s="26">
         <v>45962</v>
       </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="25">
+      <c r="H26" s="23"/>
+      <c r="I26" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="25"/>
-      <c r="AC26" s="25"/>
-      <c r="AD26" s="25"/>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="25"/>
-      <c r="AG26" s="25"/>
-      <c r="AH26" s="25"/>
-      <c r="AI26" s="25"/>
-      <c r="AJ26" s="25"/>
-      <c r="AK26" s="25"/>
-      <c r="AL26" s="25"/>
-      <c r="AM26" s="25"/>
-      <c r="AN26" s="25"/>
-      <c r="AO26" s="25"/>
-      <c r="AP26" s="25"/>
-      <c r="AQ26" s="23"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="24"/>
+      <c r="AA26" s="24"/>
+      <c r="AB26" s="24"/>
+      <c r="AC26" s="24"/>
+      <c r="AD26" s="24"/>
+      <c r="AE26" s="24"/>
+      <c r="AF26" s="24"/>
+      <c r="AG26" s="24"/>
+      <c r="AH26" s="24"/>
+      <c r="AI26" s="24"/>
+      <c r="AJ26" s="24"/>
+      <c r="AK26" s="24"/>
+      <c r="AL26" s="24"/>
+      <c r="AM26" s="24"/>
+      <c r="AN26" s="24"/>
+      <c r="AO26" s="24"/>
+      <c r="AP26" s="24"/>
+      <c r="AQ26" s="22"/>
       <c r="AS26" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AT26" s="53">
+      <c r="AT26" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AU26" s="55">
+      <c r="AU26" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AV26" s="91"/>
+      <c r="AW26" s="91"/>
+      <c r="AX26" s="91"/>
+      <c r="AY26" s="91"/>
+      <c r="AZ26" s="91"/>
+      <c r="BA26" s="91"/>
+      <c r="BB26" s="91"/>
+      <c r="BC26" s="91"/>
+      <c r="BD26" s="91"/>
+      <c r="BE26" s="91"/>
+      <c r="BF26" s="91"/>
+      <c r="BG26" s="91"/>
+      <c r="BH26" s="91"/>
+      <c r="BI26" s="91"/>
+      <c r="BJ26" s="91"/>
+      <c r="BK26" s="91"/>
+      <c r="BL26" s="91"/>
+      <c r="BM26" s="91"/>
+      <c r="BN26" s="91"/>
+      <c r="BO26" s="91"/>
+      <c r="BP26" s="91"/>
+      <c r="BQ26" s="91"/>
+      <c r="BR26" s="91"/>
+      <c r="BS26" s="91"/>
+      <c r="BT26" s="93"/>
+      <c r="BU26" s="93"/>
+      <c r="BV26" s="93"/>
+      <c r="BW26" s="93"/>
+      <c r="BX26" s="93"/>
+      <c r="BY26" s="93"/>
+      <c r="BZ26" s="93"/>
+      <c r="CA26" s="93"/>
+      <c r="CB26" s="93"/>
+      <c r="CC26" s="93"/>
+      <c r="CD26" s="93"/>
+      <c r="CE26" s="93"/>
+      <c r="CF26" s="93"/>
+      <c r="CG26" s="93"/>
+      <c r="CH26" s="93"/>
+      <c r="CI26" s="93"/>
+      <c r="CJ26" s="93"/>
+      <c r="CK26" s="93"/>
+      <c r="CL26" s="93"/>
+      <c r="CM26" s="93"/>
+      <c r="CN26" s="93"/>
+      <c r="CO26" s="93"/>
+      <c r="CP26" s="93"/>
+      <c r="CQ26" s="93"/>
+      <c r="CR26" s="93"/>
+      <c r="CS26" s="93"/>
     </row>
-    <row r="27" spans="3:47" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:97" x14ac:dyDescent="0.45">
       <c r="AS27" s="8"/>
-      <c r="AT27" s="53"/>
-      <c r="AU27" s="55"/>
+      <c r="AT27" s="46"/>
+      <c r="AU27" s="48"/>
+      <c r="AV27" s="91"/>
+      <c r="AW27" s="91"/>
+      <c r="AX27" s="91"/>
+      <c r="AY27" s="91"/>
+      <c r="AZ27" s="91"/>
+      <c r="BA27" s="91"/>
+      <c r="BB27" s="91"/>
+      <c r="BC27" s="91"/>
+      <c r="BD27" s="91"/>
+      <c r="BE27" s="91"/>
+      <c r="BF27" s="91"/>
+      <c r="BG27" s="91"/>
+      <c r="BH27" s="91"/>
+      <c r="BI27" s="91"/>
+      <c r="BJ27" s="91"/>
+      <c r="BK27" s="91"/>
+      <c r="BL27" s="91"/>
+      <c r="BM27" s="91"/>
+      <c r="BN27" s="91"/>
+      <c r="BO27" s="91"/>
+      <c r="BP27" s="91"/>
+      <c r="BQ27" s="91"/>
+      <c r="BR27" s="91"/>
+      <c r="BS27" s="91"/>
+      <c r="BT27" s="93"/>
+      <c r="BU27" s="93"/>
+      <c r="BV27" s="93"/>
+      <c r="BW27" s="93"/>
+      <c r="BX27" s="93"/>
+      <c r="BY27" s="93"/>
+      <c r="BZ27" s="93"/>
+      <c r="CA27" s="93"/>
+      <c r="CB27" s="93"/>
+      <c r="CC27" s="93"/>
+      <c r="CD27" s="93"/>
+      <c r="CE27" s="93"/>
+      <c r="CF27" s="93"/>
+      <c r="CG27" s="93"/>
+      <c r="CH27" s="93"/>
+      <c r="CI27" s="93"/>
+      <c r="CJ27" s="93"/>
+      <c r="CK27" s="93"/>
+      <c r="CL27" s="93"/>
+      <c r="CM27" s="93"/>
+      <c r="CN27" s="93"/>
+      <c r="CO27" s="93"/>
+      <c r="CP27" s="93"/>
+      <c r="CQ27" s="93"/>
+      <c r="CR27" s="93"/>
+      <c r="CS27" s="93"/>
     </row>
-    <row r="28" spans="3:47" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:97" x14ac:dyDescent="0.45">
       <c r="AS28" s="8"/>
-      <c r="AT28" s="53"/>
-      <c r="AU28" s="55"/>
+      <c r="AT28" s="46"/>
+      <c r="AU28" s="48"/>
+      <c r="AV28" s="91"/>
+      <c r="AW28" s="91"/>
+      <c r="AX28" s="91"/>
+      <c r="AY28" s="91"/>
+      <c r="AZ28" s="91"/>
+      <c r="BA28" s="91"/>
+      <c r="BB28" s="91"/>
+      <c r="BC28" s="91"/>
+      <c r="BD28" s="91"/>
+      <c r="BE28" s="91"/>
+      <c r="BF28" s="91"/>
+      <c r="BG28" s="91"/>
+      <c r="BH28" s="91"/>
+      <c r="BI28" s="91"/>
+      <c r="BJ28" s="91"/>
+      <c r="BK28" s="91"/>
+      <c r="BL28" s="91"/>
+      <c r="BM28" s="91"/>
+      <c r="BN28" s="91"/>
+      <c r="BO28" s="91"/>
+      <c r="BP28" s="91"/>
+      <c r="BQ28" s="91"/>
+      <c r="BR28" s="91"/>
+      <c r="BS28" s="91"/>
+      <c r="BT28" s="93"/>
+      <c r="BU28" s="93"/>
+      <c r="BV28" s="93"/>
+      <c r="BW28" s="93"/>
+      <c r="BX28" s="93"/>
+      <c r="BY28" s="93"/>
+      <c r="BZ28" s="93"/>
+      <c r="CA28" s="93"/>
+      <c r="CB28" s="93"/>
+      <c r="CC28" s="93"/>
+      <c r="CD28" s="93"/>
+      <c r="CE28" s="93"/>
+      <c r="CF28" s="93"/>
+      <c r="CG28" s="93"/>
+      <c r="CH28" s="93"/>
+      <c r="CI28" s="93"/>
+      <c r="CJ28" s="93"/>
+      <c r="CK28" s="93"/>
+      <c r="CL28" s="93"/>
+      <c r="CM28" s="93"/>
+      <c r="CN28" s="93"/>
+      <c r="CO28" s="93"/>
+      <c r="CP28" s="93"/>
+      <c r="CQ28" s="93"/>
+      <c r="CR28" s="93"/>
+      <c r="CS28" s="93"/>
     </row>
-    <row r="29" spans="3:47" x14ac:dyDescent="0.45">
-      <c r="C29" s="38"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="40"/>
+    <row r="29" spans="1:97" x14ac:dyDescent="0.45">
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="33"/>
       <c r="AS29" s="8"/>
-      <c r="AT29" s="53"/>
-      <c r="AU29" s="55"/>
+      <c r="AT29" s="46"/>
+      <c r="AU29" s="48"/>
+      <c r="AV29" s="91"/>
+      <c r="AW29" s="91"/>
+      <c r="AX29" s="91"/>
+      <c r="AY29" s="91"/>
+      <c r="AZ29" s="91"/>
+      <c r="BA29" s="91"/>
+      <c r="BB29" s="91"/>
+      <c r="BC29" s="91"/>
+      <c r="BD29" s="91"/>
+      <c r="BE29" s="91"/>
+      <c r="BF29" s="91"/>
+      <c r="BG29" s="91"/>
+      <c r="BH29" s="91"/>
+      <c r="BI29" s="91"/>
+      <c r="BJ29" s="91"/>
+      <c r="BK29" s="91"/>
+      <c r="BL29" s="91"/>
+      <c r="BM29" s="91"/>
+      <c r="BN29" s="91"/>
+      <c r="BO29" s="91"/>
+      <c r="BP29" s="91"/>
+      <c r="BQ29" s="91"/>
+      <c r="BR29" s="91"/>
+      <c r="BS29" s="91"/>
+      <c r="BT29" s="93"/>
+      <c r="BU29" s="93"/>
+      <c r="BV29" s="93"/>
+      <c r="BW29" s="93"/>
+      <c r="BX29" s="93"/>
+      <c r="BY29" s="93"/>
+      <c r="BZ29" s="93"/>
+      <c r="CA29" s="93"/>
+      <c r="CB29" s="93"/>
+      <c r="CC29" s="93"/>
+      <c r="CD29" s="93"/>
+      <c r="CE29" s="93"/>
+      <c r="CF29" s="93"/>
+      <c r="CG29" s="93"/>
+      <c r="CH29" s="93"/>
+      <c r="CI29" s="93"/>
+      <c r="CJ29" s="93"/>
+      <c r="CK29" s="93"/>
+      <c r="CL29" s="93"/>
+      <c r="CM29" s="93"/>
+      <c r="CN29" s="93"/>
+      <c r="CO29" s="93"/>
+      <c r="CP29" s="93"/>
+      <c r="CQ29" s="93"/>
+      <c r="CR29" s="93"/>
+      <c r="CS29" s="93"/>
     </row>
-    <row r="30" spans="3:47" ht="19.5" x14ac:dyDescent="0.6">
-      <c r="C30" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="60"/>
-      <c r="F30" s="61"/>
-      <c r="AS30" s="51">
+    <row r="30" spans="1:97" ht="19.5" x14ac:dyDescent="0.6">
+      <c r="C30" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="56"/>
+      <c r="F30" s="57"/>
+      <c r="AS30" s="44">
         <f>SUM(AS8:AS26)</f>
-        <v>3</v>
-      </c>
-      <c r="AT30" s="54">
+        <v>22</v>
+      </c>
+      <c r="AT30" s="47">
         <f>SUM(AT8:AT26)</f>
-        <v>9</v>
-      </c>
-      <c r="AU30" s="56">
+        <v>66</v>
+      </c>
+      <c r="AU30" s="49">
         <f>SUM(AU8:AU26)</f>
-        <v>135</v>
-      </c>
+        <v>990</v>
+      </c>
+      <c r="AV30" s="91"/>
+      <c r="AW30" s="91"/>
+      <c r="AX30" s="91"/>
+      <c r="AY30" s="91"/>
+      <c r="AZ30" s="91"/>
+      <c r="BA30" s="91"/>
+      <c r="BB30" s="91"/>
+      <c r="BC30" s="91"/>
+      <c r="BD30" s="91"/>
+      <c r="BE30" s="91"/>
+      <c r="BF30" s="91"/>
+      <c r="BG30" s="91"/>
+      <c r="BH30" s="91"/>
+      <c r="BI30" s="91"/>
+      <c r="BJ30" s="91"/>
+      <c r="BK30" s="91"/>
+      <c r="BL30" s="91"/>
+      <c r="BM30" s="91"/>
+      <c r="BN30" s="91"/>
+      <c r="BO30" s="91"/>
+      <c r="BP30" s="91"/>
+      <c r="BQ30" s="91"/>
+      <c r="BR30" s="91"/>
+      <c r="BS30" s="91"/>
+      <c r="BT30" s="93"/>
+      <c r="BU30" s="93"/>
+      <c r="BV30" s="93"/>
+      <c r="BW30" s="93"/>
+      <c r="BX30" s="93"/>
+      <c r="BY30" s="93"/>
+      <c r="BZ30" s="93"/>
+      <c r="CA30" s="93"/>
+      <c r="CB30" s="93"/>
+      <c r="CC30" s="93"/>
+      <c r="CD30" s="93"/>
+      <c r="CE30" s="93"/>
+      <c r="CF30" s="93"/>
+      <c r="CG30" s="93"/>
+      <c r="CH30" s="93"/>
+      <c r="CI30" s="93"/>
+      <c r="CJ30" s="93"/>
+      <c r="CK30" s="93"/>
+      <c r="CL30" s="93"/>
+      <c r="CM30" s="93"/>
+      <c r="CN30" s="93"/>
+      <c r="CO30" s="93"/>
+      <c r="CP30" s="93"/>
+      <c r="CQ30" s="93"/>
+      <c r="CR30" s="93"/>
+      <c r="CS30" s="93"/>
     </row>
-    <row r="31" spans="3:47" x14ac:dyDescent="0.45">
-      <c r="C31" s="42"/>
-      <c r="D31" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="60"/>
-      <c r="F31" s="61"/>
+    <row r="31" spans="1:97" x14ac:dyDescent="0.45">
+      <c r="C31" s="35"/>
+      <c r="D31" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="56"/>
+      <c r="F31" s="57"/>
+      <c r="AV31" s="91"/>
+      <c r="AW31" s="91"/>
+      <c r="AX31" s="91"/>
+      <c r="AY31" s="91"/>
+      <c r="AZ31" s="91"/>
+      <c r="BA31" s="91"/>
+      <c r="BB31" s="91"/>
+      <c r="BC31" s="91"/>
+      <c r="BD31" s="91"/>
+      <c r="BE31" s="91"/>
+      <c r="BF31" s="91"/>
+      <c r="BG31" s="91"/>
+      <c r="BH31" s="91"/>
+      <c r="BI31" s="91"/>
+      <c r="BJ31" s="91"/>
+      <c r="BK31" s="91"/>
+      <c r="BL31" s="91"/>
+      <c r="BM31" s="91"/>
+      <c r="BN31" s="91"/>
+      <c r="BO31" s="91"/>
+      <c r="BP31" s="91"/>
+      <c r="BQ31" s="91"/>
+      <c r="BR31" s="91"/>
+      <c r="BS31" s="91"/>
     </row>
-    <row r="32" spans="3:47" x14ac:dyDescent="0.45">
-      <c r="C32" s="42"/>
-      <c r="D32" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="60"/>
-      <c r="F32" s="61"/>
+    <row r="32" spans="1:97" x14ac:dyDescent="0.45">
+      <c r="C32" s="35"/>
+      <c r="D32" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="56"/>
+      <c r="F32" s="57"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="67"/>
+      <c r="AV32" s="91"/>
+      <c r="AW32" s="91"/>
+      <c r="AX32" s="91"/>
+      <c r="AY32" s="91"/>
+      <c r="AZ32" s="91"/>
+      <c r="BA32" s="91"/>
+      <c r="BB32" s="91"/>
+      <c r="BC32" s="91"/>
+      <c r="BD32" s="91"/>
+      <c r="BE32" s="91"/>
+      <c r="BF32" s="91"/>
+      <c r="BG32" s="91"/>
+      <c r="BH32" s="91"/>
+      <c r="BI32" s="91"/>
+      <c r="BJ32" s="91"/>
+      <c r="BK32" s="91"/>
+      <c r="BL32" s="91"/>
+      <c r="BM32" s="91"/>
+      <c r="BN32" s="91"/>
+      <c r="BO32" s="91"/>
+      <c r="BP32" s="91"/>
+      <c r="BQ32" s="91"/>
+      <c r="BR32" s="91"/>
+      <c r="BS32" s="91"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C33" s="42"/>
-      <c r="D33" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="60"/>
-      <c r="F33" s="61"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="56"/>
+      <c r="F33" s="57"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C34" s="42"/>
+      <c r="C34" s="35"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="41"/>
+      <c r="F34" s="34"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C35" s="42"/>
+      <c r="C35" s="35"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="41"/>
+      <c r="F35" s="34"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C36" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="46">
+      <c r="C36" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="39">
         <v>3</v>
       </c>
-      <c r="E36" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" s="41"/>
+      <c r="E36" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="34"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C37" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="46">
+      <c r="C37" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="39">
         <v>15</v>
       </c>
-      <c r="E37" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="41"/>
+      <c r="E37" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="34"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C38" s="50" t="s">
-        <v>27</v>
+      <c r="C38" s="43" t="s">
+        <v>23</v>
       </c>
       <c r="D38">
         <v>25</v>
       </c>
-      <c r="E38" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" s="47"/>
+      <c r="E38" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="40"/>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C39" s="43"/>
+      <c r="C39" s="36"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
-      <c r="F39" s="44"/>
+      <c r="F39" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="V3:Y3"/>
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="D30:F30"/>
@@ -2900,11 +4381,6 @@
     <mergeCell ref="M3:P3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="V3:Y3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E8:E26">

--- a/docs/fattibilita/template_gantt excell.xlsx
+++ b/docs/fattibilita/template_gantt excell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomma\Desktop\scuola\5 INFO\GPOI\progetto-GPOI-5INFB-Guerini-Bertasa-Mutti-Zecchini\docs\fattibilita\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EB4742-BA96-47EF-90DD-69DE526EB4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B2759C-F916-41EE-92A0-F753539A1EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{9327F8D6-4F37-4E25-8083-20A17765DC2F}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>TASK</t>
   </si>
@@ -58,15 +58,6 @@
     <t>Month</t>
   </si>
   <si>
-    <t xml:space="preserve">  Task 2.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Task 3.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Task 3.4</t>
-  </si>
-  <si>
     <t>Days</t>
   </si>
   <si>
@@ -79,9 +70,6 @@
     <t>Selling</t>
   </si>
   <si>
-    <t xml:space="preserve">  Task 4.2</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -148,9 +136,6 @@
     <t>domande intervista</t>
   </si>
   <si>
-    <t>task 1.3</t>
-  </si>
-  <si>
     <t>interviste polisportive</t>
   </si>
   <si>
@@ -160,28 +145,52 @@
     <t>ricerca contatti</t>
   </si>
   <si>
-    <t xml:space="preserve"> ottenimento materiali polisportive </t>
-  </si>
-  <si>
     <t xml:space="preserve">  backend</t>
   </si>
   <si>
     <t xml:space="preserve"> frontend</t>
   </si>
   <si>
-    <t>(Mutti, Bertasa, Guerini)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Intro </t>
   </si>
   <si>
-    <t>(Gruppo)</t>
-  </si>
-  <si>
-    <t>(Zecchini)</t>
-  </si>
-  <si>
-    <t>(Guerini)</t>
+    <t>Guerini G</t>
+  </si>
+  <si>
+    <t>Zecchini Z</t>
+  </si>
+  <si>
+    <t>Bertasa B</t>
+  </si>
+  <si>
+    <t>Mutti M</t>
+  </si>
+  <si>
+    <t>M, B</t>
+  </si>
+  <si>
+    <t>B,M,G</t>
+  </si>
+  <si>
+    <t>G,Z</t>
+  </si>
+  <si>
+    <t>tutti T</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ottenimento materiali </t>
+  </si>
+  <si>
+    <t>B, M, G, Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>continuo ricerca</t>
   </si>
 </sst>
 </file>
@@ -552,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -687,33 +696,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -789,6 +771,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1170,14 +1173,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490757F6-93EC-4607-8435-BB8805CD3E41}">
   <dimension ref="A2:CS39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="AC33" sqref="AC33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="53" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="91" customWidth="1"/>
-    <col min="2" max="2" width="6.1328125" style="91" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="82" customWidth="1"/>
+    <col min="2" max="2" width="6.1328125" style="82" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="9.46484375" customWidth="1"/>
@@ -1189,78 +1192,78 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:97" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="55"/>
+      <c r="C2" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="91"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.45">
-      <c r="C3" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="58"/>
+      <c r="C3" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="87"/>
       <c r="H3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="52" t="str">
+      <c r="I3" s="88" t="str">
         <f>TEXT(I5,"MMM")</f>
         <v>Oct</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="52" t="str">
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="88" t="str">
         <f>TEXT(M5,"MMM")</f>
         <v>Nov</v>
       </c>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="52" t="str">
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="88" t="str">
         <f>TEXT(Q5,"MMM")</f>
         <v>Dec</v>
       </c>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
       <c r="U3" s="7"/>
-      <c r="V3" s="52" t="str">
+      <c r="V3" s="88" t="str">
         <f>TEXT(V5,"MMM")</f>
         <v>Jan</v>
       </c>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="52" t="str">
+      <c r="W3" s="89"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="88" t="str">
         <f>TEXT(Z5,"MMM")</f>
         <v>Feb</v>
       </c>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="52" t="str">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="88" t="str">
         <f>TEXT(AD5,"MMM")</f>
         <v>Mar</v>
       </c>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
+      <c r="AE3" s="89"/>
+      <c r="AF3" s="89"/>
+      <c r="AG3" s="89"/>
       <c r="AH3" s="7"/>
-      <c r="AI3" s="52" t="str">
+      <c r="AI3" s="88" t="str">
         <f>TEXT(AI5,"MMM")</f>
         <v>Apr</v>
       </c>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="52" t="str">
+      <c r="AJ3" s="89"/>
+      <c r="AK3" s="89"/>
+      <c r="AL3" s="90"/>
+      <c r="AM3" s="88" t="str">
         <f>TEXT(AM5,"MMM")</f>
         <v>May</v>
       </c>
-      <c r="AN3" s="53"/>
-      <c r="AO3" s="53"/>
-      <c r="AP3" s="54"/>
+      <c r="AN3" s="89"/>
+      <c r="AO3" s="89"/>
+      <c r="AP3" s="90"/>
       <c r="AQ3" s="6" t="str">
         <f>TEXT(AQ5,"MMM")</f>
         <v>Jun</v>
@@ -1268,7 +1271,7 @@
     </row>
     <row r="4" spans="1:97" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>3</v>
@@ -1381,7 +1384,7 @@
     </row>
     <row r="5" spans="1:97" x14ac:dyDescent="0.45">
       <c r="H5" s="17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I5" s="11">
         <v>45936</v>
@@ -1489,74 +1492,74 @@
         <v>46174</v>
       </c>
       <c r="AS5" s="41" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AT5" s="45" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AU5" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="AV5" s="91"/>
-      <c r="AW5" s="91"/>
-      <c r="AX5" s="91"/>
-      <c r="AY5" s="91"/>
-      <c r="AZ5" s="91"/>
-      <c r="BA5" s="91"/>
-      <c r="BB5" s="91"/>
-      <c r="BC5" s="91"/>
-      <c r="BD5" s="91"/>
-      <c r="BE5" s="91"/>
-      <c r="BF5" s="91"/>
-      <c r="BG5" s="91"/>
-      <c r="BH5" s="91"/>
-      <c r="BI5" s="91"/>
-      <c r="BJ5" s="91"/>
-      <c r="BK5" s="91"/>
-      <c r="BL5" s="91"/>
-      <c r="BM5" s="91"/>
-      <c r="BN5" s="91"/>
-      <c r="BO5" s="91"/>
-      <c r="BP5" s="91"/>
-      <c r="BQ5" s="91"/>
-      <c r="BR5" s="91"/>
-      <c r="BS5" s="91"/>
-      <c r="BT5" s="93"/>
-      <c r="BU5" s="93"/>
-      <c r="BV5" s="93"/>
-      <c r="BW5" s="93"/>
-      <c r="BX5" s="93"/>
-      <c r="BY5" s="93"/>
-      <c r="BZ5" s="93"/>
-      <c r="CA5" s="93"/>
-      <c r="CB5" s="93"/>
-      <c r="CC5" s="93"/>
-      <c r="CD5" s="93"/>
-      <c r="CE5" s="93"/>
-      <c r="CF5" s="93"/>
-      <c r="CG5" s="93"/>
-      <c r="CH5" s="93"/>
-      <c r="CI5" s="93"/>
-      <c r="CJ5" s="93"/>
-      <c r="CK5" s="93"/>
-      <c r="CL5" s="93"/>
-      <c r="CM5" s="93"/>
-      <c r="CN5" s="93"/>
-      <c r="CO5" s="93"/>
-      <c r="CP5" s="93"/>
-      <c r="CQ5" s="93"/>
-      <c r="CR5" s="93"/>
-      <c r="CS5" s="93"/>
+        <v>23</v>
+      </c>
+      <c r="AV5" s="82"/>
+      <c r="AW5" s="82"/>
+      <c r="AX5" s="82"/>
+      <c r="AY5" s="82"/>
+      <c r="AZ5" s="82"/>
+      <c r="BA5" s="82"/>
+      <c r="BB5" s="82"/>
+      <c r="BC5" s="82"/>
+      <c r="BD5" s="82"/>
+      <c r="BE5" s="82"/>
+      <c r="BF5" s="82"/>
+      <c r="BG5" s="82"/>
+      <c r="BH5" s="82"/>
+      <c r="BI5" s="82"/>
+      <c r="BJ5" s="82"/>
+      <c r="BK5" s="82"/>
+      <c r="BL5" s="82"/>
+      <c r="BM5" s="82"/>
+      <c r="BN5" s="82"/>
+      <c r="BO5" s="82"/>
+      <c r="BP5" s="82"/>
+      <c r="BQ5" s="82"/>
+      <c r="BR5" s="82"/>
+      <c r="BS5" s="82"/>
+      <c r="BT5" s="84"/>
+      <c r="BU5" s="84"/>
+      <c r="BV5" s="84"/>
+      <c r="BW5" s="84"/>
+      <c r="BX5" s="84"/>
+      <c r="BY5" s="84"/>
+      <c r="BZ5" s="84"/>
+      <c r="CA5" s="84"/>
+      <c r="CB5" s="84"/>
+      <c r="CC5" s="84"/>
+      <c r="CD5" s="84"/>
+      <c r="CE5" s="84"/>
+      <c r="CF5" s="84"/>
+      <c r="CG5" s="84"/>
+      <c r="CH5" s="84"/>
+      <c r="CI5" s="84"/>
+      <c r="CJ5" s="84"/>
+      <c r="CK5" s="84"/>
+      <c r="CL5" s="84"/>
+      <c r="CM5" s="84"/>
+      <c r="CN5" s="84"/>
+      <c r="CO5" s="84"/>
+      <c r="CP5" s="84"/>
+      <c r="CQ5" s="84"/>
+      <c r="CR5" s="84"/>
+      <c r="CS5" s="84"/>
     </row>
     <row r="6" spans="1:97" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C6" s="28" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>1</v>
@@ -1603,166 +1606,164 @@
       <c r="AS6" s="8"/>
       <c r="AT6" s="46"/>
       <c r="AU6" s="48"/>
-      <c r="AV6" s="91"/>
-      <c r="AW6" s="91"/>
-      <c r="AX6" s="91"/>
-      <c r="AY6" s="91"/>
-      <c r="AZ6" s="91"/>
-      <c r="BA6" s="91"/>
-      <c r="BB6" s="91"/>
-      <c r="BC6" s="91"/>
-      <c r="BD6" s="91"/>
-      <c r="BE6" s="91"/>
-      <c r="BF6" s="91"/>
-      <c r="BG6" s="91"/>
-      <c r="BH6" s="91"/>
-      <c r="BI6" s="91"/>
-      <c r="BJ6" s="91"/>
-      <c r="BK6" s="91"/>
-      <c r="BL6" s="91"/>
-      <c r="BM6" s="91"/>
-      <c r="BN6" s="91"/>
-      <c r="BO6" s="91"/>
-      <c r="BP6" s="91"/>
-      <c r="BQ6" s="91"/>
-      <c r="BR6" s="91"/>
-      <c r="BS6" s="91"/>
-      <c r="BT6" s="93"/>
-      <c r="BU6" s="93"/>
-      <c r="BV6" s="93"/>
-      <c r="BW6" s="93"/>
-      <c r="BX6" s="93"/>
-      <c r="BY6" s="93"/>
-      <c r="BZ6" s="93"/>
-      <c r="CA6" s="93"/>
-      <c r="CB6" s="93"/>
-      <c r="CC6" s="93"/>
-      <c r="CD6" s="93"/>
-      <c r="CE6" s="93"/>
-      <c r="CF6" s="93"/>
-      <c r="CG6" s="93"/>
-      <c r="CH6" s="93"/>
-      <c r="CI6" s="93"/>
-      <c r="CJ6" s="93"/>
-      <c r="CK6" s="93"/>
-      <c r="CL6" s="93"/>
-      <c r="CM6" s="93"/>
-      <c r="CN6" s="93"/>
-      <c r="CO6" s="93"/>
-      <c r="CP6" s="93"/>
-      <c r="CQ6" s="93"/>
-      <c r="CR6" s="93"/>
-      <c r="CS6" s="93"/>
+      <c r="AV6" s="82"/>
+      <c r="AW6" s="82"/>
+      <c r="AX6" s="82"/>
+      <c r="AY6" s="82"/>
+      <c r="AZ6" s="82"/>
+      <c r="BA6" s="82"/>
+      <c r="BB6" s="82"/>
+      <c r="BC6" s="82"/>
+      <c r="BD6" s="82"/>
+      <c r="BE6" s="82"/>
+      <c r="BF6" s="82"/>
+      <c r="BG6" s="82"/>
+      <c r="BH6" s="82"/>
+      <c r="BI6" s="82"/>
+      <c r="BJ6" s="82"/>
+      <c r="BK6" s="82"/>
+      <c r="BL6" s="82"/>
+      <c r="BM6" s="82"/>
+      <c r="BN6" s="82"/>
+      <c r="BO6" s="82"/>
+      <c r="BP6" s="82"/>
+      <c r="BQ6" s="82"/>
+      <c r="BR6" s="82"/>
+      <c r="BS6" s="82"/>
+      <c r="BT6" s="84"/>
+      <c r="BU6" s="84"/>
+      <c r="BV6" s="84"/>
+      <c r="BW6" s="84"/>
+      <c r="BX6" s="84"/>
+      <c r="BY6" s="84"/>
+      <c r="BZ6" s="84"/>
+      <c r="CA6" s="84"/>
+      <c r="CB6" s="84"/>
+      <c r="CC6" s="84"/>
+      <c r="CD6" s="84"/>
+      <c r="CE6" s="84"/>
+      <c r="CF6" s="84"/>
+      <c r="CG6" s="84"/>
+      <c r="CH6" s="84"/>
+      <c r="CI6" s="84"/>
+      <c r="CJ6" s="84"/>
+      <c r="CK6" s="84"/>
+      <c r="CL6" s="84"/>
+      <c r="CM6" s="84"/>
+      <c r="CN6" s="84"/>
+      <c r="CO6" s="84"/>
+      <c r="CP6" s="84"/>
+      <c r="CQ6" s="84"/>
+      <c r="CR6" s="84"/>
+      <c r="CS6" s="84"/>
     </row>
-    <row r="7" spans="1:97" s="80" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="75" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="75" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="76"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="79"/>
-      <c r="S7" s="79"/>
-      <c r="T7" s="79"/>
-      <c r="U7" s="79"/>
-      <c r="V7" s="79"/>
-      <c r="W7" s="79"/>
-      <c r="X7" s="79"/>
-      <c r="Y7" s="79"/>
-      <c r="Z7" s="79"/>
-      <c r="AA7" s="79"/>
-      <c r="AB7" s="79"/>
-      <c r="AC7" s="79"/>
-      <c r="AD7" s="79"/>
-      <c r="AE7" s="79"/>
-      <c r="AF7" s="79"/>
-      <c r="AG7" s="79"/>
-      <c r="AH7" s="79"/>
-      <c r="AI7" s="79"/>
-      <c r="AJ7" s="79"/>
-      <c r="AK7" s="79"/>
-      <c r="AL7" s="79"/>
-      <c r="AM7" s="79"/>
-      <c r="AN7" s="79"/>
-      <c r="AO7" s="79"/>
-      <c r="AP7" s="79"/>
-      <c r="AQ7" s="79"/>
-      <c r="AR7" s="91"/>
+    <row r="7" spans="1:97" s="71" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="82"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="66"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="70"/>
+      <c r="AD7" s="70"/>
+      <c r="AE7" s="70"/>
+      <c r="AF7" s="70"/>
+      <c r="AG7" s="70"/>
+      <c r="AH7" s="70"/>
+      <c r="AI7" s="70"/>
+      <c r="AJ7" s="70"/>
+      <c r="AK7" s="70"/>
+      <c r="AL7" s="70"/>
+      <c r="AM7" s="70"/>
+      <c r="AN7" s="70"/>
+      <c r="AO7" s="70"/>
+      <c r="AP7" s="70"/>
+      <c r="AQ7" s="70"/>
+      <c r="AR7" s="82"/>
       <c r="AS7" s="8"/>
-      <c r="AT7" s="92"/>
+      <c r="AT7" s="83"/>
       <c r="AU7" s="48"/>
-      <c r="AV7" s="91"/>
-      <c r="AW7" s="91"/>
-      <c r="AX7" s="91"/>
-      <c r="AY7" s="91"/>
-      <c r="AZ7" s="91"/>
-      <c r="BA7" s="91"/>
-      <c r="BB7" s="91"/>
-      <c r="BC7" s="91"/>
-      <c r="BD7" s="91"/>
-      <c r="BE7" s="91"/>
-      <c r="BF7" s="91"/>
-      <c r="BG7" s="91"/>
-      <c r="BH7" s="91"/>
-      <c r="BI7" s="91"/>
-      <c r="BJ7" s="91"/>
-      <c r="BK7" s="91"/>
-      <c r="BL7" s="91"/>
-      <c r="BM7" s="91"/>
-      <c r="BN7" s="91"/>
-      <c r="BO7" s="91"/>
-      <c r="BP7" s="91"/>
-      <c r="BQ7" s="91"/>
-      <c r="BR7" s="91"/>
-      <c r="BS7" s="91"/>
-      <c r="BT7" s="93"/>
-      <c r="BU7" s="93"/>
-      <c r="BV7" s="93"/>
-      <c r="BW7" s="93"/>
-      <c r="BX7" s="93"/>
-      <c r="BY7" s="93"/>
-      <c r="BZ7" s="93"/>
-      <c r="CA7" s="93"/>
-      <c r="CB7" s="93"/>
-      <c r="CC7" s="93"/>
-      <c r="CD7" s="93"/>
-      <c r="CE7" s="93"/>
-      <c r="CF7" s="93"/>
-      <c r="CG7" s="93"/>
-      <c r="CH7" s="93"/>
-      <c r="CI7" s="93"/>
-      <c r="CJ7" s="93"/>
-      <c r="CK7" s="93"/>
-      <c r="CL7" s="93"/>
-      <c r="CM7" s="93"/>
-      <c r="CN7" s="93"/>
-      <c r="CO7" s="93"/>
-      <c r="CP7" s="93"/>
-      <c r="CQ7" s="93"/>
-      <c r="CR7" s="93"/>
-      <c r="CS7" s="93"/>
+      <c r="AV7" s="82"/>
+      <c r="AW7" s="82"/>
+      <c r="AX7" s="82"/>
+      <c r="AY7" s="82"/>
+      <c r="AZ7" s="82"/>
+      <c r="BA7" s="82"/>
+      <c r="BB7" s="82"/>
+      <c r="BC7" s="82"/>
+      <c r="BD7" s="82"/>
+      <c r="BE7" s="82"/>
+      <c r="BF7" s="82"/>
+      <c r="BG7" s="82"/>
+      <c r="BH7" s="82"/>
+      <c r="BI7" s="82"/>
+      <c r="BJ7" s="82"/>
+      <c r="BK7" s="82"/>
+      <c r="BL7" s="82"/>
+      <c r="BM7" s="82"/>
+      <c r="BN7" s="82"/>
+      <c r="BO7" s="82"/>
+      <c r="BP7" s="82"/>
+      <c r="BQ7" s="82"/>
+      <c r="BR7" s="82"/>
+      <c r="BS7" s="82"/>
+      <c r="BT7" s="84"/>
+      <c r="BU7" s="84"/>
+      <c r="BV7" s="84"/>
+      <c r="BW7" s="84"/>
+      <c r="BX7" s="84"/>
+      <c r="BY7" s="84"/>
+      <c r="BZ7" s="84"/>
+      <c r="CA7" s="84"/>
+      <c r="CB7" s="84"/>
+      <c r="CC7" s="84"/>
+      <c r="CD7" s="84"/>
+      <c r="CE7" s="84"/>
+      <c r="CF7" s="84"/>
+      <c r="CG7" s="84"/>
+      <c r="CH7" s="84"/>
+      <c r="CI7" s="84"/>
+      <c r="CJ7" s="84"/>
+      <c r="CK7" s="84"/>
+      <c r="CL7" s="84"/>
+      <c r="CM7" s="84"/>
+      <c r="CN7" s="84"/>
+      <c r="CO7" s="84"/>
+      <c r="CP7" s="84"/>
+      <c r="CQ7" s="84"/>
+      <c r="CR7" s="84"/>
+      <c r="CS7" s="84"/>
     </row>
     <row r="8" spans="1:97" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C8" s="27" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E8" s="25">
         <v>1</v>
@@ -1821,63 +1822,63 @@
         <f>AT8*$D$37</f>
         <v>0</v>
       </c>
-      <c r="AV8" s="91"/>
-      <c r="AW8" s="91"/>
-      <c r="AX8" s="91"/>
-      <c r="AY8" s="91"/>
-      <c r="AZ8" s="91"/>
-      <c r="BA8" s="91"/>
-      <c r="BB8" s="91"/>
-      <c r="BC8" s="91"/>
-      <c r="BD8" s="91"/>
-      <c r="BE8" s="91"/>
-      <c r="BF8" s="91"/>
-      <c r="BG8" s="91"/>
-      <c r="BH8" s="91"/>
-      <c r="BI8" s="91"/>
-      <c r="BJ8" s="91"/>
-      <c r="BK8" s="91"/>
-      <c r="BL8" s="91"/>
-      <c r="BM8" s="91"/>
-      <c r="BN8" s="91"/>
-      <c r="BO8" s="91"/>
-      <c r="BP8" s="91"/>
-      <c r="BQ8" s="91"/>
-      <c r="BR8" s="91"/>
-      <c r="BS8" s="91"/>
-      <c r="BT8" s="93"/>
-      <c r="BU8" s="93"/>
-      <c r="BV8" s="93"/>
-      <c r="BW8" s="93"/>
-      <c r="BX8" s="93"/>
-      <c r="BY8" s="93"/>
-      <c r="BZ8" s="93"/>
-      <c r="CA8" s="93"/>
-      <c r="CB8" s="93"/>
-      <c r="CC8" s="93"/>
-      <c r="CD8" s="93"/>
-      <c r="CE8" s="93"/>
-      <c r="CF8" s="93"/>
-      <c r="CG8" s="93"/>
-      <c r="CH8" s="93"/>
-      <c r="CI8" s="93"/>
-      <c r="CJ8" s="93"/>
-      <c r="CK8" s="93"/>
-      <c r="CL8" s="93"/>
-      <c r="CM8" s="93"/>
-      <c r="CN8" s="93"/>
-      <c r="CO8" s="93"/>
-      <c r="CP8" s="93"/>
-      <c r="CQ8" s="93"/>
-      <c r="CR8" s="93"/>
-      <c r="CS8" s="93"/>
+      <c r="AV8" s="82"/>
+      <c r="AW8" s="82"/>
+      <c r="AX8" s="82"/>
+      <c r="AY8" s="82"/>
+      <c r="AZ8" s="82"/>
+      <c r="BA8" s="82"/>
+      <c r="BB8" s="82"/>
+      <c r="BC8" s="82"/>
+      <c r="BD8" s="82"/>
+      <c r="BE8" s="82"/>
+      <c r="BF8" s="82"/>
+      <c r="BG8" s="82"/>
+      <c r="BH8" s="82"/>
+      <c r="BI8" s="82"/>
+      <c r="BJ8" s="82"/>
+      <c r="BK8" s="82"/>
+      <c r="BL8" s="82"/>
+      <c r="BM8" s="82"/>
+      <c r="BN8" s="82"/>
+      <c r="BO8" s="82"/>
+      <c r="BP8" s="82"/>
+      <c r="BQ8" s="82"/>
+      <c r="BR8" s="82"/>
+      <c r="BS8" s="82"/>
+      <c r="BT8" s="84"/>
+      <c r="BU8" s="84"/>
+      <c r="BV8" s="84"/>
+      <c r="BW8" s="84"/>
+      <c r="BX8" s="84"/>
+      <c r="BY8" s="84"/>
+      <c r="BZ8" s="84"/>
+      <c r="CA8" s="84"/>
+      <c r="CB8" s="84"/>
+      <c r="CC8" s="84"/>
+      <c r="CD8" s="84"/>
+      <c r="CE8" s="84"/>
+      <c r="CF8" s="84"/>
+      <c r="CG8" s="84"/>
+      <c r="CH8" s="84"/>
+      <c r="CI8" s="84"/>
+      <c r="CJ8" s="84"/>
+      <c r="CK8" s="84"/>
+      <c r="CL8" s="84"/>
+      <c r="CM8" s="84"/>
+      <c r="CN8" s="84"/>
+      <c r="CO8" s="84"/>
+      <c r="CP8" s="84"/>
+      <c r="CQ8" s="84"/>
+      <c r="CR8" s="84"/>
+      <c r="CS8" s="84"/>
     </row>
     <row r="9" spans="1:97" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C9" s="27" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E9" s="25">
         <v>1</v>
@@ -1939,64 +1940,60 @@
         <f t="shared" ref="AU9:AU26" si="3">AT9*$D$37</f>
         <v>0</v>
       </c>
-      <c r="AV9" s="91"/>
-      <c r="AW9" s="91"/>
-      <c r="AX9" s="91"/>
-      <c r="AY9" s="91"/>
-      <c r="AZ9" s="91"/>
-      <c r="BA9" s="91"/>
-      <c r="BB9" s="91"/>
-      <c r="BC9" s="91"/>
-      <c r="BD9" s="91"/>
-      <c r="BE9" s="91"/>
-      <c r="BF9" s="91"/>
-      <c r="BG9" s="91"/>
-      <c r="BH9" s="91"/>
-      <c r="BI9" s="91"/>
-      <c r="BJ9" s="91"/>
-      <c r="BK9" s="91"/>
-      <c r="BL9" s="91"/>
-      <c r="BM9" s="91"/>
-      <c r="BN9" s="91"/>
-      <c r="BO9" s="91"/>
-      <c r="BP9" s="91"/>
-      <c r="BQ9" s="91"/>
-      <c r="BR9" s="91"/>
-      <c r="BS9" s="91"/>
-      <c r="BT9" s="93"/>
-      <c r="BU9" s="93"/>
-      <c r="BV9" s="93"/>
-      <c r="BW9" s="93"/>
-      <c r="BX9" s="93"/>
-      <c r="BY9" s="93"/>
-      <c r="BZ9" s="93"/>
-      <c r="CA9" s="93"/>
-      <c r="CB9" s="93"/>
-      <c r="CC9" s="93"/>
-      <c r="CD9" s="93"/>
-      <c r="CE9" s="93"/>
-      <c r="CF9" s="93"/>
-      <c r="CG9" s="93"/>
-      <c r="CH9" s="93"/>
-      <c r="CI9" s="93"/>
-      <c r="CJ9" s="93"/>
-      <c r="CK9" s="93"/>
-      <c r="CL9" s="93"/>
-      <c r="CM9" s="93"/>
-      <c r="CN9" s="93"/>
-      <c r="CO9" s="93"/>
-      <c r="CP9" s="93"/>
-      <c r="CQ9" s="93"/>
-      <c r="CR9" s="93"/>
-      <c r="CS9" s="93"/>
+      <c r="AV9" s="82"/>
+      <c r="AW9" s="82"/>
+      <c r="AX9" s="82"/>
+      <c r="AY9" s="82"/>
+      <c r="AZ9" s="82"/>
+      <c r="BA9" s="82"/>
+      <c r="BB9" s="82"/>
+      <c r="BC9" s="82"/>
+      <c r="BD9" s="82"/>
+      <c r="BE9" s="82"/>
+      <c r="BF9" s="82"/>
+      <c r="BG9" s="82"/>
+      <c r="BH9" s="82"/>
+      <c r="BI9" s="82"/>
+      <c r="BJ9" s="82"/>
+      <c r="BK9" s="82"/>
+      <c r="BL9" s="82"/>
+      <c r="BM9" s="82"/>
+      <c r="BN9" s="82"/>
+      <c r="BO9" s="82"/>
+      <c r="BP9" s="82"/>
+      <c r="BQ9" s="82"/>
+      <c r="BR9" s="82"/>
+      <c r="BS9" s="82"/>
+      <c r="BT9" s="84"/>
+      <c r="BU9" s="84"/>
+      <c r="BV9" s="84"/>
+      <c r="BW9" s="84"/>
+      <c r="BX9" s="84"/>
+      <c r="BY9" s="84"/>
+      <c r="BZ9" s="84"/>
+      <c r="CA9" s="84"/>
+      <c r="CB9" s="84"/>
+      <c r="CC9" s="84"/>
+      <c r="CD9" s="84"/>
+      <c r="CE9" s="84"/>
+      <c r="CF9" s="84"/>
+      <c r="CG9" s="84"/>
+      <c r="CH9" s="84"/>
+      <c r="CI9" s="84"/>
+      <c r="CJ9" s="84"/>
+      <c r="CK9" s="84"/>
+      <c r="CL9" s="84"/>
+      <c r="CM9" s="84"/>
+      <c r="CN9" s="84"/>
+      <c r="CO9" s="84"/>
+      <c r="CP9" s="84"/>
+      <c r="CQ9" s="84"/>
+      <c r="CR9" s="84"/>
+      <c r="CS9" s="84"/>
     </row>
     <row r="10" spans="1:97" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>17</v>
-      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="25">
         <v>0</v>
       </c>
@@ -2057,62 +2054,60 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AV10" s="91"/>
-      <c r="AW10" s="91"/>
-      <c r="AX10" s="91"/>
-      <c r="AY10" s="91"/>
-      <c r="AZ10" s="91"/>
-      <c r="BA10" s="91"/>
-      <c r="BB10" s="91"/>
-      <c r="BC10" s="91"/>
-      <c r="BD10" s="91"/>
-      <c r="BE10" s="91"/>
-      <c r="BF10" s="91"/>
-      <c r="BG10" s="91"/>
-      <c r="BH10" s="91"/>
-      <c r="BI10" s="91"/>
-      <c r="BJ10" s="91"/>
-      <c r="BK10" s="91"/>
-      <c r="BL10" s="91"/>
-      <c r="BM10" s="91"/>
-      <c r="BN10" s="91"/>
-      <c r="BO10" s="91"/>
-      <c r="BP10" s="91"/>
-      <c r="BQ10" s="91"/>
-      <c r="BR10" s="91"/>
-      <c r="BS10" s="91"/>
-      <c r="BT10" s="93"/>
-      <c r="BU10" s="93"/>
-      <c r="BV10" s="93"/>
-      <c r="BW10" s="93"/>
-      <c r="BX10" s="93"/>
-      <c r="BY10" s="93"/>
-      <c r="BZ10" s="93"/>
-      <c r="CA10" s="93"/>
-      <c r="CB10" s="93"/>
-      <c r="CC10" s="93"/>
-      <c r="CD10" s="93"/>
-      <c r="CE10" s="93"/>
-      <c r="CF10" s="93"/>
-      <c r="CG10" s="93"/>
-      <c r="CH10" s="93"/>
-      <c r="CI10" s="93"/>
-      <c r="CJ10" s="93"/>
-      <c r="CK10" s="93"/>
-      <c r="CL10" s="93"/>
-      <c r="CM10" s="93"/>
-      <c r="CN10" s="93"/>
-      <c r="CO10" s="93"/>
-      <c r="CP10" s="93"/>
-      <c r="CQ10" s="93"/>
-      <c r="CR10" s="93"/>
-      <c r="CS10" s="93"/>
+      <c r="AV10" s="82"/>
+      <c r="AW10" s="82"/>
+      <c r="AX10" s="82"/>
+      <c r="AY10" s="82"/>
+      <c r="AZ10" s="82"/>
+      <c r="BA10" s="82"/>
+      <c r="BB10" s="82"/>
+      <c r="BC10" s="82"/>
+      <c r="BD10" s="82"/>
+      <c r="BE10" s="82"/>
+      <c r="BF10" s="82"/>
+      <c r="BG10" s="82"/>
+      <c r="BH10" s="82"/>
+      <c r="BI10" s="82"/>
+      <c r="BJ10" s="82"/>
+      <c r="BK10" s="82"/>
+      <c r="BL10" s="82"/>
+      <c r="BM10" s="82"/>
+      <c r="BN10" s="82"/>
+      <c r="BO10" s="82"/>
+      <c r="BP10" s="82"/>
+      <c r="BQ10" s="82"/>
+      <c r="BR10" s="82"/>
+      <c r="BS10" s="82"/>
+      <c r="BT10" s="84"/>
+      <c r="BU10" s="84"/>
+      <c r="BV10" s="84"/>
+      <c r="BW10" s="84"/>
+      <c r="BX10" s="84"/>
+      <c r="BY10" s="84"/>
+      <c r="BZ10" s="84"/>
+      <c r="CA10" s="84"/>
+      <c r="CB10" s="84"/>
+      <c r="CC10" s="84"/>
+      <c r="CD10" s="84"/>
+      <c r="CE10" s="84"/>
+      <c r="CF10" s="84"/>
+      <c r="CG10" s="84"/>
+      <c r="CH10" s="84"/>
+      <c r="CI10" s="84"/>
+      <c r="CJ10" s="84"/>
+      <c r="CK10" s="84"/>
+      <c r="CL10" s="84"/>
+      <c r="CM10" s="84"/>
+      <c r="CN10" s="84"/>
+      <c r="CO10" s="84"/>
+      <c r="CP10" s="84"/>
+      <c r="CQ10" s="84"/>
+      <c r="CR10" s="84"/>
+      <c r="CS10" s="84"/>
     </row>
     <row r="11" spans="1:97" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C11" s="27"/>
-      <c r="D11" s="27" t="s">
-        <v>21</v>
-      </c>
+      <c r="D11" s="27"/>
       <c r="E11" s="25">
         <v>0</v>
       </c>
@@ -2169,114 +2164,112 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AV11" s="91"/>
-      <c r="AW11" s="91"/>
-      <c r="AX11" s="91"/>
-      <c r="AY11" s="91"/>
-      <c r="AZ11" s="91"/>
-      <c r="BA11" s="91"/>
-      <c r="BB11" s="91"/>
-      <c r="BC11" s="91"/>
-      <c r="BD11" s="91"/>
-      <c r="BE11" s="91"/>
-      <c r="BF11" s="91"/>
-      <c r="BG11" s="91"/>
-      <c r="BH11" s="91"/>
-      <c r="BI11" s="91"/>
-      <c r="BJ11" s="91"/>
-      <c r="BK11" s="91"/>
-      <c r="BL11" s="91"/>
-      <c r="BM11" s="91"/>
-      <c r="BN11" s="91"/>
-      <c r="BO11" s="91"/>
-      <c r="BP11" s="91"/>
-      <c r="BQ11" s="91"/>
-      <c r="BR11" s="91"/>
-      <c r="BS11" s="91"/>
-      <c r="BT11" s="93"/>
-      <c r="BU11" s="93"/>
-      <c r="BV11" s="93"/>
-      <c r="BW11" s="93"/>
-      <c r="BX11" s="93"/>
-      <c r="BY11" s="93"/>
-      <c r="BZ11" s="93"/>
-      <c r="CA11" s="93"/>
-      <c r="CB11" s="93"/>
-      <c r="CC11" s="93"/>
-      <c r="CD11" s="93"/>
-      <c r="CE11" s="93"/>
-      <c r="CF11" s="93"/>
-      <c r="CG11" s="93"/>
-      <c r="CH11" s="93"/>
-      <c r="CI11" s="93"/>
-      <c r="CJ11" s="93"/>
-      <c r="CK11" s="93"/>
-      <c r="CL11" s="93"/>
-      <c r="CM11" s="93"/>
-      <c r="CN11" s="93"/>
-      <c r="CO11" s="93"/>
-      <c r="CP11" s="93"/>
-      <c r="CQ11" s="93"/>
-      <c r="CR11" s="93"/>
-      <c r="CS11" s="93"/>
+      <c r="AV11" s="82"/>
+      <c r="AW11" s="82"/>
+      <c r="AX11" s="82"/>
+      <c r="AY11" s="82"/>
+      <c r="AZ11" s="82"/>
+      <c r="BA11" s="82"/>
+      <c r="BB11" s="82"/>
+      <c r="BC11" s="82"/>
+      <c r="BD11" s="82"/>
+      <c r="BE11" s="82"/>
+      <c r="BF11" s="82"/>
+      <c r="BG11" s="82"/>
+      <c r="BH11" s="82"/>
+      <c r="BI11" s="82"/>
+      <c r="BJ11" s="82"/>
+      <c r="BK11" s="82"/>
+      <c r="BL11" s="82"/>
+      <c r="BM11" s="82"/>
+      <c r="BN11" s="82"/>
+      <c r="BO11" s="82"/>
+      <c r="BP11" s="82"/>
+      <c r="BQ11" s="82"/>
+      <c r="BR11" s="82"/>
+      <c r="BS11" s="82"/>
+      <c r="BT11" s="84"/>
+      <c r="BU11" s="84"/>
+      <c r="BV11" s="84"/>
+      <c r="BW11" s="84"/>
+      <c r="BX11" s="84"/>
+      <c r="BY11" s="84"/>
+      <c r="BZ11" s="84"/>
+      <c r="CA11" s="84"/>
+      <c r="CB11" s="84"/>
+      <c r="CC11" s="84"/>
+      <c r="CD11" s="84"/>
+      <c r="CE11" s="84"/>
+      <c r="CF11" s="84"/>
+      <c r="CG11" s="84"/>
+      <c r="CH11" s="84"/>
+      <c r="CI11" s="84"/>
+      <c r="CJ11" s="84"/>
+      <c r="CK11" s="84"/>
+      <c r="CL11" s="84"/>
+      <c r="CM11" s="84"/>
+      <c r="CN11" s="84"/>
+      <c r="CO11" s="84"/>
+      <c r="CP11" s="84"/>
+      <c r="CQ11" s="84"/>
+      <c r="CR11" s="84"/>
+      <c r="CS11" s="84"/>
     </row>
-    <row r="12" spans="1:97" s="69" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="91"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="68" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="70"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="73">
+    <row r="12" spans="1:97" s="60" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="82"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="72"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="73"/>
-      <c r="V12" s="73"/>
-      <c r="W12" s="73"/>
-      <c r="X12" s="73"/>
-      <c r="Y12" s="73"/>
-      <c r="Z12" s="73"/>
-      <c r="AA12" s="73"/>
-      <c r="AB12" s="73"/>
-      <c r="AC12" s="73"/>
-      <c r="AD12" s="73"/>
-      <c r="AE12" s="73"/>
-      <c r="AF12" s="73"/>
-      <c r="AG12" s="73"/>
-      <c r="AH12" s="73"/>
-      <c r="AI12" s="73"/>
-      <c r="AJ12" s="73"/>
-      <c r="AK12" s="73"/>
-      <c r="AL12" s="73"/>
-      <c r="AM12" s="73"/>
-      <c r="AN12" s="73"/>
-      <c r="AO12" s="73"/>
-      <c r="AP12" s="73"/>
-      <c r="AQ12" s="74"/>
-      <c r="AR12" s="91"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="64"/>
+      <c r="Y12" s="64"/>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="64"/>
+      <c r="AB12" s="64"/>
+      <c r="AC12" s="64"/>
+      <c r="AD12" s="64"/>
+      <c r="AE12" s="64"/>
+      <c r="AF12" s="64"/>
+      <c r="AG12" s="64"/>
+      <c r="AH12" s="64"/>
+      <c r="AI12" s="64"/>
+      <c r="AJ12" s="64"/>
+      <c r="AK12" s="64"/>
+      <c r="AL12" s="64"/>
+      <c r="AM12" s="64"/>
+      <c r="AN12" s="64"/>
+      <c r="AO12" s="64"/>
+      <c r="AP12" s="64"/>
+      <c r="AQ12" s="65"/>
+      <c r="AR12" s="82"/>
       <c r="AS12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AT12" s="92">
+      <c r="AT12" s="83">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2284,63 +2277,63 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AV12" s="91"/>
-      <c r="AW12" s="91"/>
-      <c r="AX12" s="91"/>
-      <c r="AY12" s="91"/>
-      <c r="AZ12" s="91"/>
-      <c r="BA12" s="91"/>
-      <c r="BB12" s="91"/>
-      <c r="BC12" s="91"/>
-      <c r="BD12" s="91"/>
-      <c r="BE12" s="91"/>
-      <c r="BF12" s="91"/>
-      <c r="BG12" s="91"/>
-      <c r="BH12" s="91"/>
-      <c r="BI12" s="91"/>
-      <c r="BJ12" s="91"/>
-      <c r="BK12" s="91"/>
-      <c r="BL12" s="91"/>
-      <c r="BM12" s="91"/>
-      <c r="BN12" s="91"/>
-      <c r="BO12" s="91"/>
-      <c r="BP12" s="91"/>
-      <c r="BQ12" s="91"/>
-      <c r="BR12" s="91"/>
-      <c r="BS12" s="91"/>
-      <c r="BT12" s="93"/>
-      <c r="BU12" s="93"/>
-      <c r="BV12" s="93"/>
-      <c r="BW12" s="93"/>
-      <c r="BX12" s="93"/>
-      <c r="BY12" s="93"/>
-      <c r="BZ12" s="93"/>
-      <c r="CA12" s="93"/>
-      <c r="CB12" s="93"/>
-      <c r="CC12" s="93"/>
-      <c r="CD12" s="93"/>
-      <c r="CE12" s="93"/>
-      <c r="CF12" s="93"/>
-      <c r="CG12" s="93"/>
-      <c r="CH12" s="93"/>
-      <c r="CI12" s="93"/>
-      <c r="CJ12" s="93"/>
-      <c r="CK12" s="93"/>
-      <c r="CL12" s="93"/>
-      <c r="CM12" s="93"/>
-      <c r="CN12" s="93"/>
-      <c r="CO12" s="93"/>
-      <c r="CP12" s="93"/>
-      <c r="CQ12" s="93"/>
-      <c r="CR12" s="93"/>
-      <c r="CS12" s="93"/>
+      <c r="AV12" s="82"/>
+      <c r="AW12" s="82"/>
+      <c r="AX12" s="82"/>
+      <c r="AY12" s="82"/>
+      <c r="AZ12" s="82"/>
+      <c r="BA12" s="82"/>
+      <c r="BB12" s="82"/>
+      <c r="BC12" s="82"/>
+      <c r="BD12" s="82"/>
+      <c r="BE12" s="82"/>
+      <c r="BF12" s="82"/>
+      <c r="BG12" s="82"/>
+      <c r="BH12" s="82"/>
+      <c r="BI12" s="82"/>
+      <c r="BJ12" s="82"/>
+      <c r="BK12" s="82"/>
+      <c r="BL12" s="82"/>
+      <c r="BM12" s="82"/>
+      <c r="BN12" s="82"/>
+      <c r="BO12" s="82"/>
+      <c r="BP12" s="82"/>
+      <c r="BQ12" s="82"/>
+      <c r="BR12" s="82"/>
+      <c r="BS12" s="82"/>
+      <c r="BT12" s="84"/>
+      <c r="BU12" s="84"/>
+      <c r="BV12" s="84"/>
+      <c r="BW12" s="84"/>
+      <c r="BX12" s="84"/>
+      <c r="BY12" s="84"/>
+      <c r="BZ12" s="84"/>
+      <c r="CA12" s="84"/>
+      <c r="CB12" s="84"/>
+      <c r="CC12" s="84"/>
+      <c r="CD12" s="84"/>
+      <c r="CE12" s="84"/>
+      <c r="CF12" s="84"/>
+      <c r="CG12" s="84"/>
+      <c r="CH12" s="84"/>
+      <c r="CI12" s="84"/>
+      <c r="CJ12" s="84"/>
+      <c r="CK12" s="84"/>
+      <c r="CL12" s="84"/>
+      <c r="CM12" s="84"/>
+      <c r="CN12" s="84"/>
+      <c r="CO12" s="84"/>
+      <c r="CP12" s="84"/>
+      <c r="CQ12" s="84"/>
+      <c r="CR12" s="84"/>
+      <c r="CS12" s="84"/>
     </row>
     <row r="13" spans="1:97" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C13" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="27" t="s">
         <v>41</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>15</v>
       </c>
       <c r="E13" s="25">
         <v>0.3</v>
@@ -2402,63 +2395,63 @@
         <f t="shared" si="3"/>
         <v>1080</v>
       </c>
-      <c r="AV13" s="91"/>
-      <c r="AW13" s="91"/>
-      <c r="AX13" s="91"/>
-      <c r="AY13" s="91"/>
-      <c r="AZ13" s="91"/>
-      <c r="BA13" s="91"/>
-      <c r="BB13" s="91"/>
-      <c r="BC13" s="91"/>
-      <c r="BD13" s="91"/>
-      <c r="BE13" s="91"/>
-      <c r="BF13" s="91"/>
-      <c r="BG13" s="91"/>
-      <c r="BH13" s="91"/>
-      <c r="BI13" s="91"/>
-      <c r="BJ13" s="91"/>
-      <c r="BK13" s="91"/>
-      <c r="BL13" s="91"/>
-      <c r="BM13" s="91"/>
-      <c r="BN13" s="91"/>
-      <c r="BO13" s="91"/>
-      <c r="BP13" s="91"/>
-      <c r="BQ13" s="91"/>
-      <c r="BR13" s="91"/>
-      <c r="BS13" s="91"/>
-      <c r="BT13" s="93"/>
-      <c r="BU13" s="93"/>
-      <c r="BV13" s="93"/>
-      <c r="BW13" s="93"/>
-      <c r="BX13" s="93"/>
-      <c r="BY13" s="93"/>
-      <c r="BZ13" s="93"/>
-      <c r="CA13" s="93"/>
-      <c r="CB13" s="93"/>
-      <c r="CC13" s="93"/>
-      <c r="CD13" s="93"/>
-      <c r="CE13" s="93"/>
-      <c r="CF13" s="93"/>
-      <c r="CG13" s="93"/>
-      <c r="CH13" s="93"/>
-      <c r="CI13" s="93"/>
-      <c r="CJ13" s="93"/>
-      <c r="CK13" s="93"/>
-      <c r="CL13" s="93"/>
-      <c r="CM13" s="93"/>
-      <c r="CN13" s="93"/>
-      <c r="CO13" s="93"/>
-      <c r="CP13" s="93"/>
-      <c r="CQ13" s="93"/>
-      <c r="CR13" s="93"/>
-      <c r="CS13" s="93"/>
+      <c r="AV13" s="82"/>
+      <c r="AW13" s="82"/>
+      <c r="AX13" s="82"/>
+      <c r="AY13" s="82"/>
+      <c r="AZ13" s="82"/>
+      <c r="BA13" s="82"/>
+      <c r="BB13" s="82"/>
+      <c r="BC13" s="82"/>
+      <c r="BD13" s="82"/>
+      <c r="BE13" s="82"/>
+      <c r="BF13" s="82"/>
+      <c r="BG13" s="82"/>
+      <c r="BH13" s="82"/>
+      <c r="BI13" s="82"/>
+      <c r="BJ13" s="82"/>
+      <c r="BK13" s="82"/>
+      <c r="BL13" s="82"/>
+      <c r="BM13" s="82"/>
+      <c r="BN13" s="82"/>
+      <c r="BO13" s="82"/>
+      <c r="BP13" s="82"/>
+      <c r="BQ13" s="82"/>
+      <c r="BR13" s="82"/>
+      <c r="BS13" s="82"/>
+      <c r="BT13" s="84"/>
+      <c r="BU13" s="84"/>
+      <c r="BV13" s="84"/>
+      <c r="BW13" s="84"/>
+      <c r="BX13" s="84"/>
+      <c r="BY13" s="84"/>
+      <c r="BZ13" s="84"/>
+      <c r="CA13" s="84"/>
+      <c r="CB13" s="84"/>
+      <c r="CC13" s="84"/>
+      <c r="CD13" s="84"/>
+      <c r="CE13" s="84"/>
+      <c r="CF13" s="84"/>
+      <c r="CG13" s="84"/>
+      <c r="CH13" s="84"/>
+      <c r="CI13" s="84"/>
+      <c r="CJ13" s="84"/>
+      <c r="CK13" s="84"/>
+      <c r="CL13" s="84"/>
+      <c r="CM13" s="84"/>
+      <c r="CN13" s="84"/>
+      <c r="CO13" s="84"/>
+      <c r="CP13" s="84"/>
+      <c r="CQ13" s="84"/>
+      <c r="CR13" s="84"/>
+      <c r="CS13" s="84"/>
     </row>
     <row r="14" spans="1:97" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C14" s="27" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E14" s="25">
         <v>0.3</v>
@@ -2466,7 +2459,7 @@
       <c r="F14" s="26">
         <v>45978</v>
       </c>
-      <c r="G14" s="60">
+      <c r="G14" s="26">
         <v>46135</v>
       </c>
       <c r="H14" s="23"/>
@@ -2520,65 +2513,65 @@
         <f t="shared" si="3"/>
         <v>990</v>
       </c>
-      <c r="AV14" s="91" t="s">
-        <v>31</v>
-      </c>
-      <c r="AW14" s="91"/>
-      <c r="AX14" s="91"/>
-      <c r="AY14" s="91"/>
-      <c r="AZ14" s="91"/>
-      <c r="BA14" s="91"/>
-      <c r="BB14" s="91"/>
-      <c r="BC14" s="91"/>
-      <c r="BD14" s="91"/>
-      <c r="BE14" s="91"/>
-      <c r="BF14" s="91"/>
-      <c r="BG14" s="91"/>
-      <c r="BH14" s="91"/>
-      <c r="BI14" s="91"/>
-      <c r="BJ14" s="91"/>
-      <c r="BK14" s="91"/>
-      <c r="BL14" s="91"/>
-      <c r="BM14" s="91"/>
-      <c r="BN14" s="91"/>
-      <c r="BO14" s="91"/>
-      <c r="BP14" s="91"/>
-      <c r="BQ14" s="91"/>
-      <c r="BR14" s="91"/>
-      <c r="BS14" s="91"/>
-      <c r="BT14" s="93"/>
-      <c r="BU14" s="93"/>
-      <c r="BV14" s="93"/>
-      <c r="BW14" s="93"/>
-      <c r="BX14" s="93"/>
-      <c r="BY14" s="93"/>
-      <c r="BZ14" s="93"/>
-      <c r="CA14" s="93"/>
-      <c r="CB14" s="93"/>
-      <c r="CC14" s="93"/>
-      <c r="CD14" s="93"/>
-      <c r="CE14" s="93"/>
-      <c r="CF14" s="93"/>
-      <c r="CG14" s="93"/>
-      <c r="CH14" s="93"/>
-      <c r="CI14" s="93"/>
-      <c r="CJ14" s="93"/>
-      <c r="CK14" s="93"/>
-      <c r="CL14" s="93"/>
-      <c r="CM14" s="93"/>
-      <c r="CN14" s="93"/>
-      <c r="CO14" s="93"/>
-      <c r="CP14" s="93"/>
-      <c r="CQ14" s="93"/>
-      <c r="CR14" s="93"/>
-      <c r="CS14" s="93"/>
+      <c r="AV14" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="AW14" s="82"/>
+      <c r="AX14" s="82"/>
+      <c r="AY14" s="82"/>
+      <c r="AZ14" s="82"/>
+      <c r="BA14" s="82"/>
+      <c r="BB14" s="82"/>
+      <c r="BC14" s="82"/>
+      <c r="BD14" s="82"/>
+      <c r="BE14" s="82"/>
+      <c r="BF14" s="82"/>
+      <c r="BG14" s="82"/>
+      <c r="BH14" s="82"/>
+      <c r="BI14" s="82"/>
+      <c r="BJ14" s="82"/>
+      <c r="BK14" s="82"/>
+      <c r="BL14" s="82"/>
+      <c r="BM14" s="82"/>
+      <c r="BN14" s="82"/>
+      <c r="BO14" s="82"/>
+      <c r="BP14" s="82"/>
+      <c r="BQ14" s="82"/>
+      <c r="BR14" s="82"/>
+      <c r="BS14" s="82"/>
+      <c r="BT14" s="84"/>
+      <c r="BU14" s="84"/>
+      <c r="BV14" s="84"/>
+      <c r="BW14" s="84"/>
+      <c r="BX14" s="84"/>
+      <c r="BY14" s="84"/>
+      <c r="BZ14" s="84"/>
+      <c r="CA14" s="84"/>
+      <c r="CB14" s="84"/>
+      <c r="CC14" s="84"/>
+      <c r="CD14" s="84"/>
+      <c r="CE14" s="84"/>
+      <c r="CF14" s="84"/>
+      <c r="CG14" s="84"/>
+      <c r="CH14" s="84"/>
+      <c r="CI14" s="84"/>
+      <c r="CJ14" s="84"/>
+      <c r="CK14" s="84"/>
+      <c r="CL14" s="84"/>
+      <c r="CM14" s="84"/>
+      <c r="CN14" s="84"/>
+      <c r="CO14" s="84"/>
+      <c r="CP14" s="84"/>
+      <c r="CQ14" s="84"/>
+      <c r="CR14" s="84"/>
+      <c r="CS14" s="84"/>
     </row>
     <row r="15" spans="1:97" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C15" s="27" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="E15" s="25">
         <v>0</v>
@@ -2640,64 +2633,62 @@
         <f t="shared" si="3"/>
         <v>-1440</v>
       </c>
-      <c r="AV15" s="91"/>
-      <c r="AW15" s="91"/>
-      <c r="AX15" s="91"/>
-      <c r="AY15" s="91"/>
-      <c r="AZ15" s="91"/>
-      <c r="BA15" s="91"/>
-      <c r="BB15" s="91"/>
-      <c r="BC15" s="91"/>
-      <c r="BD15" s="91"/>
-      <c r="BE15" s="91"/>
-      <c r="BF15" s="91"/>
-      <c r="BG15" s="91"/>
-      <c r="BH15" s="91"/>
-      <c r="BI15" s="91"/>
-      <c r="BJ15" s="91"/>
-      <c r="BK15" s="91"/>
-      <c r="BL15" s="91"/>
-      <c r="BM15" s="91"/>
-      <c r="BN15" s="91"/>
-      <c r="BO15" s="91"/>
-      <c r="BP15" s="91"/>
-      <c r="BQ15" s="91"/>
-      <c r="BR15" s="91"/>
-      <c r="BS15" s="91"/>
-      <c r="BT15" s="93"/>
-      <c r="BU15" s="93"/>
-      <c r="BV15" s="93"/>
-      <c r="BW15" s="93"/>
-      <c r="BX15" s="93"/>
-      <c r="BY15" s="93"/>
-      <c r="BZ15" s="93"/>
-      <c r="CA15" s="93"/>
-      <c r="CB15" s="93"/>
-      <c r="CC15" s="93"/>
-      <c r="CD15" s="93"/>
-      <c r="CE15" s="93"/>
-      <c r="CF15" s="93"/>
-      <c r="CG15" s="93"/>
-      <c r="CH15" s="93"/>
-      <c r="CI15" s="93"/>
-      <c r="CJ15" s="93"/>
-      <c r="CK15" s="93"/>
-      <c r="CL15" s="93"/>
-      <c r="CM15" s="93"/>
-      <c r="CN15" s="93"/>
-      <c r="CO15" s="93"/>
-      <c r="CP15" s="93"/>
-      <c r="CQ15" s="93"/>
-      <c r="CR15" s="93"/>
-      <c r="CS15" s="93"/>
+      <c r="AV15" s="82"/>
+      <c r="AW15" s="82"/>
+      <c r="AX15" s="82"/>
+      <c r="AY15" s="82"/>
+      <c r="AZ15" s="82"/>
+      <c r="BA15" s="82"/>
+      <c r="BB15" s="82"/>
+      <c r="BC15" s="82"/>
+      <c r="BD15" s="82"/>
+      <c r="BE15" s="82"/>
+      <c r="BF15" s="82"/>
+      <c r="BG15" s="82"/>
+      <c r="BH15" s="82"/>
+      <c r="BI15" s="82"/>
+      <c r="BJ15" s="82"/>
+      <c r="BK15" s="82"/>
+      <c r="BL15" s="82"/>
+      <c r="BM15" s="82"/>
+      <c r="BN15" s="82"/>
+      <c r="BO15" s="82"/>
+      <c r="BP15" s="82"/>
+      <c r="BQ15" s="82"/>
+      <c r="BR15" s="82"/>
+      <c r="BS15" s="82"/>
+      <c r="BT15" s="84"/>
+      <c r="BU15" s="84"/>
+      <c r="BV15" s="84"/>
+      <c r="BW15" s="84"/>
+      <c r="BX15" s="84"/>
+      <c r="BY15" s="84"/>
+      <c r="BZ15" s="84"/>
+      <c r="CA15" s="84"/>
+      <c r="CB15" s="84"/>
+      <c r="CC15" s="84"/>
+      <c r="CD15" s="84"/>
+      <c r="CE15" s="84"/>
+      <c r="CF15" s="84"/>
+      <c r="CG15" s="84"/>
+      <c r="CH15" s="84"/>
+      <c r="CI15" s="84"/>
+      <c r="CJ15" s="84"/>
+      <c r="CK15" s="84"/>
+      <c r="CL15" s="84"/>
+      <c r="CM15" s="84"/>
+      <c r="CN15" s="84"/>
+      <c r="CO15" s="84"/>
+      <c r="CP15" s="84"/>
+      <c r="CQ15" s="84"/>
+      <c r="CR15" s="84"/>
+      <c r="CS15" s="84"/>
     </row>
     <row r="16" spans="1:97" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C16" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>21</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D16" s="51"/>
       <c r="E16" s="25">
         <v>0</v>
       </c>
@@ -2758,114 +2749,112 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AV16" s="91"/>
-      <c r="AW16" s="91"/>
-      <c r="AX16" s="91"/>
-      <c r="AY16" s="91"/>
-      <c r="AZ16" s="91"/>
-      <c r="BA16" s="91"/>
-      <c r="BB16" s="91"/>
-      <c r="BC16" s="91"/>
-      <c r="BD16" s="91"/>
-      <c r="BE16" s="91"/>
-      <c r="BF16" s="91"/>
-      <c r="BG16" s="91"/>
-      <c r="BH16" s="91"/>
-      <c r="BI16" s="91"/>
-      <c r="BJ16" s="91"/>
-      <c r="BK16" s="91"/>
-      <c r="BL16" s="91"/>
-      <c r="BM16" s="91"/>
-      <c r="BN16" s="91"/>
-      <c r="BO16" s="91"/>
-      <c r="BP16" s="91"/>
-      <c r="BQ16" s="91"/>
-      <c r="BR16" s="91"/>
-      <c r="BS16" s="91"/>
-      <c r="BT16" s="93"/>
-      <c r="BU16" s="93"/>
-      <c r="BV16" s="93"/>
-      <c r="BW16" s="93"/>
-      <c r="BX16" s="93"/>
-      <c r="BY16" s="93"/>
-      <c r="BZ16" s="93"/>
-      <c r="CA16" s="93"/>
-      <c r="CB16" s="93"/>
-      <c r="CC16" s="93"/>
-      <c r="CD16" s="93"/>
-      <c r="CE16" s="93"/>
-      <c r="CF16" s="93"/>
-      <c r="CG16" s="93"/>
-      <c r="CH16" s="93"/>
-      <c r="CI16" s="93"/>
-      <c r="CJ16" s="93"/>
-      <c r="CK16" s="93"/>
-      <c r="CL16" s="93"/>
-      <c r="CM16" s="93"/>
-      <c r="CN16" s="93"/>
-      <c r="CO16" s="93"/>
-      <c r="CP16" s="93"/>
-      <c r="CQ16" s="93"/>
-      <c r="CR16" s="93"/>
-      <c r="CS16" s="93"/>
+      <c r="AV16" s="82"/>
+      <c r="AW16" s="82"/>
+      <c r="AX16" s="82"/>
+      <c r="AY16" s="82"/>
+      <c r="AZ16" s="82"/>
+      <c r="BA16" s="82"/>
+      <c r="BB16" s="82"/>
+      <c r="BC16" s="82"/>
+      <c r="BD16" s="82"/>
+      <c r="BE16" s="82"/>
+      <c r="BF16" s="82"/>
+      <c r="BG16" s="82"/>
+      <c r="BH16" s="82"/>
+      <c r="BI16" s="82"/>
+      <c r="BJ16" s="82"/>
+      <c r="BK16" s="82"/>
+      <c r="BL16" s="82"/>
+      <c r="BM16" s="82"/>
+      <c r="BN16" s="82"/>
+      <c r="BO16" s="82"/>
+      <c r="BP16" s="82"/>
+      <c r="BQ16" s="82"/>
+      <c r="BR16" s="82"/>
+      <c r="BS16" s="82"/>
+      <c r="BT16" s="84"/>
+      <c r="BU16" s="84"/>
+      <c r="BV16" s="84"/>
+      <c r="BW16" s="84"/>
+      <c r="BX16" s="84"/>
+      <c r="BY16" s="84"/>
+      <c r="BZ16" s="84"/>
+      <c r="CA16" s="84"/>
+      <c r="CB16" s="84"/>
+      <c r="CC16" s="84"/>
+      <c r="CD16" s="84"/>
+      <c r="CE16" s="84"/>
+      <c r="CF16" s="84"/>
+      <c r="CG16" s="84"/>
+      <c r="CH16" s="84"/>
+      <c r="CI16" s="84"/>
+      <c r="CJ16" s="84"/>
+      <c r="CK16" s="84"/>
+      <c r="CL16" s="84"/>
+      <c r="CM16" s="84"/>
+      <c r="CN16" s="84"/>
+      <c r="CO16" s="84"/>
+      <c r="CP16" s="84"/>
+      <c r="CQ16" s="84"/>
+      <c r="CR16" s="84"/>
+      <c r="CS16" s="84"/>
     </row>
-    <row r="17" spans="1:97" s="67" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A17" s="91"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="82" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="65">
+    <row r="17" spans="1:97" s="58" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A17" s="82"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="73"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="65"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="65"/>
-      <c r="W17" s="65"/>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="65"/>
-      <c r="AA17" s="65"/>
-      <c r="AB17" s="65"/>
-      <c r="AC17" s="65"/>
-      <c r="AD17" s="65"/>
-      <c r="AE17" s="65"/>
-      <c r="AF17" s="65"/>
-      <c r="AG17" s="65"/>
-      <c r="AH17" s="65"/>
-      <c r="AI17" s="65"/>
-      <c r="AJ17" s="65"/>
-      <c r="AK17" s="65"/>
-      <c r="AL17" s="65"/>
-      <c r="AM17" s="65"/>
-      <c r="AN17" s="65"/>
-      <c r="AO17" s="65"/>
-      <c r="AP17" s="65"/>
-      <c r="AQ17" s="66"/>
-      <c r="AR17" s="91"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="56"/>
+      <c r="AC17" s="56"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="56"/>
+      <c r="AF17" s="56"/>
+      <c r="AG17" s="56"/>
+      <c r="AH17" s="56"/>
+      <c r="AI17" s="56"/>
+      <c r="AJ17" s="56"/>
+      <c r="AK17" s="56"/>
+      <c r="AL17" s="56"/>
+      <c r="AM17" s="56"/>
+      <c r="AN17" s="56"/>
+      <c r="AO17" s="56"/>
+      <c r="AP17" s="56"/>
+      <c r="AQ17" s="57"/>
+      <c r="AR17" s="82"/>
       <c r="AS17" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AT17" s="92">
+      <c r="AT17" s="83">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2873,63 +2862,63 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AV17" s="91"/>
-      <c r="AW17" s="91"/>
-      <c r="AX17" s="91"/>
-      <c r="AY17" s="91"/>
-      <c r="AZ17" s="91"/>
-      <c r="BA17" s="91"/>
-      <c r="BB17" s="91"/>
-      <c r="BC17" s="91"/>
-      <c r="BD17" s="91"/>
-      <c r="BE17" s="91"/>
-      <c r="BF17" s="91"/>
-      <c r="BG17" s="91"/>
-      <c r="BH17" s="91"/>
-      <c r="BI17" s="91"/>
-      <c r="BJ17" s="91"/>
-      <c r="BK17" s="91"/>
-      <c r="BL17" s="91"/>
-      <c r="BM17" s="91"/>
-      <c r="BN17" s="91"/>
-      <c r="BO17" s="91"/>
-      <c r="BP17" s="91"/>
-      <c r="BQ17" s="91"/>
-      <c r="BR17" s="91"/>
-      <c r="BS17" s="91"/>
-      <c r="BT17" s="93"/>
-      <c r="BU17" s="93"/>
-      <c r="BV17" s="93"/>
-      <c r="BW17" s="93"/>
-      <c r="BX17" s="93"/>
-      <c r="BY17" s="93"/>
-      <c r="BZ17" s="93"/>
-      <c r="CA17" s="93"/>
-      <c r="CB17" s="93"/>
-      <c r="CC17" s="93"/>
-      <c r="CD17" s="93"/>
-      <c r="CE17" s="93"/>
-      <c r="CF17" s="93"/>
-      <c r="CG17" s="93"/>
-      <c r="CH17" s="93"/>
-      <c r="CI17" s="93"/>
-      <c r="CJ17" s="93"/>
-      <c r="CK17" s="93"/>
-      <c r="CL17" s="93"/>
-      <c r="CM17" s="93"/>
-      <c r="CN17" s="93"/>
-      <c r="CO17" s="93"/>
-      <c r="CP17" s="93"/>
-      <c r="CQ17" s="93"/>
-      <c r="CR17" s="93"/>
-      <c r="CS17" s="93"/>
+      <c r="AV17" s="82"/>
+      <c r="AW17" s="82"/>
+      <c r="AX17" s="82"/>
+      <c r="AY17" s="82"/>
+      <c r="AZ17" s="82"/>
+      <c r="BA17" s="82"/>
+      <c r="BB17" s="82"/>
+      <c r="BC17" s="82"/>
+      <c r="BD17" s="82"/>
+      <c r="BE17" s="82"/>
+      <c r="BF17" s="82"/>
+      <c r="BG17" s="82"/>
+      <c r="BH17" s="82"/>
+      <c r="BI17" s="82"/>
+      <c r="BJ17" s="82"/>
+      <c r="BK17" s="82"/>
+      <c r="BL17" s="82"/>
+      <c r="BM17" s="82"/>
+      <c r="BN17" s="82"/>
+      <c r="BO17" s="82"/>
+      <c r="BP17" s="82"/>
+      <c r="BQ17" s="82"/>
+      <c r="BR17" s="82"/>
+      <c r="BS17" s="82"/>
+      <c r="BT17" s="84"/>
+      <c r="BU17" s="84"/>
+      <c r="BV17" s="84"/>
+      <c r="BW17" s="84"/>
+      <c r="BX17" s="84"/>
+      <c r="BY17" s="84"/>
+      <c r="BZ17" s="84"/>
+      <c r="CA17" s="84"/>
+      <c r="CB17" s="84"/>
+      <c r="CC17" s="84"/>
+      <c r="CD17" s="84"/>
+      <c r="CE17" s="84"/>
+      <c r="CF17" s="84"/>
+      <c r="CG17" s="84"/>
+      <c r="CH17" s="84"/>
+      <c r="CI17" s="84"/>
+      <c r="CJ17" s="84"/>
+      <c r="CK17" s="84"/>
+      <c r="CL17" s="84"/>
+      <c r="CM17" s="84"/>
+      <c r="CN17" s="84"/>
+      <c r="CO17" s="84"/>
+      <c r="CP17" s="84"/>
+      <c r="CQ17" s="84"/>
+      <c r="CR17" s="84"/>
+      <c r="CS17" s="84"/>
     </row>
     <row r="18" spans="1:97" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C18" s="27" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E18" s="25">
         <v>1</v>
@@ -2991,72 +2980,72 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AV18" s="91"/>
-      <c r="AW18" s="91"/>
-      <c r="AX18" s="91"/>
-      <c r="AY18" s="91"/>
-      <c r="AZ18" s="91"/>
-      <c r="BA18" s="91"/>
-      <c r="BB18" s="91"/>
-      <c r="BC18" s="91"/>
-      <c r="BD18" s="91"/>
-      <c r="BE18" s="91"/>
-      <c r="BF18" s="91"/>
-      <c r="BG18" s="91"/>
-      <c r="BH18" s="91"/>
-      <c r="BI18" s="91"/>
-      <c r="BJ18" s="91"/>
-      <c r="BK18" s="91"/>
-      <c r="BL18" s="91"/>
-      <c r="BM18" s="91"/>
-      <c r="BN18" s="91"/>
-      <c r="BO18" s="91"/>
-      <c r="BP18" s="91"/>
-      <c r="BQ18" s="91"/>
-      <c r="BR18" s="91"/>
-      <c r="BS18" s="91"/>
-      <c r="BT18" s="93"/>
-      <c r="BU18" s="93"/>
-      <c r="BV18" s="93"/>
-      <c r="BW18" s="93"/>
-      <c r="BX18" s="93"/>
-      <c r="BY18" s="93"/>
-      <c r="BZ18" s="93"/>
-      <c r="CA18" s="93"/>
-      <c r="CB18" s="93"/>
-      <c r="CC18" s="93"/>
-      <c r="CD18" s="93"/>
-      <c r="CE18" s="93"/>
-      <c r="CF18" s="93"/>
-      <c r="CG18" s="93"/>
-      <c r="CH18" s="93"/>
-      <c r="CI18" s="93"/>
-      <c r="CJ18" s="93"/>
-      <c r="CK18" s="93"/>
-      <c r="CL18" s="93"/>
-      <c r="CM18" s="93"/>
-      <c r="CN18" s="93"/>
-      <c r="CO18" s="93"/>
-      <c r="CP18" s="93"/>
-      <c r="CQ18" s="93"/>
-      <c r="CR18" s="93"/>
-      <c r="CS18" s="93"/>
+      <c r="AV18" s="82"/>
+      <c r="AW18" s="82"/>
+      <c r="AX18" s="82"/>
+      <c r="AY18" s="82"/>
+      <c r="AZ18" s="82"/>
+      <c r="BA18" s="82"/>
+      <c r="BB18" s="82"/>
+      <c r="BC18" s="82"/>
+      <c r="BD18" s="82"/>
+      <c r="BE18" s="82"/>
+      <c r="BF18" s="82"/>
+      <c r="BG18" s="82"/>
+      <c r="BH18" s="82"/>
+      <c r="BI18" s="82"/>
+      <c r="BJ18" s="82"/>
+      <c r="BK18" s="82"/>
+      <c r="BL18" s="82"/>
+      <c r="BM18" s="82"/>
+      <c r="BN18" s="82"/>
+      <c r="BO18" s="82"/>
+      <c r="BP18" s="82"/>
+      <c r="BQ18" s="82"/>
+      <c r="BR18" s="82"/>
+      <c r="BS18" s="82"/>
+      <c r="BT18" s="84"/>
+      <c r="BU18" s="84"/>
+      <c r="BV18" s="84"/>
+      <c r="BW18" s="84"/>
+      <c r="BX18" s="84"/>
+      <c r="BY18" s="84"/>
+      <c r="BZ18" s="84"/>
+      <c r="CA18" s="84"/>
+      <c r="CB18" s="84"/>
+      <c r="CC18" s="84"/>
+      <c r="CD18" s="84"/>
+      <c r="CE18" s="84"/>
+      <c r="CF18" s="84"/>
+      <c r="CG18" s="84"/>
+      <c r="CH18" s="84"/>
+      <c r="CI18" s="84"/>
+      <c r="CJ18" s="84"/>
+      <c r="CK18" s="84"/>
+      <c r="CL18" s="84"/>
+      <c r="CM18" s="84"/>
+      <c r="CN18" s="84"/>
+      <c r="CO18" s="84"/>
+      <c r="CP18" s="84"/>
+      <c r="CQ18" s="84"/>
+      <c r="CR18" s="84"/>
+      <c r="CS18" s="84"/>
     </row>
     <row r="19" spans="1:97" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C19" s="27" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E19" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="26">
-        <v>45962</v>
+        <v>45980</v>
       </c>
       <c r="G19" s="26">
-        <v>45979</v>
+        <v>46010</v>
       </c>
       <c r="H19" s="23"/>
       <c r="I19" s="24">
@@ -3099,82 +3088,77 @@
       <c r="AQ19" s="22"/>
       <c r="AS19" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AT19" s="46">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AU19" s="48">
         <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="AV19" s="91"/>
-      <c r="AW19" s="91"/>
-      <c r="AX19" s="91"/>
-      <c r="AY19" s="91"/>
-      <c r="AZ19" s="91"/>
-      <c r="BA19" s="91"/>
-      <c r="BB19" s="91"/>
-      <c r="BC19" s="91"/>
-      <c r="BD19" s="91"/>
-      <c r="BE19" s="91"/>
-      <c r="BF19" s="91"/>
-      <c r="BG19" s="91"/>
-      <c r="BH19" s="91"/>
-      <c r="BI19" s="91"/>
-      <c r="BJ19" s="91"/>
-      <c r="BK19" s="91"/>
-      <c r="BL19" s="91"/>
-      <c r="BM19" s="91"/>
-      <c r="BN19" s="91"/>
-      <c r="BO19" s="91"/>
-      <c r="BP19" s="91"/>
-      <c r="BQ19" s="91"/>
-      <c r="BR19" s="91"/>
-      <c r="BS19" s="91"/>
-      <c r="BT19" s="93"/>
-      <c r="BU19" s="93"/>
-      <c r="BV19" s="93"/>
-      <c r="BW19" s="93"/>
-      <c r="BX19" s="93"/>
-      <c r="BY19" s="93"/>
-      <c r="BZ19" s="93"/>
-      <c r="CA19" s="93"/>
-      <c r="CB19" s="93"/>
-      <c r="CC19" s="93"/>
-      <c r="CD19" s="93"/>
-      <c r="CE19" s="93"/>
-      <c r="CF19" s="93"/>
-      <c r="CG19" s="93"/>
-      <c r="CH19" s="93"/>
-      <c r="CI19" s="93"/>
-      <c r="CJ19" s="93"/>
-      <c r="CK19" s="93"/>
-      <c r="CL19" s="93"/>
-      <c r="CM19" s="93"/>
-      <c r="CN19" s="93"/>
-      <c r="CO19" s="93"/>
-      <c r="CP19" s="93"/>
-      <c r="CQ19" s="93"/>
-      <c r="CR19" s="93"/>
-      <c r="CS19" s="93"/>
+        <v>180</v>
+      </c>
+      <c r="AV19" s="82"/>
+      <c r="AW19" s="82"/>
+      <c r="AX19" s="82"/>
+      <c r="AY19" s="82"/>
+      <c r="AZ19" s="82"/>
+      <c r="BA19" s="82"/>
+      <c r="BB19" s="82"/>
+      <c r="BC19" s="82"/>
+      <c r="BD19" s="82"/>
+      <c r="BE19" s="82"/>
+      <c r="BF19" s="82"/>
+      <c r="BG19" s="82"/>
+      <c r="BH19" s="82"/>
+      <c r="BI19" s="82"/>
+      <c r="BJ19" s="82"/>
+      <c r="BK19" s="82"/>
+      <c r="BL19" s="82"/>
+      <c r="BM19" s="82"/>
+      <c r="BN19" s="82"/>
+      <c r="BO19" s="82"/>
+      <c r="BP19" s="82"/>
+      <c r="BQ19" s="82"/>
+      <c r="BR19" s="82"/>
+      <c r="BS19" s="82"/>
+      <c r="BT19" s="84"/>
+      <c r="BU19" s="84"/>
+      <c r="BV19" s="84"/>
+      <c r="BW19" s="84"/>
+      <c r="BX19" s="84"/>
+      <c r="BY19" s="84"/>
+      <c r="BZ19" s="84"/>
+      <c r="CA19" s="84"/>
+      <c r="CB19" s="84"/>
+      <c r="CC19" s="84"/>
+      <c r="CD19" s="84"/>
+      <c r="CE19" s="84"/>
+      <c r="CF19" s="84"/>
+      <c r="CG19" s="84"/>
+      <c r="CH19" s="84"/>
+      <c r="CI19" s="84"/>
+      <c r="CJ19" s="84"/>
+      <c r="CK19" s="84"/>
+      <c r="CL19" s="84"/>
+      <c r="CM19" s="84"/>
+      <c r="CN19" s="84"/>
+      <c r="CO19" s="84"/>
+      <c r="CP19" s="84"/>
+      <c r="CQ19" s="84"/>
+      <c r="CR19" s="84"/>
+      <c r="CS19" s="84"/>
     </row>
     <row r="20" spans="1:97" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>17</v>
-      </c>
+      <c r="D20" s="27"/>
       <c r="E20" s="25">
         <v>0</v>
       </c>
       <c r="F20" s="26">
-        <v>45980</v>
+        <v>45962</v>
       </c>
       <c r="G20" s="26">
-        <v>46010</v>
+        <v>45962</v>
       </c>
       <c r="H20" s="23"/>
       <c r="I20" s="24"/>
@@ -3214,72 +3198,70 @@
       <c r="AQ20" s="22"/>
       <c r="AS20" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="46">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="48">
         <f t="shared" si="3"/>
-        <v>180</v>
-      </c>
-      <c r="AV20" s="91"/>
-      <c r="AW20" s="91"/>
-      <c r="AX20" s="91"/>
-      <c r="AY20" s="91"/>
-      <c r="AZ20" s="91"/>
-      <c r="BA20" s="91"/>
-      <c r="BB20" s="91"/>
-      <c r="BC20" s="91"/>
-      <c r="BD20" s="91"/>
-      <c r="BE20" s="91"/>
-      <c r="BF20" s="91"/>
-      <c r="BG20" s="91"/>
-      <c r="BH20" s="91"/>
-      <c r="BI20" s="91"/>
-      <c r="BJ20" s="91"/>
-      <c r="BK20" s="91"/>
-      <c r="BL20" s="91"/>
-      <c r="BM20" s="91"/>
-      <c r="BN20" s="91"/>
-      <c r="BO20" s="91"/>
-      <c r="BP20" s="91"/>
-      <c r="BQ20" s="91"/>
-      <c r="BR20" s="91"/>
-      <c r="BS20" s="91"/>
-      <c r="BT20" s="93"/>
-      <c r="BU20" s="93"/>
-      <c r="BV20" s="93"/>
-      <c r="BW20" s="93"/>
-      <c r="BX20" s="93"/>
-      <c r="BY20" s="93"/>
-      <c r="BZ20" s="93"/>
-      <c r="CA20" s="93"/>
-      <c r="CB20" s="93"/>
-      <c r="CC20" s="93"/>
-      <c r="CD20" s="93"/>
-      <c r="CE20" s="93"/>
-      <c r="CF20" s="93"/>
-      <c r="CG20" s="93"/>
-      <c r="CH20" s="93"/>
-      <c r="CI20" s="93"/>
-      <c r="CJ20" s="93"/>
-      <c r="CK20" s="93"/>
-      <c r="CL20" s="93"/>
-      <c r="CM20" s="93"/>
-      <c r="CN20" s="93"/>
-      <c r="CO20" s="93"/>
-      <c r="CP20" s="93"/>
-      <c r="CQ20" s="93"/>
-      <c r="CR20" s="93"/>
-      <c r="CS20" s="93"/>
+        <v>0</v>
+      </c>
+      <c r="AV20" s="82"/>
+      <c r="AW20" s="82"/>
+      <c r="AX20" s="82"/>
+      <c r="AY20" s="82"/>
+      <c r="AZ20" s="82"/>
+      <c r="BA20" s="82"/>
+      <c r="BB20" s="82"/>
+      <c r="BC20" s="82"/>
+      <c r="BD20" s="82"/>
+      <c r="BE20" s="82"/>
+      <c r="BF20" s="82"/>
+      <c r="BG20" s="82"/>
+      <c r="BH20" s="82"/>
+      <c r="BI20" s="82"/>
+      <c r="BJ20" s="82"/>
+      <c r="BK20" s="82"/>
+      <c r="BL20" s="82"/>
+      <c r="BM20" s="82"/>
+      <c r="BN20" s="82"/>
+      <c r="BO20" s="82"/>
+      <c r="BP20" s="82"/>
+      <c r="BQ20" s="82"/>
+      <c r="BR20" s="82"/>
+      <c r="BS20" s="82"/>
+      <c r="BT20" s="84"/>
+      <c r="BU20" s="84"/>
+      <c r="BV20" s="84"/>
+      <c r="BW20" s="84"/>
+      <c r="BX20" s="84"/>
+      <c r="BY20" s="84"/>
+      <c r="BZ20" s="84"/>
+      <c r="CA20" s="84"/>
+      <c r="CB20" s="84"/>
+      <c r="CC20" s="84"/>
+      <c r="CD20" s="84"/>
+      <c r="CE20" s="84"/>
+      <c r="CF20" s="84"/>
+      <c r="CG20" s="84"/>
+      <c r="CH20" s="84"/>
+      <c r="CI20" s="84"/>
+      <c r="CJ20" s="84"/>
+      <c r="CK20" s="84"/>
+      <c r="CL20" s="84"/>
+      <c r="CM20" s="84"/>
+      <c r="CN20" s="84"/>
+      <c r="CO20" s="84"/>
+      <c r="CP20" s="84"/>
+      <c r="CQ20" s="84"/>
+      <c r="CR20" s="84"/>
+      <c r="CS20" s="84"/>
     </row>
     <row r="21" spans="1:97" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C21" s="27"/>
-      <c r="D21" s="27" t="s">
-        <v>21</v>
-      </c>
+      <c r="D21" s="27"/>
       <c r="E21" s="25">
         <v>0</v>
       </c>
@@ -3340,116 +3322,112 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AV21" s="91"/>
-      <c r="AW21" s="91"/>
-      <c r="AX21" s="91"/>
-      <c r="AY21" s="91"/>
-      <c r="AZ21" s="91"/>
-      <c r="BA21" s="91"/>
-      <c r="BB21" s="91"/>
-      <c r="BC21" s="91"/>
-      <c r="BD21" s="91"/>
-      <c r="BE21" s="91"/>
-      <c r="BF21" s="91"/>
-      <c r="BG21" s="91"/>
-      <c r="BH21" s="91"/>
-      <c r="BI21" s="91"/>
-      <c r="BJ21" s="91"/>
-      <c r="BK21" s="91"/>
-      <c r="BL21" s="91"/>
-      <c r="BM21" s="91"/>
-      <c r="BN21" s="91"/>
-      <c r="BO21" s="91"/>
-      <c r="BP21" s="91"/>
-      <c r="BQ21" s="91"/>
-      <c r="BR21" s="91"/>
-      <c r="BS21" s="91"/>
-      <c r="BT21" s="93"/>
-      <c r="BU21" s="93"/>
-      <c r="BV21" s="93"/>
-      <c r="BW21" s="93"/>
-      <c r="BX21" s="93"/>
-      <c r="BY21" s="93"/>
-      <c r="BZ21" s="93"/>
-      <c r="CA21" s="93"/>
-      <c r="CB21" s="93"/>
-      <c r="CC21" s="93"/>
-      <c r="CD21" s="93"/>
-      <c r="CE21" s="93"/>
-      <c r="CF21" s="93"/>
-      <c r="CG21" s="93"/>
-      <c r="CH21" s="93"/>
-      <c r="CI21" s="93"/>
-      <c r="CJ21" s="93"/>
-      <c r="CK21" s="93"/>
-      <c r="CL21" s="93"/>
-      <c r="CM21" s="93"/>
-      <c r="CN21" s="93"/>
-      <c r="CO21" s="93"/>
-      <c r="CP21" s="93"/>
-      <c r="CQ21" s="93"/>
-      <c r="CR21" s="93"/>
-      <c r="CS21" s="93"/>
+      <c r="AV21" s="82"/>
+      <c r="AW21" s="82"/>
+      <c r="AX21" s="82"/>
+      <c r="AY21" s="82"/>
+      <c r="AZ21" s="82"/>
+      <c r="BA21" s="82"/>
+      <c r="BB21" s="82"/>
+      <c r="BC21" s="82"/>
+      <c r="BD21" s="82"/>
+      <c r="BE21" s="82"/>
+      <c r="BF21" s="82"/>
+      <c r="BG21" s="82"/>
+      <c r="BH21" s="82"/>
+      <c r="BI21" s="82"/>
+      <c r="BJ21" s="82"/>
+      <c r="BK21" s="82"/>
+      <c r="BL21" s="82"/>
+      <c r="BM21" s="82"/>
+      <c r="BN21" s="82"/>
+      <c r="BO21" s="82"/>
+      <c r="BP21" s="82"/>
+      <c r="BQ21" s="82"/>
+      <c r="BR21" s="82"/>
+      <c r="BS21" s="82"/>
+      <c r="BT21" s="84"/>
+      <c r="BU21" s="84"/>
+      <c r="BV21" s="84"/>
+      <c r="BW21" s="84"/>
+      <c r="BX21" s="84"/>
+      <c r="BY21" s="84"/>
+      <c r="BZ21" s="84"/>
+      <c r="CA21" s="84"/>
+      <c r="CB21" s="84"/>
+      <c r="CC21" s="84"/>
+      <c r="CD21" s="84"/>
+      <c r="CE21" s="84"/>
+      <c r="CF21" s="84"/>
+      <c r="CG21" s="84"/>
+      <c r="CH21" s="84"/>
+      <c r="CI21" s="84"/>
+      <c r="CJ21" s="84"/>
+      <c r="CK21" s="84"/>
+      <c r="CL21" s="84"/>
+      <c r="CM21" s="84"/>
+      <c r="CN21" s="84"/>
+      <c r="CO21" s="84"/>
+      <c r="CP21" s="84"/>
+      <c r="CQ21" s="84"/>
+      <c r="CR21" s="84"/>
+      <c r="CS21" s="84"/>
     </row>
-    <row r="22" spans="1:97" s="90" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="91"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="85">
-        <v>0</v>
-      </c>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="88">
+    <row r="22" spans="1:97" s="81" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="82"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="75"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="88"/>
-      <c r="S22" s="88"/>
-      <c r="T22" s="88"/>
-      <c r="U22" s="88"/>
-      <c r="V22" s="88"/>
-      <c r="W22" s="88"/>
-      <c r="X22" s="88"/>
-      <c r="Y22" s="88"/>
-      <c r="Z22" s="88"/>
-      <c r="AA22" s="88"/>
-      <c r="AB22" s="88"/>
-      <c r="AC22" s="88"/>
-      <c r="AD22" s="88"/>
-      <c r="AE22" s="88"/>
-      <c r="AF22" s="88"/>
-      <c r="AG22" s="88"/>
-      <c r="AH22" s="88"/>
-      <c r="AI22" s="88"/>
-      <c r="AJ22" s="88"/>
-      <c r="AK22" s="88"/>
-      <c r="AL22" s="88"/>
-      <c r="AM22" s="88"/>
-      <c r="AN22" s="88"/>
-      <c r="AO22" s="88"/>
-      <c r="AP22" s="88"/>
-      <c r="AQ22" s="89"/>
-      <c r="AR22" s="91"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="79"/>
+      <c r="Y22" s="79"/>
+      <c r="Z22" s="79"/>
+      <c r="AA22" s="79"/>
+      <c r="AB22" s="79"/>
+      <c r="AC22" s="79"/>
+      <c r="AD22" s="79"/>
+      <c r="AE22" s="79"/>
+      <c r="AF22" s="79"/>
+      <c r="AG22" s="79"/>
+      <c r="AH22" s="79"/>
+      <c r="AI22" s="79"/>
+      <c r="AJ22" s="79"/>
+      <c r="AK22" s="79"/>
+      <c r="AL22" s="79"/>
+      <c r="AM22" s="79"/>
+      <c r="AN22" s="79"/>
+      <c r="AO22" s="79"/>
+      <c r="AP22" s="79"/>
+      <c r="AQ22" s="80"/>
+      <c r="AR22" s="82"/>
       <c r="AS22" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AT22" s="92">
+      <c r="AT22" s="83">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3457,63 +3435,63 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AV22" s="91"/>
-      <c r="AW22" s="91"/>
-      <c r="AX22" s="91"/>
-      <c r="AY22" s="91"/>
-      <c r="AZ22" s="91"/>
-      <c r="BA22" s="91"/>
-      <c r="BB22" s="91"/>
-      <c r="BC22" s="91"/>
-      <c r="BD22" s="91"/>
-      <c r="BE22" s="91"/>
-      <c r="BF22" s="91"/>
-      <c r="BG22" s="91"/>
-      <c r="BH22" s="91"/>
-      <c r="BI22" s="91"/>
-      <c r="BJ22" s="91"/>
-      <c r="BK22" s="91"/>
-      <c r="BL22" s="91"/>
-      <c r="BM22" s="91"/>
-      <c r="BN22" s="91"/>
-      <c r="BO22" s="91"/>
-      <c r="BP22" s="91"/>
-      <c r="BQ22" s="91"/>
-      <c r="BR22" s="91"/>
-      <c r="BS22" s="91"/>
-      <c r="BT22" s="93"/>
-      <c r="BU22" s="93"/>
-      <c r="BV22" s="93"/>
-      <c r="BW22" s="93"/>
-      <c r="BX22" s="93"/>
-      <c r="BY22" s="93"/>
-      <c r="BZ22" s="93"/>
-      <c r="CA22" s="93"/>
-      <c r="CB22" s="93"/>
-      <c r="CC22" s="93"/>
-      <c r="CD22" s="93"/>
-      <c r="CE22" s="93"/>
-      <c r="CF22" s="93"/>
-      <c r="CG22" s="93"/>
-      <c r="CH22" s="93"/>
-      <c r="CI22" s="93"/>
-      <c r="CJ22" s="93"/>
-      <c r="CK22" s="93"/>
-      <c r="CL22" s="93"/>
-      <c r="CM22" s="93"/>
-      <c r="CN22" s="93"/>
-      <c r="CO22" s="93"/>
-      <c r="CP22" s="93"/>
-      <c r="CQ22" s="93"/>
-      <c r="CR22" s="93"/>
-      <c r="CS22" s="93"/>
+      <c r="AV22" s="82"/>
+      <c r="AW22" s="82"/>
+      <c r="AX22" s="82"/>
+      <c r="AY22" s="82"/>
+      <c r="AZ22" s="82"/>
+      <c r="BA22" s="82"/>
+      <c r="BB22" s="82"/>
+      <c r="BC22" s="82"/>
+      <c r="BD22" s="82"/>
+      <c r="BE22" s="82"/>
+      <c r="BF22" s="82"/>
+      <c r="BG22" s="82"/>
+      <c r="BH22" s="82"/>
+      <c r="BI22" s="82"/>
+      <c r="BJ22" s="82"/>
+      <c r="BK22" s="82"/>
+      <c r="BL22" s="82"/>
+      <c r="BM22" s="82"/>
+      <c r="BN22" s="82"/>
+      <c r="BO22" s="82"/>
+      <c r="BP22" s="82"/>
+      <c r="BQ22" s="82"/>
+      <c r="BR22" s="82"/>
+      <c r="BS22" s="82"/>
+      <c r="BT22" s="84"/>
+      <c r="BU22" s="84"/>
+      <c r="BV22" s="84"/>
+      <c r="BW22" s="84"/>
+      <c r="BX22" s="84"/>
+      <c r="BY22" s="84"/>
+      <c r="BZ22" s="84"/>
+      <c r="CA22" s="84"/>
+      <c r="CB22" s="84"/>
+      <c r="CC22" s="84"/>
+      <c r="CD22" s="84"/>
+      <c r="CE22" s="84"/>
+      <c r="CF22" s="84"/>
+      <c r="CG22" s="84"/>
+      <c r="CH22" s="84"/>
+      <c r="CI22" s="84"/>
+      <c r="CJ22" s="84"/>
+      <c r="CK22" s="84"/>
+      <c r="CL22" s="84"/>
+      <c r="CM22" s="84"/>
+      <c r="CN22" s="84"/>
+      <c r="CO22" s="84"/>
+      <c r="CP22" s="84"/>
+      <c r="CQ22" s="84"/>
+      <c r="CR22" s="84"/>
+      <c r="CS22" s="84"/>
     </row>
     <row r="23" spans="1:97" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="59" t="s">
-        <v>36</v>
+      <c r="C23" s="50" t="s">
+        <v>31</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E23" s="25">
         <v>0</v>
@@ -3575,72 +3553,72 @@
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="AV23" s="91"/>
-      <c r="AW23" s="91"/>
-      <c r="AX23" s="91"/>
-      <c r="AY23" s="91"/>
-      <c r="AZ23" s="91"/>
-      <c r="BA23" s="91"/>
-      <c r="BB23" s="91"/>
-      <c r="BC23" s="91"/>
-      <c r="BD23" s="91"/>
-      <c r="BE23" s="91"/>
-      <c r="BF23" s="91"/>
-      <c r="BG23" s="91"/>
-      <c r="BH23" s="91"/>
-      <c r="BI23" s="91"/>
-      <c r="BJ23" s="91"/>
-      <c r="BK23" s="91"/>
-      <c r="BL23" s="91"/>
-      <c r="BM23" s="91"/>
-      <c r="BN23" s="91"/>
-      <c r="BO23" s="91"/>
-      <c r="BP23" s="91"/>
-      <c r="BQ23" s="91"/>
-      <c r="BR23" s="91"/>
-      <c r="BS23" s="91"/>
-      <c r="BT23" s="93"/>
-      <c r="BU23" s="93"/>
-      <c r="BV23" s="93"/>
-      <c r="BW23" s="93"/>
-      <c r="BX23" s="93"/>
-      <c r="BY23" s="93"/>
-      <c r="BZ23" s="93"/>
-      <c r="CA23" s="93"/>
-      <c r="CB23" s="93"/>
-      <c r="CC23" s="93"/>
-      <c r="CD23" s="93"/>
-      <c r="CE23" s="93"/>
-      <c r="CF23" s="93"/>
-      <c r="CG23" s="93"/>
-      <c r="CH23" s="93"/>
-      <c r="CI23" s="93"/>
-      <c r="CJ23" s="93"/>
-      <c r="CK23" s="93"/>
-      <c r="CL23" s="93"/>
-      <c r="CM23" s="93"/>
-      <c r="CN23" s="93"/>
-      <c r="CO23" s="93"/>
-      <c r="CP23" s="93"/>
-      <c r="CQ23" s="93"/>
-      <c r="CR23" s="93"/>
-      <c r="CS23" s="93"/>
+      <c r="AV23" s="82"/>
+      <c r="AW23" s="82"/>
+      <c r="AX23" s="82"/>
+      <c r="AY23" s="82"/>
+      <c r="AZ23" s="82"/>
+      <c r="BA23" s="82"/>
+      <c r="BB23" s="82"/>
+      <c r="BC23" s="82"/>
+      <c r="BD23" s="82"/>
+      <c r="BE23" s="82"/>
+      <c r="BF23" s="82"/>
+      <c r="BG23" s="82"/>
+      <c r="BH23" s="82"/>
+      <c r="BI23" s="82"/>
+      <c r="BJ23" s="82"/>
+      <c r="BK23" s="82"/>
+      <c r="BL23" s="82"/>
+      <c r="BM23" s="82"/>
+      <c r="BN23" s="82"/>
+      <c r="BO23" s="82"/>
+      <c r="BP23" s="82"/>
+      <c r="BQ23" s="82"/>
+      <c r="BR23" s="82"/>
+      <c r="BS23" s="82"/>
+      <c r="BT23" s="84"/>
+      <c r="BU23" s="84"/>
+      <c r="BV23" s="84"/>
+      <c r="BW23" s="84"/>
+      <c r="BX23" s="84"/>
+      <c r="BY23" s="84"/>
+      <c r="BZ23" s="84"/>
+      <c r="CA23" s="84"/>
+      <c r="CB23" s="84"/>
+      <c r="CC23" s="84"/>
+      <c r="CD23" s="84"/>
+      <c r="CE23" s="84"/>
+      <c r="CF23" s="84"/>
+      <c r="CG23" s="84"/>
+      <c r="CH23" s="84"/>
+      <c r="CI23" s="84"/>
+      <c r="CJ23" s="84"/>
+      <c r="CK23" s="84"/>
+      <c r="CL23" s="84"/>
+      <c r="CM23" s="84"/>
+      <c r="CN23" s="84"/>
+      <c r="CO23" s="84"/>
+      <c r="CP23" s="84"/>
+      <c r="CQ23" s="84"/>
+      <c r="CR23" s="84"/>
+      <c r="CS23" s="84"/>
     </row>
     <row r="24" spans="1:97" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C24" s="27" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E24" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="26">
         <v>45962</v>
       </c>
       <c r="G24" s="26">
-        <v>45962</v>
+        <v>45979</v>
       </c>
       <c r="H24" s="23"/>
       <c r="I24" s="24">
@@ -3683,82 +3661,82 @@
       <c r="AQ24" s="22"/>
       <c r="AS24" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT24" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AU24" s="48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AV24" s="91"/>
-      <c r="AW24" s="91"/>
-      <c r="AX24" s="91"/>
-      <c r="AY24" s="91"/>
-      <c r="AZ24" s="91"/>
-      <c r="BA24" s="91"/>
-      <c r="BB24" s="91"/>
-      <c r="BC24" s="91"/>
-      <c r="BD24" s="91"/>
-      <c r="BE24" s="91"/>
-      <c r="BF24" s="91"/>
-      <c r="BG24" s="91"/>
-      <c r="BH24" s="91"/>
-      <c r="BI24" s="91"/>
-      <c r="BJ24" s="91"/>
-      <c r="BK24" s="91"/>
-      <c r="BL24" s="91"/>
-      <c r="BM24" s="91"/>
-      <c r="BN24" s="91"/>
-      <c r="BO24" s="91"/>
-      <c r="BP24" s="91"/>
-      <c r="BQ24" s="91"/>
-      <c r="BR24" s="91"/>
-      <c r="BS24" s="91"/>
-      <c r="BT24" s="93"/>
-      <c r="BU24" s="93"/>
-      <c r="BV24" s="93"/>
-      <c r="BW24" s="93"/>
-      <c r="BX24" s="93"/>
-      <c r="BY24" s="93"/>
-      <c r="BZ24" s="93"/>
-      <c r="CA24" s="93"/>
-      <c r="CB24" s="93"/>
-      <c r="CC24" s="93"/>
-      <c r="CD24" s="93"/>
-      <c r="CE24" s="93"/>
-      <c r="CF24" s="93"/>
-      <c r="CG24" s="93"/>
-      <c r="CH24" s="93"/>
-      <c r="CI24" s="93"/>
-      <c r="CJ24" s="93"/>
-      <c r="CK24" s="93"/>
-      <c r="CL24" s="93"/>
-      <c r="CM24" s="93"/>
-      <c r="CN24" s="93"/>
-      <c r="CO24" s="93"/>
-      <c r="CP24" s="93"/>
-      <c r="CQ24" s="93"/>
-      <c r="CR24" s="93"/>
-      <c r="CS24" s="93"/>
+        <v>90</v>
+      </c>
+      <c r="AV24" s="82"/>
+      <c r="AW24" s="82"/>
+      <c r="AX24" s="82"/>
+      <c r="AY24" s="82"/>
+      <c r="AZ24" s="82"/>
+      <c r="BA24" s="82"/>
+      <c r="BB24" s="82"/>
+      <c r="BC24" s="82"/>
+      <c r="BD24" s="82"/>
+      <c r="BE24" s="82"/>
+      <c r="BF24" s="82"/>
+      <c r="BG24" s="82"/>
+      <c r="BH24" s="82"/>
+      <c r="BI24" s="82"/>
+      <c r="BJ24" s="82"/>
+      <c r="BK24" s="82"/>
+      <c r="BL24" s="82"/>
+      <c r="BM24" s="82"/>
+      <c r="BN24" s="82"/>
+      <c r="BO24" s="82"/>
+      <c r="BP24" s="82"/>
+      <c r="BQ24" s="82"/>
+      <c r="BR24" s="82"/>
+      <c r="BS24" s="82"/>
+      <c r="BT24" s="84"/>
+      <c r="BU24" s="84"/>
+      <c r="BV24" s="84"/>
+      <c r="BW24" s="84"/>
+      <c r="BX24" s="84"/>
+      <c r="BY24" s="84"/>
+      <c r="BZ24" s="84"/>
+      <c r="CA24" s="84"/>
+      <c r="CB24" s="84"/>
+      <c r="CC24" s="84"/>
+      <c r="CD24" s="84"/>
+      <c r="CE24" s="84"/>
+      <c r="CF24" s="84"/>
+      <c r="CG24" s="84"/>
+      <c r="CH24" s="84"/>
+      <c r="CI24" s="84"/>
+      <c r="CJ24" s="84"/>
+      <c r="CK24" s="84"/>
+      <c r="CL24" s="84"/>
+      <c r="CM24" s="84"/>
+      <c r="CN24" s="84"/>
+      <c r="CO24" s="84"/>
+      <c r="CP24" s="84"/>
+      <c r="CQ24" s="84"/>
+      <c r="CR24" s="84"/>
+      <c r="CS24" s="84"/>
     </row>
     <row r="25" spans="1:97" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C25" s="27" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E25" s="25">
         <v>0</v>
       </c>
       <c r="F25" s="26">
-        <v>45962</v>
+        <v>46139</v>
       </c>
       <c r="G25" s="26">
-        <v>45962</v>
+        <v>46174</v>
       </c>
       <c r="H25" s="23"/>
       <c r="I25" s="24">
@@ -3801,74 +3779,70 @@
       <c r="AQ25" s="22"/>
       <c r="AS25" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AT25" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AU25" s="48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AV25" s="91"/>
-      <c r="AW25" s="91"/>
-      <c r="AX25" s="91"/>
-      <c r="AY25" s="91"/>
-      <c r="AZ25" s="91"/>
-      <c r="BA25" s="91"/>
-      <c r="BB25" s="91"/>
-      <c r="BC25" s="91"/>
-      <c r="BD25" s="91"/>
-      <c r="BE25" s="91"/>
-      <c r="BF25" s="91"/>
-      <c r="BG25" s="91"/>
-      <c r="BH25" s="91"/>
-      <c r="BI25" s="91"/>
-      <c r="BJ25" s="91"/>
-      <c r="BK25" s="91"/>
-      <c r="BL25" s="91"/>
-      <c r="BM25" s="91"/>
-      <c r="BN25" s="91"/>
-      <c r="BO25" s="91"/>
-      <c r="BP25" s="91"/>
-      <c r="BQ25" s="91"/>
-      <c r="BR25" s="91"/>
-      <c r="BS25" s="91"/>
-      <c r="BT25" s="93"/>
-      <c r="BU25" s="93"/>
-      <c r="BV25" s="93"/>
-      <c r="BW25" s="93"/>
-      <c r="BX25" s="93"/>
-      <c r="BY25" s="93"/>
-      <c r="BZ25" s="93"/>
-      <c r="CA25" s="93"/>
-      <c r="CB25" s="93"/>
-      <c r="CC25" s="93"/>
-      <c r="CD25" s="93"/>
-      <c r="CE25" s="93"/>
-      <c r="CF25" s="93"/>
-      <c r="CG25" s="93"/>
-      <c r="CH25" s="93"/>
-      <c r="CI25" s="93"/>
-      <c r="CJ25" s="93"/>
-      <c r="CK25" s="93"/>
-      <c r="CL25" s="93"/>
-      <c r="CM25" s="93"/>
-      <c r="CN25" s="93"/>
-      <c r="CO25" s="93"/>
-      <c r="CP25" s="93"/>
-      <c r="CQ25" s="93"/>
-      <c r="CR25" s="93"/>
-      <c r="CS25" s="93"/>
+        <v>225</v>
+      </c>
+      <c r="AV25" s="82"/>
+      <c r="AW25" s="82"/>
+      <c r="AX25" s="82"/>
+      <c r="AY25" s="82"/>
+      <c r="AZ25" s="82"/>
+      <c r="BA25" s="82"/>
+      <c r="BB25" s="82"/>
+      <c r="BC25" s="82"/>
+      <c r="BD25" s="82"/>
+      <c r="BE25" s="82"/>
+      <c r="BF25" s="82"/>
+      <c r="BG25" s="82"/>
+      <c r="BH25" s="82"/>
+      <c r="BI25" s="82"/>
+      <c r="BJ25" s="82"/>
+      <c r="BK25" s="82"/>
+      <c r="BL25" s="82"/>
+      <c r="BM25" s="82"/>
+      <c r="BN25" s="82"/>
+      <c r="BO25" s="82"/>
+      <c r="BP25" s="82"/>
+      <c r="BQ25" s="82"/>
+      <c r="BR25" s="82"/>
+      <c r="BS25" s="82"/>
+      <c r="BT25" s="84"/>
+      <c r="BU25" s="84"/>
+      <c r="BV25" s="84"/>
+      <c r="BW25" s="84"/>
+      <c r="BX25" s="84"/>
+      <c r="BY25" s="84"/>
+      <c r="BZ25" s="84"/>
+      <c r="CA25" s="84"/>
+      <c r="CB25" s="84"/>
+      <c r="CC25" s="84"/>
+      <c r="CD25" s="84"/>
+      <c r="CE25" s="84"/>
+      <c r="CF25" s="84"/>
+      <c r="CG25" s="84"/>
+      <c r="CH25" s="84"/>
+      <c r="CI25" s="84"/>
+      <c r="CJ25" s="84"/>
+      <c r="CK25" s="84"/>
+      <c r="CL25" s="84"/>
+      <c r="CM25" s="84"/>
+      <c r="CN25" s="84"/>
+      <c r="CO25" s="84"/>
+      <c r="CP25" s="84"/>
+      <c r="CQ25" s="84"/>
+      <c r="CR25" s="84"/>
+      <c r="CS25" s="84"/>
     </row>
     <row r="26" spans="1:97" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C26" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>21</v>
-      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="25">
         <v>0</v>
       </c>
@@ -3929,166 +3903,166 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AV26" s="91"/>
-      <c r="AW26" s="91"/>
-      <c r="AX26" s="91"/>
-      <c r="AY26" s="91"/>
-      <c r="AZ26" s="91"/>
-      <c r="BA26" s="91"/>
-      <c r="BB26" s="91"/>
-      <c r="BC26" s="91"/>
-      <c r="BD26" s="91"/>
-      <c r="BE26" s="91"/>
-      <c r="BF26" s="91"/>
-      <c r="BG26" s="91"/>
-      <c r="BH26" s="91"/>
-      <c r="BI26" s="91"/>
-      <c r="BJ26" s="91"/>
-      <c r="BK26" s="91"/>
-      <c r="BL26" s="91"/>
-      <c r="BM26" s="91"/>
-      <c r="BN26" s="91"/>
-      <c r="BO26" s="91"/>
-      <c r="BP26" s="91"/>
-      <c r="BQ26" s="91"/>
-      <c r="BR26" s="91"/>
-      <c r="BS26" s="91"/>
-      <c r="BT26" s="93"/>
-      <c r="BU26" s="93"/>
-      <c r="BV26" s="93"/>
-      <c r="BW26" s="93"/>
-      <c r="BX26" s="93"/>
-      <c r="BY26" s="93"/>
-      <c r="BZ26" s="93"/>
-      <c r="CA26" s="93"/>
-      <c r="CB26" s="93"/>
-      <c r="CC26" s="93"/>
-      <c r="CD26" s="93"/>
-      <c r="CE26" s="93"/>
-      <c r="CF26" s="93"/>
-      <c r="CG26" s="93"/>
-      <c r="CH26" s="93"/>
-      <c r="CI26" s="93"/>
-      <c r="CJ26" s="93"/>
-      <c r="CK26" s="93"/>
-      <c r="CL26" s="93"/>
-      <c r="CM26" s="93"/>
-      <c r="CN26" s="93"/>
-      <c r="CO26" s="93"/>
-      <c r="CP26" s="93"/>
-      <c r="CQ26" s="93"/>
-      <c r="CR26" s="93"/>
-      <c r="CS26" s="93"/>
+      <c r="AV26" s="82"/>
+      <c r="AW26" s="82"/>
+      <c r="AX26" s="82"/>
+      <c r="AY26" s="82"/>
+      <c r="AZ26" s="82"/>
+      <c r="BA26" s="82"/>
+      <c r="BB26" s="82"/>
+      <c r="BC26" s="82"/>
+      <c r="BD26" s="82"/>
+      <c r="BE26" s="82"/>
+      <c r="BF26" s="82"/>
+      <c r="BG26" s="82"/>
+      <c r="BH26" s="82"/>
+      <c r="BI26" s="82"/>
+      <c r="BJ26" s="82"/>
+      <c r="BK26" s="82"/>
+      <c r="BL26" s="82"/>
+      <c r="BM26" s="82"/>
+      <c r="BN26" s="82"/>
+      <c r="BO26" s="82"/>
+      <c r="BP26" s="82"/>
+      <c r="BQ26" s="82"/>
+      <c r="BR26" s="82"/>
+      <c r="BS26" s="82"/>
+      <c r="BT26" s="84"/>
+      <c r="BU26" s="84"/>
+      <c r="BV26" s="84"/>
+      <c r="BW26" s="84"/>
+      <c r="BX26" s="84"/>
+      <c r="BY26" s="84"/>
+      <c r="BZ26" s="84"/>
+      <c r="CA26" s="84"/>
+      <c r="CB26" s="84"/>
+      <c r="CC26" s="84"/>
+      <c r="CD26" s="84"/>
+      <c r="CE26" s="84"/>
+      <c r="CF26" s="84"/>
+      <c r="CG26" s="84"/>
+      <c r="CH26" s="84"/>
+      <c r="CI26" s="84"/>
+      <c r="CJ26" s="84"/>
+      <c r="CK26" s="84"/>
+      <c r="CL26" s="84"/>
+      <c r="CM26" s="84"/>
+      <c r="CN26" s="84"/>
+      <c r="CO26" s="84"/>
+      <c r="CP26" s="84"/>
+      <c r="CQ26" s="84"/>
+      <c r="CR26" s="84"/>
+      <c r="CS26" s="84"/>
     </row>
     <row r="27" spans="1:97" x14ac:dyDescent="0.45">
       <c r="AS27" s="8"/>
       <c r="AT27" s="46"/>
       <c r="AU27" s="48"/>
-      <c r="AV27" s="91"/>
-      <c r="AW27" s="91"/>
-      <c r="AX27" s="91"/>
-      <c r="AY27" s="91"/>
-      <c r="AZ27" s="91"/>
-      <c r="BA27" s="91"/>
-      <c r="BB27" s="91"/>
-      <c r="BC27" s="91"/>
-      <c r="BD27" s="91"/>
-      <c r="BE27" s="91"/>
-      <c r="BF27" s="91"/>
-      <c r="BG27" s="91"/>
-      <c r="BH27" s="91"/>
-      <c r="BI27" s="91"/>
-      <c r="BJ27" s="91"/>
-      <c r="BK27" s="91"/>
-      <c r="BL27" s="91"/>
-      <c r="BM27" s="91"/>
-      <c r="BN27" s="91"/>
-      <c r="BO27" s="91"/>
-      <c r="BP27" s="91"/>
-      <c r="BQ27" s="91"/>
-      <c r="BR27" s="91"/>
-      <c r="BS27" s="91"/>
-      <c r="BT27" s="93"/>
-      <c r="BU27" s="93"/>
-      <c r="BV27" s="93"/>
-      <c r="BW27" s="93"/>
-      <c r="BX27" s="93"/>
-      <c r="BY27" s="93"/>
-      <c r="BZ27" s="93"/>
-      <c r="CA27" s="93"/>
-      <c r="CB27" s="93"/>
-      <c r="CC27" s="93"/>
-      <c r="CD27" s="93"/>
-      <c r="CE27" s="93"/>
-      <c r="CF27" s="93"/>
-      <c r="CG27" s="93"/>
-      <c r="CH27" s="93"/>
-      <c r="CI27" s="93"/>
-      <c r="CJ27" s="93"/>
-      <c r="CK27" s="93"/>
-      <c r="CL27" s="93"/>
-      <c r="CM27" s="93"/>
-      <c r="CN27" s="93"/>
-      <c r="CO27" s="93"/>
-      <c r="CP27" s="93"/>
-      <c r="CQ27" s="93"/>
-      <c r="CR27" s="93"/>
-      <c r="CS27" s="93"/>
+      <c r="AV27" s="82"/>
+      <c r="AW27" s="82"/>
+      <c r="AX27" s="82"/>
+      <c r="AY27" s="82"/>
+      <c r="AZ27" s="82"/>
+      <c r="BA27" s="82"/>
+      <c r="BB27" s="82"/>
+      <c r="BC27" s="82"/>
+      <c r="BD27" s="82"/>
+      <c r="BE27" s="82"/>
+      <c r="BF27" s="82"/>
+      <c r="BG27" s="82"/>
+      <c r="BH27" s="82"/>
+      <c r="BI27" s="82"/>
+      <c r="BJ27" s="82"/>
+      <c r="BK27" s="82"/>
+      <c r="BL27" s="82"/>
+      <c r="BM27" s="82"/>
+      <c r="BN27" s="82"/>
+      <c r="BO27" s="82"/>
+      <c r="BP27" s="82"/>
+      <c r="BQ27" s="82"/>
+      <c r="BR27" s="82"/>
+      <c r="BS27" s="82"/>
+      <c r="BT27" s="84"/>
+      <c r="BU27" s="84"/>
+      <c r="BV27" s="84"/>
+      <c r="BW27" s="84"/>
+      <c r="BX27" s="84"/>
+      <c r="BY27" s="84"/>
+      <c r="BZ27" s="84"/>
+      <c r="CA27" s="84"/>
+      <c r="CB27" s="84"/>
+      <c r="CC27" s="84"/>
+      <c r="CD27" s="84"/>
+      <c r="CE27" s="84"/>
+      <c r="CF27" s="84"/>
+      <c r="CG27" s="84"/>
+      <c r="CH27" s="84"/>
+      <c r="CI27" s="84"/>
+      <c r="CJ27" s="84"/>
+      <c r="CK27" s="84"/>
+      <c r="CL27" s="84"/>
+      <c r="CM27" s="84"/>
+      <c r="CN27" s="84"/>
+      <c r="CO27" s="84"/>
+      <c r="CP27" s="84"/>
+      <c r="CQ27" s="84"/>
+      <c r="CR27" s="84"/>
+      <c r="CS27" s="84"/>
     </row>
     <row r="28" spans="1:97" x14ac:dyDescent="0.45">
       <c r="AS28" s="8"/>
       <c r="AT28" s="46"/>
       <c r="AU28" s="48"/>
-      <c r="AV28" s="91"/>
-      <c r="AW28" s="91"/>
-      <c r="AX28" s="91"/>
-      <c r="AY28" s="91"/>
-      <c r="AZ28" s="91"/>
-      <c r="BA28" s="91"/>
-      <c r="BB28" s="91"/>
-      <c r="BC28" s="91"/>
-      <c r="BD28" s="91"/>
-      <c r="BE28" s="91"/>
-      <c r="BF28" s="91"/>
-      <c r="BG28" s="91"/>
-      <c r="BH28" s="91"/>
-      <c r="BI28" s="91"/>
-      <c r="BJ28" s="91"/>
-      <c r="BK28" s="91"/>
-      <c r="BL28" s="91"/>
-      <c r="BM28" s="91"/>
-      <c r="BN28" s="91"/>
-      <c r="BO28" s="91"/>
-      <c r="BP28" s="91"/>
-      <c r="BQ28" s="91"/>
-      <c r="BR28" s="91"/>
-      <c r="BS28" s="91"/>
-      <c r="BT28" s="93"/>
-      <c r="BU28" s="93"/>
-      <c r="BV28" s="93"/>
-      <c r="BW28" s="93"/>
-      <c r="BX28" s="93"/>
-      <c r="BY28" s="93"/>
-      <c r="BZ28" s="93"/>
-      <c r="CA28" s="93"/>
-      <c r="CB28" s="93"/>
-      <c r="CC28" s="93"/>
-      <c r="CD28" s="93"/>
-      <c r="CE28" s="93"/>
-      <c r="CF28" s="93"/>
-      <c r="CG28" s="93"/>
-      <c r="CH28" s="93"/>
-      <c r="CI28" s="93"/>
-      <c r="CJ28" s="93"/>
-      <c r="CK28" s="93"/>
-      <c r="CL28" s="93"/>
-      <c r="CM28" s="93"/>
-      <c r="CN28" s="93"/>
-      <c r="CO28" s="93"/>
-      <c r="CP28" s="93"/>
-      <c r="CQ28" s="93"/>
-      <c r="CR28" s="93"/>
-      <c r="CS28" s="93"/>
+      <c r="AV28" s="82"/>
+      <c r="AW28" s="82"/>
+      <c r="AX28" s="82"/>
+      <c r="AY28" s="82"/>
+      <c r="AZ28" s="82"/>
+      <c r="BA28" s="82"/>
+      <c r="BB28" s="82"/>
+      <c r="BC28" s="82"/>
+      <c r="BD28" s="82"/>
+      <c r="BE28" s="82"/>
+      <c r="BF28" s="82"/>
+      <c r="BG28" s="82"/>
+      <c r="BH28" s="82"/>
+      <c r="BI28" s="82"/>
+      <c r="BJ28" s="82"/>
+      <c r="BK28" s="82"/>
+      <c r="BL28" s="82"/>
+      <c r="BM28" s="82"/>
+      <c r="BN28" s="82"/>
+      <c r="BO28" s="82"/>
+      <c r="BP28" s="82"/>
+      <c r="BQ28" s="82"/>
+      <c r="BR28" s="82"/>
+      <c r="BS28" s="82"/>
+      <c r="BT28" s="84"/>
+      <c r="BU28" s="84"/>
+      <c r="BV28" s="84"/>
+      <c r="BW28" s="84"/>
+      <c r="BX28" s="84"/>
+      <c r="BY28" s="84"/>
+      <c r="BZ28" s="84"/>
+      <c r="CA28" s="84"/>
+      <c r="CB28" s="84"/>
+      <c r="CC28" s="84"/>
+      <c r="CD28" s="84"/>
+      <c r="CE28" s="84"/>
+      <c r="CF28" s="84"/>
+      <c r="CG28" s="84"/>
+      <c r="CH28" s="84"/>
+      <c r="CI28" s="84"/>
+      <c r="CJ28" s="84"/>
+      <c r="CK28" s="84"/>
+      <c r="CL28" s="84"/>
+      <c r="CM28" s="84"/>
+      <c r="CN28" s="84"/>
+      <c r="CO28" s="84"/>
+      <c r="CP28" s="84"/>
+      <c r="CQ28" s="84"/>
+      <c r="CR28" s="84"/>
+      <c r="CS28" s="84"/>
     </row>
     <row r="29" spans="1:97" x14ac:dyDescent="0.45">
       <c r="C29" s="31"/>
@@ -4098,204 +4072,214 @@
       <c r="AS29" s="8"/>
       <c r="AT29" s="46"/>
       <c r="AU29" s="48"/>
-      <c r="AV29" s="91"/>
-      <c r="AW29" s="91"/>
-      <c r="AX29" s="91"/>
-      <c r="AY29" s="91"/>
-      <c r="AZ29" s="91"/>
-      <c r="BA29" s="91"/>
-      <c r="BB29" s="91"/>
-      <c r="BC29" s="91"/>
-      <c r="BD29" s="91"/>
-      <c r="BE29" s="91"/>
-      <c r="BF29" s="91"/>
-      <c r="BG29" s="91"/>
-      <c r="BH29" s="91"/>
-      <c r="BI29" s="91"/>
-      <c r="BJ29" s="91"/>
-      <c r="BK29" s="91"/>
-      <c r="BL29" s="91"/>
-      <c r="BM29" s="91"/>
-      <c r="BN29" s="91"/>
-      <c r="BO29" s="91"/>
-      <c r="BP29" s="91"/>
-      <c r="BQ29" s="91"/>
-      <c r="BR29" s="91"/>
-      <c r="BS29" s="91"/>
-      <c r="BT29" s="93"/>
-      <c r="BU29" s="93"/>
-      <c r="BV29" s="93"/>
-      <c r="BW29" s="93"/>
-      <c r="BX29" s="93"/>
-      <c r="BY29" s="93"/>
-      <c r="BZ29" s="93"/>
-      <c r="CA29" s="93"/>
-      <c r="CB29" s="93"/>
-      <c r="CC29" s="93"/>
-      <c r="CD29" s="93"/>
-      <c r="CE29" s="93"/>
-      <c r="CF29" s="93"/>
-      <c r="CG29" s="93"/>
-      <c r="CH29" s="93"/>
-      <c r="CI29" s="93"/>
-      <c r="CJ29" s="93"/>
-      <c r="CK29" s="93"/>
-      <c r="CL29" s="93"/>
-      <c r="CM29" s="93"/>
-      <c r="CN29" s="93"/>
-      <c r="CO29" s="93"/>
-      <c r="CP29" s="93"/>
-      <c r="CQ29" s="93"/>
-      <c r="CR29" s="93"/>
-      <c r="CS29" s="93"/>
+      <c r="AV29" s="82"/>
+      <c r="AW29" s="82"/>
+      <c r="AX29" s="82"/>
+      <c r="AY29" s="82"/>
+      <c r="AZ29" s="82"/>
+      <c r="BA29" s="82"/>
+      <c r="BB29" s="82"/>
+      <c r="BC29" s="82"/>
+      <c r="BD29" s="82"/>
+      <c r="BE29" s="82"/>
+      <c r="BF29" s="82"/>
+      <c r="BG29" s="82"/>
+      <c r="BH29" s="82"/>
+      <c r="BI29" s="82"/>
+      <c r="BJ29" s="82"/>
+      <c r="BK29" s="82"/>
+      <c r="BL29" s="82"/>
+      <c r="BM29" s="82"/>
+      <c r="BN29" s="82"/>
+      <c r="BO29" s="82"/>
+      <c r="BP29" s="82"/>
+      <c r="BQ29" s="82"/>
+      <c r="BR29" s="82"/>
+      <c r="BS29" s="82"/>
+      <c r="BT29" s="84"/>
+      <c r="BU29" s="84"/>
+      <c r="BV29" s="84"/>
+      <c r="BW29" s="84"/>
+      <c r="BX29" s="84"/>
+      <c r="BY29" s="84"/>
+      <c r="BZ29" s="84"/>
+      <c r="CA29" s="84"/>
+      <c r="CB29" s="84"/>
+      <c r="CC29" s="84"/>
+      <c r="CD29" s="84"/>
+      <c r="CE29" s="84"/>
+      <c r="CF29" s="84"/>
+      <c r="CG29" s="84"/>
+      <c r="CH29" s="84"/>
+      <c r="CI29" s="84"/>
+      <c r="CJ29" s="84"/>
+      <c r="CK29" s="84"/>
+      <c r="CL29" s="84"/>
+      <c r="CM29" s="84"/>
+      <c r="CN29" s="84"/>
+      <c r="CO29" s="84"/>
+      <c r="CP29" s="84"/>
+      <c r="CQ29" s="84"/>
+      <c r="CR29" s="84"/>
+      <c r="CS29" s="84"/>
     </row>
     <row r="30" spans="1:97" ht="19.5" x14ac:dyDescent="0.6">
       <c r="C30" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="56"/>
-      <c r="F30" s="57"/>
+        <v>16</v>
+      </c>
+      <c r="D30" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="85"/>
+      <c r="F30" s="86"/>
+      <c r="J30" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="AS30" s="44">
         <f>SUM(AS8:AS26)</f>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AT30" s="47">
         <f>SUM(AT8:AT26)</f>
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="AU30" s="49">
         <f>SUM(AU8:AU26)</f>
-        <v>990</v>
-      </c>
-      <c r="AV30" s="91"/>
-      <c r="AW30" s="91"/>
-      <c r="AX30" s="91"/>
-      <c r="AY30" s="91"/>
-      <c r="AZ30" s="91"/>
-      <c r="BA30" s="91"/>
-      <c r="BB30" s="91"/>
-      <c r="BC30" s="91"/>
-      <c r="BD30" s="91"/>
-      <c r="BE30" s="91"/>
-      <c r="BF30" s="91"/>
-      <c r="BG30" s="91"/>
-      <c r="BH30" s="91"/>
-      <c r="BI30" s="91"/>
-      <c r="BJ30" s="91"/>
-      <c r="BK30" s="91"/>
-      <c r="BL30" s="91"/>
-      <c r="BM30" s="91"/>
-      <c r="BN30" s="91"/>
-      <c r="BO30" s="91"/>
-      <c r="BP30" s="91"/>
-      <c r="BQ30" s="91"/>
-      <c r="BR30" s="91"/>
-      <c r="BS30" s="91"/>
-      <c r="BT30" s="93"/>
-      <c r="BU30" s="93"/>
-      <c r="BV30" s="93"/>
-      <c r="BW30" s="93"/>
-      <c r="BX30" s="93"/>
-      <c r="BY30" s="93"/>
-      <c r="BZ30" s="93"/>
-      <c r="CA30" s="93"/>
-      <c r="CB30" s="93"/>
-      <c r="CC30" s="93"/>
-      <c r="CD30" s="93"/>
-      <c r="CE30" s="93"/>
-      <c r="CF30" s="93"/>
-      <c r="CG30" s="93"/>
-      <c r="CH30" s="93"/>
-      <c r="CI30" s="93"/>
-      <c r="CJ30" s="93"/>
-      <c r="CK30" s="93"/>
-      <c r="CL30" s="93"/>
-      <c r="CM30" s="93"/>
-      <c r="CN30" s="93"/>
-      <c r="CO30" s="93"/>
-      <c r="CP30" s="93"/>
-      <c r="CQ30" s="93"/>
-      <c r="CR30" s="93"/>
-      <c r="CS30" s="93"/>
+        <v>1215</v>
+      </c>
+      <c r="AV30" s="82"/>
+      <c r="AW30" s="82"/>
+      <c r="AX30" s="82"/>
+      <c r="AY30" s="82"/>
+      <c r="AZ30" s="82"/>
+      <c r="BA30" s="82"/>
+      <c r="BB30" s="82"/>
+      <c r="BC30" s="82"/>
+      <c r="BD30" s="82"/>
+      <c r="BE30" s="82"/>
+      <c r="BF30" s="82"/>
+      <c r="BG30" s="82"/>
+      <c r="BH30" s="82"/>
+      <c r="BI30" s="82"/>
+      <c r="BJ30" s="82"/>
+      <c r="BK30" s="82"/>
+      <c r="BL30" s="82"/>
+      <c r="BM30" s="82"/>
+      <c r="BN30" s="82"/>
+      <c r="BO30" s="82"/>
+      <c r="BP30" s="82"/>
+      <c r="BQ30" s="82"/>
+      <c r="BR30" s="82"/>
+      <c r="BS30" s="82"/>
+      <c r="BT30" s="84"/>
+      <c r="BU30" s="84"/>
+      <c r="BV30" s="84"/>
+      <c r="BW30" s="84"/>
+      <c r="BX30" s="84"/>
+      <c r="BY30" s="84"/>
+      <c r="BZ30" s="84"/>
+      <c r="CA30" s="84"/>
+      <c r="CB30" s="84"/>
+      <c r="CC30" s="84"/>
+      <c r="CD30" s="84"/>
+      <c r="CE30" s="84"/>
+      <c r="CF30" s="84"/>
+      <c r="CG30" s="84"/>
+      <c r="CH30" s="84"/>
+      <c r="CI30" s="84"/>
+      <c r="CJ30" s="84"/>
+      <c r="CK30" s="84"/>
+      <c r="CL30" s="84"/>
+      <c r="CM30" s="84"/>
+      <c r="CN30" s="84"/>
+      <c r="CO30" s="84"/>
+      <c r="CP30" s="84"/>
+      <c r="CQ30" s="84"/>
+      <c r="CR30" s="84"/>
+      <c r="CS30" s="84"/>
     </row>
     <row r="31" spans="1:97" x14ac:dyDescent="0.45">
       <c r="C31" s="35"/>
-      <c r="D31" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="56"/>
-      <c r="F31" s="57"/>
-      <c r="AV31" s="91"/>
-      <c r="AW31" s="91"/>
-      <c r="AX31" s="91"/>
-      <c r="AY31" s="91"/>
-      <c r="AZ31" s="91"/>
-      <c r="BA31" s="91"/>
-      <c r="BB31" s="91"/>
-      <c r="BC31" s="91"/>
-      <c r="BD31" s="91"/>
-      <c r="BE31" s="91"/>
-      <c r="BF31" s="91"/>
-      <c r="BG31" s="91"/>
-      <c r="BH31" s="91"/>
-      <c r="BI31" s="91"/>
-      <c r="BJ31" s="91"/>
-      <c r="BK31" s="91"/>
-      <c r="BL31" s="91"/>
-      <c r="BM31" s="91"/>
-      <c r="BN31" s="91"/>
-      <c r="BO31" s="91"/>
-      <c r="BP31" s="91"/>
-      <c r="BQ31" s="91"/>
-      <c r="BR31" s="91"/>
-      <c r="BS31" s="91"/>
+      <c r="D31" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="85"/>
+      <c r="F31" s="86"/>
+      <c r="J31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV31" s="82"/>
+      <c r="AW31" s="82"/>
+      <c r="AX31" s="82"/>
+      <c r="AY31" s="82"/>
+      <c r="AZ31" s="82"/>
+      <c r="BA31" s="82"/>
+      <c r="BB31" s="82"/>
+      <c r="BC31" s="82"/>
+      <c r="BD31" s="82"/>
+      <c r="BE31" s="82"/>
+      <c r="BF31" s="82"/>
+      <c r="BG31" s="82"/>
+      <c r="BH31" s="82"/>
+      <c r="BI31" s="82"/>
+      <c r="BJ31" s="82"/>
+      <c r="BK31" s="82"/>
+      <c r="BL31" s="82"/>
+      <c r="BM31" s="82"/>
+      <c r="BN31" s="82"/>
+      <c r="BO31" s="82"/>
+      <c r="BP31" s="82"/>
+      <c r="BQ31" s="82"/>
+      <c r="BR31" s="82"/>
+      <c r="BS31" s="82"/>
     </row>
     <row r="32" spans="1:97" x14ac:dyDescent="0.45">
       <c r="C32" s="35"/>
-      <c r="D32" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="56"/>
-      <c r="F32" s="57"/>
-      <c r="J32" s="2"/>
+      <c r="D32" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="85"/>
+      <c r="F32" s="86"/>
+      <c r="J32" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-      <c r="AV32" s="91"/>
-      <c r="AW32" s="91"/>
-      <c r="AX32" s="91"/>
-      <c r="AY32" s="91"/>
-      <c r="AZ32" s="91"/>
-      <c r="BA32" s="91"/>
-      <c r="BB32" s="91"/>
-      <c r="BC32" s="91"/>
-      <c r="BD32" s="91"/>
-      <c r="BE32" s="91"/>
-      <c r="BF32" s="91"/>
-      <c r="BG32" s="91"/>
-      <c r="BH32" s="91"/>
-      <c r="BI32" s="91"/>
-      <c r="BJ32" s="91"/>
-      <c r="BK32" s="91"/>
-      <c r="BL32" s="91"/>
-      <c r="BM32" s="91"/>
-      <c r="BN32" s="91"/>
-      <c r="BO32" s="91"/>
-      <c r="BP32" s="91"/>
-      <c r="BQ32" s="91"/>
-      <c r="BR32" s="91"/>
-      <c r="BS32" s="91"/>
+      <c r="AV32" s="82"/>
+      <c r="AW32" s="82"/>
+      <c r="AX32" s="82"/>
+      <c r="AY32" s="82"/>
+      <c r="AZ32" s="82"/>
+      <c r="BA32" s="82"/>
+      <c r="BB32" s="82"/>
+      <c r="BC32" s="82"/>
+      <c r="BD32" s="82"/>
+      <c r="BE32" s="82"/>
+      <c r="BF32" s="82"/>
+      <c r="BG32" s="82"/>
+      <c r="BH32" s="82"/>
+      <c r="BI32" s="82"/>
+      <c r="BJ32" s="82"/>
+      <c r="BK32" s="82"/>
+      <c r="BL32" s="82"/>
+      <c r="BM32" s="82"/>
+      <c r="BN32" s="82"/>
+      <c r="BO32" s="82"/>
+      <c r="BP32" s="82"/>
+      <c r="BQ32" s="82"/>
+      <c r="BR32" s="82"/>
+      <c r="BS32" s="82"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C33" s="35"/>
-      <c r="D33" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="56"/>
-      <c r="F33" s="57"/>
-      <c r="J33" s="2"/>
+      <c r="D33" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="85"/>
+      <c r="F33" s="86"/>
+      <c r="J33" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
@@ -4304,7 +4288,9 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="34"/>
-      <c r="J34" s="2"/>
+      <c r="J34" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
@@ -4319,13 +4305,13 @@
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C36" s="43" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D36" s="39">
         <v>3</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F36" s="34"/>
       <c r="J36" s="2"/>
@@ -4334,13 +4320,13 @@
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C37" s="43" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D37" s="39">
         <v>15</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F37" s="34"/>
       <c r="J37" s="2"/>
@@ -4349,13 +4335,13 @@
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C38" s="43" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D38">
         <v>25</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F38" s="40"/>
     </row>
@@ -4367,11 +4353,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="V3:Y3"/>
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="D30:F30"/>
@@ -4381,6 +4362,11 @@
     <mergeCell ref="M3:P3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="V3:Y3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E8:E26">
